--- a/TranslateData.xlsx
+++ b/TranslateData.xlsx
@@ -21421,7 +21421,7 @@
   <dimension ref="A1:Q765"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A548" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A560" activeCellId="0" sqref="A560"/>
+      <selection pane="topLeft" activeCell="A558" activeCellId="0" sqref="A558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.89453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/TranslateData.xlsx
+++ b/TranslateData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3468" uniqueCount="3193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3476" uniqueCount="3201">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -9838,6 +9838,18 @@
     <t xml:space="preserve">革命性的冷却时间</t>
   </si>
   <si>
+    <t xml:space="preserve">RevolutionTouchTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revolutionary contact hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">革命家の接触時間</t>
+  </si>
+  <si>
+    <t xml:space="preserve">革命性的接触时间</t>
+  </si>
+  <si>
     <t xml:space="preserve">RevolutionistAddWin</t>
   </si>
   <si>
@@ -9860,6 +9872,18 @@
   </si>
   <si>
     <t xml:space="preserve">只有在活着的时候才能取得额外的胜利。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RevolutionistButtonName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Up to revolutionary possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">革命可能まで</t>
+  </si>
+  <si>
+    <t xml:space="preserve">最多可能是革命性的</t>
   </si>
   <si>
     <t xml:space="preserve">WelcomeMessage1</t>
@@ -21418,10 +21442,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q765"/>
+  <dimension ref="A1:Q766"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A548" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A558" activeCellId="0" sqref="A558"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I554" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O562" activeCellId="0" sqref="O562"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.89453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29190,7 +29214,7 @@
       </c>
     </row>
     <row r="560" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A560" s="17" t="s">
+      <c r="A560" s="0" t="s">
         <v>3080</v>
       </c>
       <c r="B560" s="5" t="s">
@@ -29217,8 +29241,34 @@
         <v>3087</v>
       </c>
     </row>
-    <row r="562" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="563" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="562" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A562" s="17" t="s">
+        <v>3088</v>
+      </c>
+      <c r="B562" s="5" t="s">
+        <v>3089</v>
+      </c>
+      <c r="M562" s="5" t="s">
+        <v>3090</v>
+      </c>
+      <c r="O562" s="0" t="s">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="563" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A563" s="17" t="s">
+        <v>3092</v>
+      </c>
+      <c r="B563" s="5" t="s">
+        <v>3093</v>
+      </c>
+      <c r="M563" s="5" t="s">
+        <v>3094</v>
+      </c>
+      <c r="O563" s="0" t="s">
+        <v>3095</v>
+      </c>
+    </row>
     <row r="564" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="565" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="566" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -29333,26 +29383,26 @@
     <row r="675" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="676" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="677" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="678" s="1" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A678" s="3"/>
-      <c r="B678" s="7"/>
-      <c r="C678" s="3"/>
-      <c r="D678" s="3"/>
-      <c r="E678" s="3"/>
-      <c r="F678" s="3"/>
-      <c r="G678" s="3"/>
-      <c r="H678" s="3"/>
-      <c r="I678" s="3"/>
-      <c r="J678" s="3"/>
-      <c r="K678" s="3"/>
-      <c r="L678" s="3"/>
-      <c r="M678" s="7"/>
-      <c r="N678" s="3"/>
-      <c r="O678" s="3"/>
-      <c r="P678" s="3"/>
-      <c r="Q678" s="3"/>
-    </row>
-    <row r="679" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="678" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="679" s="1" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A679" s="3"/>
+      <c r="B679" s="7"/>
+      <c r="C679" s="3"/>
+      <c r="D679" s="3"/>
+      <c r="E679" s="3"/>
+      <c r="F679" s="3"/>
+      <c r="G679" s="3"/>
+      <c r="H679" s="3"/>
+      <c r="I679" s="3"/>
+      <c r="J679" s="3"/>
+      <c r="K679" s="3"/>
+      <c r="L679" s="3"/>
+      <c r="M679" s="7"/>
+      <c r="N679" s="3"/>
+      <c r="O679" s="3"/>
+      <c r="P679" s="3"/>
+      <c r="Q679" s="3"/>
+    </row>
     <row r="680" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="681" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="682" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -29393,25 +29443,7 @@
     <row r="717" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="718" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="719" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="720" s="1" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A720" s="3"/>
-      <c r="B720" s="7"/>
-      <c r="C720" s="3"/>
-      <c r="D720" s="3"/>
-      <c r="E720" s="3"/>
-      <c r="F720" s="3"/>
-      <c r="G720" s="3"/>
-      <c r="H720" s="3"/>
-      <c r="I720" s="3"/>
-      <c r="J720" s="3"/>
-      <c r="K720" s="3"/>
-      <c r="L720" s="3"/>
-      <c r="M720" s="7"/>
-      <c r="N720" s="3"/>
-      <c r="O720" s="3"/>
-      <c r="P720" s="3"/>
-      <c r="Q720" s="3"/>
-    </row>
+    <row r="720" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="721" s="1" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A721" s="3"/>
       <c r="B721" s="7"/>
@@ -29490,7 +29522,7 @@
     </row>
     <row r="725" s="1" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A725" s="3"/>
-      <c r="B725" s="3"/>
+      <c r="B725" s="7"/>
       <c r="C725" s="3"/>
       <c r="D725" s="3"/>
       <c r="E725" s="3"/>
@@ -29509,7 +29541,7 @@
     </row>
     <row r="726" s="1" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A726" s="3"/>
-      <c r="B726" s="7"/>
+      <c r="B726" s="3"/>
       <c r="C726" s="3"/>
       <c r="D726" s="3"/>
       <c r="E726" s="3"/>
@@ -29583,7 +29615,25 @@
       <c r="P729" s="3"/>
       <c r="Q729" s="3"/>
     </row>
-    <row r="730" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="730" s="1" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A730" s="3"/>
+      <c r="B730" s="7"/>
+      <c r="C730" s="3"/>
+      <c r="D730" s="3"/>
+      <c r="E730" s="3"/>
+      <c r="F730" s="3"/>
+      <c r="G730" s="3"/>
+      <c r="H730" s="3"/>
+      <c r="I730" s="3"/>
+      <c r="J730" s="3"/>
+      <c r="K730" s="3"/>
+      <c r="L730" s="3"/>
+      <c r="M730" s="7"/>
+      <c r="N730" s="3"/>
+      <c r="O730" s="3"/>
+      <c r="P730" s="3"/>
+      <c r="Q730" s="3"/>
+    </row>
     <row r="731" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="732" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="733" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -29618,24 +29668,25 @@
     <row r="762" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="763" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="764" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="765" s="1" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A765" s="3"/>
-      <c r="B765" s="7"/>
-      <c r="C765" s="3"/>
-      <c r="D765" s="3"/>
-      <c r="E765" s="3"/>
-      <c r="F765" s="3"/>
-      <c r="G765" s="3"/>
-      <c r="H765" s="3"/>
-      <c r="I765" s="3"/>
-      <c r="J765" s="3"/>
-      <c r="K765" s="3"/>
-      <c r="L765" s="3"/>
-      <c r="M765" s="7"/>
-      <c r="N765" s="3"/>
-      <c r="O765" s="3"/>
-      <c r="P765" s="3"/>
-      <c r="Q765" s="3"/>
+    <row r="765" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="766" s="1" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A766" s="3"/>
+      <c r="B766" s="7"/>
+      <c r="C766" s="3"/>
+      <c r="D766" s="3"/>
+      <c r="E766" s="3"/>
+      <c r="F766" s="3"/>
+      <c r="G766" s="3"/>
+      <c r="H766" s="3"/>
+      <c r="I766" s="3"/>
+      <c r="J766" s="3"/>
+      <c r="K766" s="3"/>
+      <c r="L766" s="3"/>
+      <c r="M766" s="7"/>
+      <c r="N766" s="3"/>
+      <c r="O766" s="3"/>
+      <c r="P766" s="3"/>
+      <c r="Q766" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -29722,332 +29773,332 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>3088</v>
+        <v>3096</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3089</v>
+        <v>3097</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>3090</v>
+        <v>3098</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>3091</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>3092</v>
+        <v>3100</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3093</v>
+        <v>3101</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>3094</v>
+        <v>3102</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>3095</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>3096</v>
+        <v>3104</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3097</v>
+        <v>3105</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>3098</v>
+        <v>3106</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>3099</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>3100</v>
+        <v>3108</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3101</v>
+        <v>3109</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>3102</v>
+        <v>3110</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>3103</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>3104</v>
+        <v>3112</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>3105</v>
+        <v>3113</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>3106</v>
+        <v>3114</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>3107</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>3108</v>
+        <v>3116</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>3109</v>
+        <v>3117</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>3110</v>
+        <v>3118</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>3111</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>3112</v>
+        <v>3120</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>3113</v>
+        <v>3121</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>3114</v>
+        <v>3122</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>3115</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>3116</v>
+        <v>3124</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>3117</v>
+        <v>3125</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>3118</v>
+        <v>3126</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>3119</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>3120</v>
+        <v>3128</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>3121</v>
+        <v>3129</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>3122</v>
+        <v>3130</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>3123</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>3124</v>
+        <v>3132</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>3125</v>
+        <v>3133</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>3126</v>
+        <v>3134</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>3127</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>3128</v>
+        <v>3136</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>3129</v>
+        <v>3137</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>3130</v>
+        <v>3138</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>3131</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>3132</v>
+        <v>3140</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>3133</v>
+        <v>3141</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>3134</v>
+        <v>3142</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>3135</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>3136</v>
+        <v>3144</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>3137</v>
+        <v>3145</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>3138</v>
+        <v>3146</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>3139</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>3140</v>
+        <v>3148</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>3141</v>
+        <v>3149</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>3142</v>
+        <v>3150</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>3143</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>3144</v>
+        <v>3152</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3145</v>
+        <v>3153</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>3146</v>
+        <v>3154</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>3147</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>3148</v>
+        <v>3156</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>3149</v>
+        <v>3157</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>3150</v>
+        <v>3158</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>3151</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>3152</v>
+        <v>3160</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>3153</v>
+        <v>3161</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>3154</v>
+        <v>3162</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>3155</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>3156</v>
+        <v>3164</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>3157</v>
+        <v>3165</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>3158</v>
+        <v>3166</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>3159</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>3160</v>
+        <v>3168</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>3161</v>
+        <v>3169</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>3162</v>
+        <v>3170</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>3163</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>3164</v>
+        <v>3172</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>3165</v>
+        <v>3173</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>3166</v>
+        <v>3174</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>3167</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>3168</v>
+        <v>3176</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>3169</v>
+        <v>3177</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>3170</v>
+        <v>3178</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>3171</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>3172</v>
+        <v>3180</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>3173</v>
+        <v>3181</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>3174</v>
+        <v>3182</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>3175</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>3176</v>
+        <v>3184</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>3176</v>
+        <v>3184</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>3177</v>
+        <v>3185</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>3178</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>3179</v>
+        <v>3187</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>3180</v>
+        <v>3188</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>56</v>
@@ -30058,45 +30109,45 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>3181</v>
+        <v>3189</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>3182</v>
+        <v>3190</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>3183</v>
+        <v>3191</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>3184</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>3185</v>
+        <v>3193</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>3186</v>
+        <v>3194</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>3187</v>
+        <v>3195</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>3188</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>3189</v>
+        <v>3197</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>3190</v>
+        <v>3198</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>3191</v>
+        <v>3199</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>3192</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/TranslateData.xlsx
+++ b/TranslateData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3425" uniqueCount="3153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3484" uniqueCount="3212">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -9389,6 +9389,183 @@
   <si>
     <t xml:space="preserve">
 确认的杀戮数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RevolutionistName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revolutionist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">革命家</t>
+  </si>
+  <si>
+    <t xml:space="preserve">革命者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RevolutionistTitle1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's start a revolution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">革命を起こそう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?我??始一?革命。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DictatorName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dictator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">独裁者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">独裁?治</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DictatorTitle1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's monopolize power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">権力を独占しよう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?我??断?力</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RevolutionistAndDictatorName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;color=#FF0033&gt;Revolutionist&lt;/color&gt;And&lt;color=#336600&gt;Dictator&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;color=#FF0033&gt;革命家&lt;/color&gt;と&lt;color=#336600&gt;独裁者&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SettingRevolutionistPlayerCountName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of &lt;color=#FF0033&gt;Revolutionist&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;color=#FF0033&gt;革命家&lt;/color&gt;の人数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;color=#FF0033&gt;革命者&lt;/color&gt;的数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SettingDictatorPlayerCountName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of &lt;color=#336600&gt;Dictator&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;color=#336600&gt;独裁者&lt;/color&gt;の人数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;color=#336600&gt;独裁者&lt;/color&gt;的数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DictatorSubExile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When exiled, exile another player.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">追放時、別のプレイヤーを追放する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">当被放逐?，放逐?一个玩家。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DictatorSubExileLimit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum number of substitutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">身代わりの最大回数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">替?的最大数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DictatorVoteCount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dictatorial vote count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">独裁者の票数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">独裁者的票数。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RevolutionCoolTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revolutionary cool time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">革命クールタイム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">革命性的冷却??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RevolutionTouchTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revolutionary contact hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">革命家の接触時間</t>
+  </si>
+  <si>
+    <t xml:space="preserve">革命性的接触??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RevolutionistAddWin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Victories for Revolutionist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">革命家の追加勝利</t>
+  </si>
+  <si>
+    <t xml:space="preserve">革命者的?外?利</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RevolutionistAddWinIsAlive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional victory only when alive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生存時のみ追加勝利</t>
+  </si>
+  <si>
+    <t xml:space="preserve">只有在活着的?候才能取得?外的?利。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RevolutionistButtonName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Up to revolutionary possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">革命可能まで</t>
+  </si>
+  <si>
+    <t xml:space="preserve">最多可能是革命性的</t>
   </si>
   <si>
     <t xml:space="preserve">WelcomeMessage1</t>
@@ -9948,7 +10125,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="29.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="3" style="1" width="13.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="33.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="33.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="14" style="1" width="13.62"/>
   </cols>
   <sheetData>
@@ -13288,7 +13465,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="7.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="6.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="33.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="33.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="26.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="1" width="13.62"/>
@@ -14608,7 +14785,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="29.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="3" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="33.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="33.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="13.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="1" width="13.62"/>
@@ -16206,7 +16383,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="33.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="33.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="38.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="1" width="13.62"/>
@@ -18526,7 +18703,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="29.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="3" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="33.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="33.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="33.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="1" width="13.62"/>
@@ -20928,8 +21105,8 @@
   </sheetPr>
   <dimension ref="A1:Q761"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A541" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B549" activeCellId="0" sqref="B549"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A556" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A550" activeCellId="0" sqref="A550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20938,9 +21115,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="50.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="4" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="33.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="33.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="37.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="37.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="1" width="13.62"/>
   </cols>
   <sheetData>
@@ -28560,21 +28737,213 @@
         <v>3047</v>
       </c>
     </row>
-    <row r="550" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="551" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="552" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="553" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="554" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="555" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="556" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="557" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="558" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="559" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="560" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="561" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="562" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="563" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="564" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="550" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A550" s="0" t="s">
+        <v>3048</v>
+      </c>
+      <c r="B550" s="4" t="s">
+        <v>3049</v>
+      </c>
+      <c r="M550" s="4" t="s">
+        <v>3050</v>
+      </c>
+      <c r="O550" s="0" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A551" s="0" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B551" s="4" t="s">
+        <v>3053</v>
+      </c>
+      <c r="M551" s="4" t="s">
+        <v>3054</v>
+      </c>
+      <c r="O551" s="0" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A552" s="0" t="s">
+        <v>3056</v>
+      </c>
+      <c r="B552" s="4" t="s">
+        <v>3057</v>
+      </c>
+      <c r="M552" s="4" t="s">
+        <v>3058</v>
+      </c>
+      <c r="O552" s="0" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A553" s="0" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B553" s="4" t="s">
+        <v>3061</v>
+      </c>
+      <c r="M553" s="4" t="s">
+        <v>3062</v>
+      </c>
+      <c r="O553" s="0" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A554" s="0" t="s">
+        <v>3064</v>
+      </c>
+      <c r="B554" s="4" t="s">
+        <v>3065</v>
+      </c>
+      <c r="M554" s="4" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A555" s="0" t="s">
+        <v>3067</v>
+      </c>
+      <c r="B555" s="4" t="s">
+        <v>3068</v>
+      </c>
+      <c r="M555" s="4" t="s">
+        <v>3069</v>
+      </c>
+      <c r="O555" s="0" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A556" s="0" t="s">
+        <v>3071</v>
+      </c>
+      <c r="B556" s="4" t="s">
+        <v>3072</v>
+      </c>
+      <c r="M556" s="4" t="s">
+        <v>3073</v>
+      </c>
+      <c r="O556" s="0" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A557" s="0" t="s">
+        <v>3075</v>
+      </c>
+      <c r="B557" s="4" t="s">
+        <v>3076</v>
+      </c>
+      <c r="M557" s="4" t="s">
+        <v>3077</v>
+      </c>
+      <c r="O557" s="0" t="s">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A558" s="0" t="s">
+        <v>3079</v>
+      </c>
+      <c r="B558" s="4" t="s">
+        <v>3080</v>
+      </c>
+      <c r="M558" s="4" t="s">
+        <v>3081</v>
+      </c>
+      <c r="O558" s="0" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A559" s="0" t="s">
+        <v>3083</v>
+      </c>
+      <c r="B559" s="4" t="s">
+        <v>3084</v>
+      </c>
+      <c r="M559" s="4" t="s">
+        <v>3085</v>
+      </c>
+      <c r="O559" s="0" t="s">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A560" s="0" t="s">
+        <v>3087</v>
+      </c>
+      <c r="B560" s="4" t="s">
+        <v>3088</v>
+      </c>
+      <c r="M560" s="4" t="s">
+        <v>3089</v>
+      </c>
+      <c r="O560" s="0" t="s">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A561" s="0" t="s">
+        <v>3091</v>
+      </c>
+      <c r="B561" s="4" t="s">
+        <v>3092</v>
+      </c>
+      <c r="M561" s="4" t="s">
+        <v>3093</v>
+      </c>
+      <c r="O561" s="0" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="562" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A562" s="0" t="s">
+        <v>3095</v>
+      </c>
+      <c r="B562" s="4" t="s">
+        <v>3096</v>
+      </c>
+      <c r="M562" s="4" t="s">
+        <v>3097</v>
+      </c>
+      <c r="O562" s="0" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="563" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A563" s="0" t="s">
+        <v>3099</v>
+      </c>
+      <c r="B563" s="4" t="s">
+        <v>3100</v>
+      </c>
+      <c r="M563" s="4" t="s">
+        <v>3101</v>
+      </c>
+      <c r="O563" s="0" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A564" s="0" t="s">
+        <v>3103</v>
+      </c>
+      <c r="B564" s="4" t="s">
+        <v>3104</v>
+      </c>
+      <c r="M564" s="4" t="s">
+        <v>3105</v>
+      </c>
+      <c r="O564" s="0" t="s">
+        <v>3106</v>
+      </c>
+    </row>
     <row r="565" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="566" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="567" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -29015,7 +29384,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="29.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="3" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="33.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="33.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="57.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="1" width="13.62"/>
@@ -29073,332 +29442,332 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>3048</v>
+        <v>3107</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3049</v>
+        <v>3108</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>3050</v>
+        <v>3109</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>3051</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>3052</v>
+        <v>3111</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>3053</v>
+        <v>3112</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>3054</v>
+        <v>3113</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>3055</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>3056</v>
+        <v>3115</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>3057</v>
+        <v>3116</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>3058</v>
+        <v>3117</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>3059</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>3060</v>
+        <v>3119</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>3061</v>
+        <v>3120</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>3062</v>
+        <v>3121</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>3063</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>3064</v>
+        <v>3123</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>3065</v>
+        <v>3124</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>3066</v>
+        <v>3125</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>3067</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>3068</v>
+        <v>3127</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>3069</v>
+        <v>3128</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>3070</v>
+        <v>3129</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>3071</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>3072</v>
+        <v>3131</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>3073</v>
+        <v>3132</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>3074</v>
+        <v>3133</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>3075</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>3076</v>
+        <v>3135</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>3077</v>
+        <v>3136</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>3078</v>
+        <v>3137</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>3079</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>3080</v>
+        <v>3139</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>3081</v>
+        <v>3140</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>3082</v>
+        <v>3141</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>3083</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>3084</v>
+        <v>3143</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>3085</v>
+        <v>3144</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>3086</v>
+        <v>3145</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>3087</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>3088</v>
+        <v>3147</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>3089</v>
+        <v>3148</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>3090</v>
+        <v>3149</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>3091</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>3092</v>
+        <v>3151</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>3093</v>
+        <v>3152</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>3094</v>
+        <v>3153</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>3095</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>3096</v>
+        <v>3155</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>3097</v>
+        <v>3156</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>3098</v>
+        <v>3157</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>3099</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>3100</v>
+        <v>3159</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>3101</v>
+        <v>3160</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>3102</v>
+        <v>3161</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>3103</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>3104</v>
+        <v>3163</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>3105</v>
+        <v>3164</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>3106</v>
+        <v>3165</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>3107</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>3108</v>
+        <v>3167</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>3109</v>
+        <v>3168</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>3110</v>
+        <v>3169</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>3111</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>3112</v>
+        <v>3171</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>3113</v>
+        <v>3172</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>3114</v>
+        <v>3173</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>3115</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>3116</v>
+        <v>3175</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>3117</v>
+        <v>3176</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>3118</v>
+        <v>3177</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>3119</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>3120</v>
+        <v>3179</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>3121</v>
+        <v>3180</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>3122</v>
+        <v>3181</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>3123</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>3124</v>
+        <v>3183</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>3125</v>
+        <v>3184</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>3126</v>
+        <v>3185</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>3127</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>3128</v>
+        <v>3187</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>3129</v>
+        <v>3188</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>3130</v>
+        <v>3189</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>3131</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>3132</v>
+        <v>3191</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>3133</v>
+        <v>3192</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>3134</v>
+        <v>3193</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>3135</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>3136</v>
+        <v>3195</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>3136</v>
+        <v>3195</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>3137</v>
+        <v>3196</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>3138</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>3139</v>
+        <v>3198</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>3140</v>
+        <v>3199</v>
       </c>
       <c r="M25" s="5" t="s">
         <v>56</v>
@@ -29409,45 +29778,45 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>3141</v>
+        <v>3200</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>3142</v>
+        <v>3201</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>3143</v>
+        <v>3202</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>3144</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>3145</v>
+        <v>3204</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>3146</v>
+        <v>3205</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>3147</v>
+        <v>3206</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>3148</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>3149</v>
+        <v>3208</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>3150</v>
+        <v>3209</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>3151</v>
+        <v>3210</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>3152</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/TranslateData.xlsx
+++ b/TranslateData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3480" uniqueCount="3205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3488" uniqueCount="3213">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -9898,6 +9898,30 @@
     <t xml:space="preserve">最多可能是革命性的</t>
   </si>
   <si>
+    <t xml:space="preserve">SpelunkerName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spelunker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スペランカー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">潜水员</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpelunkerTitle1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's so easy to die.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">簡単に死んでしまう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">很容易死</t>
+  </si>
+  <si>
     <t xml:space="preserve">WelcomeMessage1</t>
   </si>
   <si>
@@ -10302,6 +10326,7 @@
       <color rgb="FF000000"/>
       <name val="MS Gothic"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -10329,13 +10354,6 @@
       <color rgb="FF000000"/>
       <name val="MS Gothic"/>
       <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9.5"/>
-      <color rgb="FF000000"/>
-      <name val="MS Gothic"/>
-      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
@@ -10351,6 +10369,12 @@
       <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="MS Gothic"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -10395,7 +10419,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -10452,11 +10476,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10468,8 +10492,16 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -16729,7 +16761,7 @@
   </sheetPr>
   <dimension ref="A1:Q762"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -21480,8 +21512,8 @@
   </sheetPr>
   <dimension ref="A1:Q766"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C554" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J564" activeCellId="0" sqref="J564"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A557" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A564" activeCellId="0" sqref="A564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29305,8 +29337,34 @@
         <v>3099</v>
       </c>
     </row>
-    <row r="564" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="565" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="564" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A564" s="19" t="s">
+        <v>3100</v>
+      </c>
+      <c r="B564" s="20" t="s">
+        <v>3101</v>
+      </c>
+      <c r="M564" s="5" t="s">
+        <v>3102</v>
+      </c>
+      <c r="O564" s="0" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="565" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A565" s="19" t="s">
+        <v>3104</v>
+      </c>
+      <c r="B565" s="5" t="s">
+        <v>3105</v>
+      </c>
+      <c r="M565" s="5" t="s">
+        <v>3106</v>
+      </c>
+      <c r="O565" s="0" t="s">
+        <v>3107</v>
+      </c>
+    </row>
     <row r="566" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="567" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="568" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -29809,332 +29867,332 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>3100</v>
+        <v>3108</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3101</v>
+        <v>3109</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>3102</v>
+        <v>3110</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>3103</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>3104</v>
+        <v>3112</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3105</v>
+        <v>3113</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>3106</v>
+        <v>3114</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>3107</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>3108</v>
+        <v>3116</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3109</v>
+        <v>3117</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>3110</v>
+        <v>3118</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>3111</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>3112</v>
+        <v>3120</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3113</v>
+        <v>3121</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>3114</v>
+        <v>3122</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>3115</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>3116</v>
+        <v>3124</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>3117</v>
+        <v>3125</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>3118</v>
+        <v>3126</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>3119</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>3120</v>
+        <v>3128</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>3121</v>
+        <v>3129</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>3122</v>
+        <v>3130</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>3123</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>3124</v>
+        <v>3132</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>3125</v>
+        <v>3133</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>3126</v>
+        <v>3134</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>3127</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>3128</v>
+        <v>3136</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>3129</v>
+        <v>3137</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>3130</v>
+        <v>3138</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>3131</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>3132</v>
+        <v>3140</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>3133</v>
+        <v>3141</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>3134</v>
+        <v>3142</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>3135</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>3136</v>
+        <v>3144</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>3137</v>
+        <v>3145</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>3138</v>
+        <v>3146</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>3139</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>3140</v>
+        <v>3148</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>3141</v>
+        <v>3149</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>3142</v>
+        <v>3150</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>3143</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>3144</v>
+        <v>3152</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>3145</v>
+        <v>3153</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>3146</v>
+        <v>3154</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>3147</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>3148</v>
+        <v>3156</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>3149</v>
+        <v>3157</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>3150</v>
+        <v>3158</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>3151</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>3152</v>
+        <v>3160</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>3153</v>
+        <v>3161</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>3154</v>
+        <v>3162</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>3155</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>3156</v>
+        <v>3164</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3157</v>
+        <v>3165</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>3158</v>
+        <v>3166</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>3159</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>3160</v>
+        <v>3168</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>3161</v>
+        <v>3169</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>3162</v>
+        <v>3170</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>3163</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>3164</v>
+        <v>3172</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>3165</v>
+        <v>3173</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>3166</v>
+        <v>3174</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>3167</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>3168</v>
+        <v>3176</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>3169</v>
+        <v>3177</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>3170</v>
+        <v>3178</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>3171</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>3172</v>
+        <v>3180</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>3173</v>
+        <v>3181</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>3174</v>
+        <v>3182</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>3175</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>3176</v>
+        <v>3184</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>3177</v>
+        <v>3185</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>3178</v>
+        <v>3186</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>3179</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>3180</v>
+        <v>3188</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>3181</v>
+        <v>3189</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>3182</v>
+        <v>3190</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>3183</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>3184</v>
+        <v>3192</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>3185</v>
+        <v>3193</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>3186</v>
+        <v>3194</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>3187</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>3188</v>
+        <v>3196</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>3188</v>
+        <v>3196</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>3189</v>
+        <v>3197</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>3190</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>3191</v>
+        <v>3199</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>3192</v>
+        <v>3200</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>56</v>
@@ -30145,45 +30203,45 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>3193</v>
+        <v>3201</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>3194</v>
+        <v>3202</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>3195</v>
+        <v>3203</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>3196</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>3197</v>
+        <v>3205</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>3198</v>
+        <v>3206</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>3199</v>
+        <v>3207</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>3200</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>3201</v>
+        <v>3209</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>3202</v>
+        <v>3210</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>3203</v>
+        <v>3211</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>3204</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/TranslateData.xlsx
+++ b/TranslateData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3488" uniqueCount="3213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3492" uniqueCount="3217">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -9920,6 +9920,18 @@
   </si>
   <si>
     <t xml:space="preserve">很容易死</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpelunkerVentDeathChance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probability of vent death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ベント死の確率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通风口死亡的概率</t>
   </si>
   <si>
     <t xml:space="preserve">WelcomeMessage1</t>
@@ -21513,7 +21525,7 @@
   <dimension ref="A1:Q766"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A557" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A564" activeCellId="0" sqref="A564"/>
+      <selection pane="topLeft" activeCell="A567" activeCellId="0" sqref="A567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29365,7 +29377,20 @@
         <v>3107</v>
       </c>
     </row>
-    <row r="566" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="566" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A566" s="13" t="s">
+        <v>3108</v>
+      </c>
+      <c r="B566" s="5" t="s">
+        <v>3109</v>
+      </c>
+      <c r="M566" s="5" t="s">
+        <v>3110</v>
+      </c>
+      <c r="O566" s="0" t="s">
+        <v>3111</v>
+      </c>
+    </row>
     <row r="567" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="568" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="569" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -29867,332 +29892,332 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>3108</v>
+        <v>3112</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3109</v>
+        <v>3113</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>3110</v>
+        <v>3114</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>3111</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>3112</v>
+        <v>3116</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3113</v>
+        <v>3117</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>3114</v>
+        <v>3118</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>3115</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>3116</v>
+        <v>3120</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3117</v>
+        <v>3121</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>3118</v>
+        <v>3122</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>3119</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>3120</v>
+        <v>3124</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3121</v>
+        <v>3125</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>3122</v>
+        <v>3126</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>3123</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>3124</v>
+        <v>3128</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>3125</v>
+        <v>3129</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>3126</v>
+        <v>3130</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>3127</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>3128</v>
+        <v>3132</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>3129</v>
+        <v>3133</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>3130</v>
+        <v>3134</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>3131</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>3132</v>
+        <v>3136</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>3133</v>
+        <v>3137</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>3134</v>
+        <v>3138</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>3135</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>3136</v>
+        <v>3140</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>3137</v>
+        <v>3141</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>3138</v>
+        <v>3142</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>3139</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>3140</v>
+        <v>3144</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>3141</v>
+        <v>3145</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>3143</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>3144</v>
+        <v>3148</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>3145</v>
+        <v>3149</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>3146</v>
+        <v>3150</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>3147</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>3148</v>
+        <v>3152</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>3149</v>
+        <v>3153</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>3150</v>
+        <v>3154</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>3151</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>3152</v>
+        <v>3156</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>3153</v>
+        <v>3157</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>3154</v>
+        <v>3158</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>3155</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>3156</v>
+        <v>3160</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>3157</v>
+        <v>3161</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>3158</v>
+        <v>3162</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>3159</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>3160</v>
+        <v>3164</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>3161</v>
+        <v>3165</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>3162</v>
+        <v>3166</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>3163</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>3164</v>
+        <v>3168</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3165</v>
+        <v>3169</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>3166</v>
+        <v>3170</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>3167</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>3168</v>
+        <v>3172</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>3169</v>
+        <v>3173</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>3170</v>
+        <v>3174</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>3171</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>3172</v>
+        <v>3176</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>3173</v>
+        <v>3177</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>3174</v>
+        <v>3178</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>3175</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>3176</v>
+        <v>3180</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>3177</v>
+        <v>3181</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>3178</v>
+        <v>3182</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>3179</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>3180</v>
+        <v>3184</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>3181</v>
+        <v>3185</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>3182</v>
+        <v>3186</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>3183</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>3184</v>
+        <v>3188</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>3185</v>
+        <v>3189</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>3186</v>
+        <v>3190</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>3187</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>3188</v>
+        <v>3192</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>3189</v>
+        <v>3193</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>3190</v>
+        <v>3194</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>3191</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>3192</v>
+        <v>3196</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>3193</v>
+        <v>3197</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>3194</v>
+        <v>3198</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>3195</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>3196</v>
+        <v>3200</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>3196</v>
+        <v>3200</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>3197</v>
+        <v>3201</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>3198</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>3199</v>
+        <v>3203</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>3200</v>
+        <v>3204</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>56</v>
@@ -30203,45 +30228,45 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>3201</v>
+        <v>3205</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>3202</v>
+        <v>3206</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>3203</v>
+        <v>3207</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>3204</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>3205</v>
+        <v>3209</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>3206</v>
+        <v>3210</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>3207</v>
+        <v>3211</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>3208</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>3209</v>
+        <v>3213</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>3210</v>
+        <v>3214</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>3211</v>
+        <v>3215</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>3212</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/TranslateData.xlsx
+++ b/TranslateData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3500" uniqueCount="3225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3504" uniqueCount="3229">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -9956,6 +9956,18 @@
   </si>
   <si>
     <t xml:space="preserve">停电/社区破坏死亡的时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpelunkerLiftDeathChance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probability of falling off the lift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">昇降機リフトから転落する確率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">从电梯上掉下来的概率。</t>
   </si>
   <si>
     <t xml:space="preserve">WelcomeMessage1</t>
@@ -21539,7 +21551,7 @@
   <dimension ref="A1:Q767"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A560" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B567" activeCellId="0" sqref="B567"/>
+      <selection pane="topLeft" activeCell="A570" activeCellId="0" sqref="A570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29433,7 +29445,20 @@
         <v>3119</v>
       </c>
     </row>
-    <row r="569" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="569" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A569" s="0" t="s">
+        <v>3120</v>
+      </c>
+      <c r="B569" s="5" t="s">
+        <v>3121</v>
+      </c>
+      <c r="M569" s="5" t="s">
+        <v>3122</v>
+      </c>
+      <c r="O569" s="0" t="s">
+        <v>3123</v>
+      </c>
+    </row>
     <row r="570" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="571" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="572" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -29933,332 +29958,332 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>3120</v>
+        <v>3124</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3121</v>
+        <v>3125</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>3122</v>
+        <v>3126</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>3123</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>3124</v>
+        <v>3128</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3125</v>
+        <v>3129</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>3126</v>
+        <v>3130</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>3127</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>3128</v>
+        <v>3132</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3129</v>
+        <v>3133</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>3130</v>
+        <v>3134</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>3131</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>3132</v>
+        <v>3136</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3133</v>
+        <v>3137</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>3134</v>
+        <v>3138</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>3135</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>3136</v>
+        <v>3140</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>3137</v>
+        <v>3141</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>3138</v>
+        <v>3142</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>3139</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>3140</v>
+        <v>3144</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>3141</v>
+        <v>3145</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>3143</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>3144</v>
+        <v>3148</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>3145</v>
+        <v>3149</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>3146</v>
+        <v>3150</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>3147</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>3148</v>
+        <v>3152</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>3149</v>
+        <v>3153</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>3150</v>
+        <v>3154</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>3151</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>3152</v>
+        <v>3156</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>3153</v>
+        <v>3157</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>3154</v>
+        <v>3158</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>3155</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>3156</v>
+        <v>3160</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>3157</v>
+        <v>3161</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>3158</v>
+        <v>3162</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>3159</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>3160</v>
+        <v>3164</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>3161</v>
+        <v>3165</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>3162</v>
+        <v>3166</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>3163</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>3164</v>
+        <v>3168</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>3165</v>
+        <v>3169</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>3166</v>
+        <v>3170</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>3167</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>3168</v>
+        <v>3172</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>3169</v>
+        <v>3173</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>3170</v>
+        <v>3174</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>3171</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>3172</v>
+        <v>3176</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>3173</v>
+        <v>3177</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>3174</v>
+        <v>3178</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>3175</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>3176</v>
+        <v>3180</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3177</v>
+        <v>3181</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>3178</v>
+        <v>3182</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>3179</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>3180</v>
+        <v>3184</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>3181</v>
+        <v>3185</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>3182</v>
+        <v>3186</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>3183</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>3184</v>
+        <v>3188</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>3185</v>
+        <v>3189</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>3186</v>
+        <v>3190</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>3187</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>3188</v>
+        <v>3192</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>3189</v>
+        <v>3193</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>3190</v>
+        <v>3194</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>3191</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>3192</v>
+        <v>3196</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>3193</v>
+        <v>3197</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>3194</v>
+        <v>3198</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>3195</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>3196</v>
+        <v>3200</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>3197</v>
+        <v>3201</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>3198</v>
+        <v>3202</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>3199</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>3200</v>
+        <v>3204</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>3201</v>
+        <v>3205</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>3202</v>
+        <v>3206</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>3203</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>3204</v>
+        <v>3208</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>3205</v>
+        <v>3209</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>3206</v>
+        <v>3210</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>3207</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>3208</v>
+        <v>3212</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>3208</v>
+        <v>3212</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>3209</v>
+        <v>3213</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>3210</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>3211</v>
+        <v>3215</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>3212</v>
+        <v>3216</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>56</v>
@@ -30269,45 +30294,45 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>3213</v>
+        <v>3217</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>3214</v>
+        <v>3218</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>3215</v>
+        <v>3219</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>3216</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>3217</v>
+        <v>3221</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>3218</v>
+        <v>3222</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>3219</v>
+        <v>3223</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>3220</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>3221</v>
+        <v>3225</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>3222</v>
+        <v>3226</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>3223</v>
+        <v>3227</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>3224</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/TranslateData.xlsx
+++ b/TranslateData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3504" uniqueCount="3229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3508" uniqueCount="3233">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -9968,6 +9968,18 @@
   </si>
   <si>
     <t xml:space="preserve">从电梯上掉下来的概率。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpelunkerDoorOpenChance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probability of death from pinched fingers in door opening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドア開けの指挟み死の確率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开门时手指被夹死的概率。</t>
   </si>
   <si>
     <t xml:space="preserve">WelcomeMessage1</t>
@@ -21551,7 +21563,7 @@
   <dimension ref="A1:Q767"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A560" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A570" activeCellId="0" sqref="A570"/>
+      <selection pane="topLeft" activeCell="B570" activeCellId="0" sqref="B570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29459,7 +29471,20 @@
         <v>3123</v>
       </c>
     </row>
-    <row r="570" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="570" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A570" s="13" t="s">
+        <v>3124</v>
+      </c>
+      <c r="B570" s="5" t="s">
+        <v>3125</v>
+      </c>
+      <c r="M570" s="5" t="s">
+        <v>3126</v>
+      </c>
+      <c r="O570" s="0" t="s">
+        <v>3127</v>
+      </c>
+    </row>
     <row r="571" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="572" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="573" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -29958,332 +29983,332 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>3124</v>
+        <v>3128</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3125</v>
+        <v>3129</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>3126</v>
+        <v>3130</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>3127</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>3128</v>
+        <v>3132</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3129</v>
+        <v>3133</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>3130</v>
+        <v>3134</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>3131</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>3132</v>
+        <v>3136</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3133</v>
+        <v>3137</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>3134</v>
+        <v>3138</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>3135</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>3136</v>
+        <v>3140</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3137</v>
+        <v>3141</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>3138</v>
+        <v>3142</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>3139</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>3140</v>
+        <v>3144</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>3141</v>
+        <v>3145</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>3143</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>3144</v>
+        <v>3148</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>3145</v>
+        <v>3149</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>3146</v>
+        <v>3150</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>3147</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>3148</v>
+        <v>3152</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>3149</v>
+        <v>3153</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>3150</v>
+        <v>3154</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>3151</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>3152</v>
+        <v>3156</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>3153</v>
+        <v>3157</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>3154</v>
+        <v>3158</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>3155</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>3156</v>
+        <v>3160</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>3157</v>
+        <v>3161</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>3158</v>
+        <v>3162</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>3159</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>3160</v>
+        <v>3164</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>3161</v>
+        <v>3165</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>3162</v>
+        <v>3166</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>3163</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>3164</v>
+        <v>3168</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>3165</v>
+        <v>3169</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>3166</v>
+        <v>3170</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>3167</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>3168</v>
+        <v>3172</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>3169</v>
+        <v>3173</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>3170</v>
+        <v>3174</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>3171</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>3172</v>
+        <v>3176</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>3173</v>
+        <v>3177</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>3174</v>
+        <v>3178</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>3175</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>3176</v>
+        <v>3180</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>3177</v>
+        <v>3181</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>3178</v>
+        <v>3182</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>3179</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>3180</v>
+        <v>3184</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3181</v>
+        <v>3185</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>3182</v>
+        <v>3186</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>3183</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>3184</v>
+        <v>3188</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>3185</v>
+        <v>3189</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>3186</v>
+        <v>3190</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>3187</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>3188</v>
+        <v>3192</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>3189</v>
+        <v>3193</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>3190</v>
+        <v>3194</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>3191</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>3192</v>
+        <v>3196</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>3193</v>
+        <v>3197</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>3194</v>
+        <v>3198</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>3195</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>3196</v>
+        <v>3200</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>3197</v>
+        <v>3201</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>3198</v>
+        <v>3202</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>3199</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>3200</v>
+        <v>3204</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>3201</v>
+        <v>3205</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>3202</v>
+        <v>3206</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>3203</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>3204</v>
+        <v>3208</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>3205</v>
+        <v>3209</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>3206</v>
+        <v>3210</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>3207</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>3208</v>
+        <v>3212</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>3209</v>
+        <v>3213</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>3210</v>
+        <v>3214</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>3211</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>3212</v>
+        <v>3216</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>3212</v>
+        <v>3216</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>3213</v>
+        <v>3217</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>3214</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>3215</v>
+        <v>3219</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>3216</v>
+        <v>3220</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>56</v>
@@ -30294,45 +30319,45 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>3217</v>
+        <v>3221</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>3218</v>
+        <v>3222</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>3219</v>
+        <v>3223</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>3220</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>3221</v>
+        <v>3225</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>3222</v>
+        <v>3226</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>3223</v>
+        <v>3227</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>3224</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>3225</v>
+        <v>3229</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>3226</v>
+        <v>3230</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>3227</v>
+        <v>3231</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>3228</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/TranslateData.xlsx
+++ b/TranslateData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3508" uniqueCount="3233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3528" uniqueCount="3253">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -9980,6 +9980,66 @@
   </si>
   <si>
     <t xml:space="preserve">开门时手指被夹死的概率。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HitmanName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hitman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">殺し屋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">打人者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HitmanTitle1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kill the designated person.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">指定された人をキルせよ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杀死指定的人。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HitmanChangeTargetTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time for target to reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ターゲットがリセットされる時間</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重置目标的时间。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HitmanIsOutMission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the mission cannot be accomplished, it will self-destruct.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">任務が遂行できないと自爆する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">如果任务无法完成，他们就会自我毁灭。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HitmanOutMissionLimit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of possible failures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">失敗可能数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可能出现的故障数量</t>
   </si>
   <si>
     <t xml:space="preserve">WelcomeMessage1</t>
@@ -21562,8 +21622,8 @@
   </sheetPr>
   <dimension ref="A1:Q767"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C563" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L570" activeCellId="0" sqref="L570"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A566" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A575" activeCellId="0" sqref="A575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29485,11 +29545,76 @@
         <v>3127</v>
       </c>
     </row>
-    <row r="571" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="572" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="573" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="574" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="575" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="571" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A571" s="0" t="s">
+        <v>3128</v>
+      </c>
+      <c r="B571" s="5" t="s">
+        <v>3129</v>
+      </c>
+      <c r="M571" s="5" t="s">
+        <v>3130</v>
+      </c>
+      <c r="O571" s="0" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A572" s="0" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B572" s="5" t="s">
+        <v>3133</v>
+      </c>
+      <c r="M572" s="5" t="s">
+        <v>3134</v>
+      </c>
+      <c r="O572" s="0" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A573" s="13" t="s">
+        <v>3136</v>
+      </c>
+      <c r="B573" s="5" t="s">
+        <v>3137</v>
+      </c>
+      <c r="M573" s="5" t="s">
+        <v>3138</v>
+      </c>
+      <c r="O573" s="0" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A574" s="0" t="s">
+        <v>3140</v>
+      </c>
+      <c r="B574" s="5" t="s">
+        <v>3141</v>
+      </c>
+      <c r="M574" s="5" t="s">
+        <v>3142</v>
+      </c>
+      <c r="O574" s="0" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A575" s="0" t="s">
+        <v>3144</v>
+      </c>
+      <c r="B575" s="5" t="s">
+        <v>3145</v>
+      </c>
+      <c r="M575" s="5" t="s">
+        <v>3146</v>
+      </c>
+      <c r="O575" s="0" t="s">
+        <v>3147</v>
+      </c>
+    </row>
     <row r="576" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="577" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="578" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -29983,332 +30108,332 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>3128</v>
+        <v>3148</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3129</v>
+        <v>3149</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>3130</v>
+        <v>3150</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>3131</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>3132</v>
+        <v>3152</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3133</v>
+        <v>3153</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>3134</v>
+        <v>3154</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>3135</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>3136</v>
+        <v>3156</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3137</v>
+        <v>3157</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>3138</v>
+        <v>3158</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>3139</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>3140</v>
+        <v>3160</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3141</v>
+        <v>3161</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>3142</v>
+        <v>3162</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>3143</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>3144</v>
+        <v>3164</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>3145</v>
+        <v>3165</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>3146</v>
+        <v>3166</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>3147</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>3148</v>
+        <v>3168</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>3149</v>
+        <v>3169</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>3150</v>
+        <v>3170</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>3151</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>3152</v>
+        <v>3172</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>3153</v>
+        <v>3173</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>3154</v>
+        <v>3174</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>3155</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>3156</v>
+        <v>3176</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>3157</v>
+        <v>3177</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>3158</v>
+        <v>3178</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>3159</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>3160</v>
+        <v>3180</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>3161</v>
+        <v>3181</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>3162</v>
+        <v>3182</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>3163</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>3164</v>
+        <v>3184</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>3165</v>
+        <v>3185</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>3166</v>
+        <v>3186</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>3167</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>3168</v>
+        <v>3188</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>3169</v>
+        <v>3189</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>3170</v>
+        <v>3190</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>3171</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>3172</v>
+        <v>3192</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>3173</v>
+        <v>3193</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>3174</v>
+        <v>3194</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>3175</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>3176</v>
+        <v>3196</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>3177</v>
+        <v>3197</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>3178</v>
+        <v>3198</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>3179</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>3180</v>
+        <v>3200</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>3181</v>
+        <v>3201</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>3182</v>
+        <v>3202</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>3183</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>3184</v>
+        <v>3204</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3185</v>
+        <v>3205</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>3186</v>
+        <v>3206</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>3187</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>3188</v>
+        <v>3208</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>3189</v>
+        <v>3209</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>3190</v>
+        <v>3210</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>3191</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>3192</v>
+        <v>3212</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>3193</v>
+        <v>3213</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>3194</v>
+        <v>3214</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>3195</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>3196</v>
+        <v>3216</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>3197</v>
+        <v>3217</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>3198</v>
+        <v>3218</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>3199</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>3200</v>
+        <v>3220</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>3201</v>
+        <v>3221</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>3202</v>
+        <v>3222</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>3203</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>3204</v>
+        <v>3224</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>3205</v>
+        <v>3225</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>3206</v>
+        <v>3226</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>3207</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>3208</v>
+        <v>3228</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>3209</v>
+        <v>3229</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>3210</v>
+        <v>3230</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>3211</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>3212</v>
+        <v>3232</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>3213</v>
+        <v>3233</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>3214</v>
+        <v>3234</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>3215</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>3216</v>
+        <v>3236</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>3216</v>
+        <v>3236</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>3217</v>
+        <v>3237</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>3218</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>3219</v>
+        <v>3239</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>3220</v>
+        <v>3240</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>56</v>
@@ -30319,45 +30444,45 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>3221</v>
+        <v>3241</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>3222</v>
+        <v>3242</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>3223</v>
+        <v>3243</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>3224</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>3225</v>
+        <v>3245</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>3226</v>
+        <v>3246</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>3227</v>
+        <v>3247</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>3228</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>3229</v>
+        <v>3249</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>3230</v>
+        <v>3250</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>3231</v>
+        <v>3251</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>3232</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/TranslateData.xlsx
+++ b/TranslateData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3528" uniqueCount="3253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="3265">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -10040,6 +10040,42 @@
   </si>
   <si>
     <t xml:space="preserve">可能出现的故障数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HitmanWinKillCount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of missions performed required to win</t>
+  </si>
+  <si>
+    <t xml:space="preserve">勝利に必要な任務遂行数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胜利所需的执行任务的数量。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HitmanIsTargetArrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display arrow to target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ターゲットへ矢印を表示する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">向目标显示箭头。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HitmanUpdateTargetArrowTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interval to update arrows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">矢印を更新する間隔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">更新箭头的时间间隔。</t>
   </si>
   <si>
     <t xml:space="preserve">WelcomeMessage1</t>
@@ -21622,8 +21658,8 @@
   </sheetPr>
   <dimension ref="A1:Q767"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A566" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A575" activeCellId="0" sqref="A575"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A568" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A578" activeCellId="0" sqref="A578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29615,9 +29651,48 @@
         <v>3147</v>
       </c>
     </row>
-    <row r="576" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="577" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="578" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="576" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A576" s="13" t="s">
+        <v>3148</v>
+      </c>
+      <c r="B576" s="5" t="s">
+        <v>3149</v>
+      </c>
+      <c r="M576" s="5" t="s">
+        <v>3150</v>
+      </c>
+      <c r="O576" s="0" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A577" s="0" t="s">
+        <v>3152</v>
+      </c>
+      <c r="B577" s="5" t="s">
+        <v>3153</v>
+      </c>
+      <c r="M577" s="5" t="s">
+        <v>3154</v>
+      </c>
+      <c r="O577" s="0" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="578" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A578" s="0" t="s">
+        <v>3156</v>
+      </c>
+      <c r="B578" s="5" t="s">
+        <v>3157</v>
+      </c>
+      <c r="M578" s="5" t="s">
+        <v>3158</v>
+      </c>
+      <c r="O578" s="0" t="s">
+        <v>3159</v>
+      </c>
+    </row>
     <row r="579" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="580" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="581" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -30108,332 +30183,332 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>3148</v>
+        <v>3160</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3149</v>
+        <v>3161</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>3150</v>
+        <v>3162</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>3151</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>3152</v>
+        <v>3164</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3153</v>
+        <v>3165</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>3154</v>
+        <v>3166</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>3155</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>3156</v>
+        <v>3168</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3157</v>
+        <v>3169</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>3158</v>
+        <v>3170</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>3159</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>3160</v>
+        <v>3172</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3161</v>
+        <v>3173</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>3162</v>
+        <v>3174</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>3163</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>3164</v>
+        <v>3176</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>3165</v>
+        <v>3177</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>3166</v>
+        <v>3178</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>3167</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>3168</v>
+        <v>3180</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>3169</v>
+        <v>3181</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>3170</v>
+        <v>3182</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>3171</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>3172</v>
+        <v>3184</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>3173</v>
+        <v>3185</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>3174</v>
+        <v>3186</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>3175</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>3176</v>
+        <v>3188</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>3177</v>
+        <v>3189</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>3178</v>
+        <v>3190</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>3179</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>3180</v>
+        <v>3192</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>3181</v>
+        <v>3193</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>3182</v>
+        <v>3194</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>3183</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>3184</v>
+        <v>3196</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>3185</v>
+        <v>3197</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>3186</v>
+        <v>3198</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>3187</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>3188</v>
+        <v>3200</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>3189</v>
+        <v>3201</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>3190</v>
+        <v>3202</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>3191</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>3192</v>
+        <v>3204</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>3193</v>
+        <v>3205</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>3194</v>
+        <v>3206</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>3195</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>3196</v>
+        <v>3208</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>3197</v>
+        <v>3209</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>3198</v>
+        <v>3210</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>3199</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>3200</v>
+        <v>3212</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>3201</v>
+        <v>3213</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>3202</v>
+        <v>3214</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>3203</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>3204</v>
+        <v>3216</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3205</v>
+        <v>3217</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>3206</v>
+        <v>3218</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>3207</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>3208</v>
+        <v>3220</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>3209</v>
+        <v>3221</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>3210</v>
+        <v>3222</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>3211</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>3212</v>
+        <v>3224</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>3213</v>
+        <v>3225</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>3214</v>
+        <v>3226</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>3215</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>3216</v>
+        <v>3228</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>3217</v>
+        <v>3229</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>3218</v>
+        <v>3230</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>3219</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>3220</v>
+        <v>3232</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>3221</v>
+        <v>3233</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>3222</v>
+        <v>3234</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>3223</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>3224</v>
+        <v>3236</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>3225</v>
+        <v>3237</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>3226</v>
+        <v>3238</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>3227</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>3228</v>
+        <v>3240</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>3229</v>
+        <v>3241</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>3230</v>
+        <v>3242</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>3231</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>3232</v>
+        <v>3244</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>3233</v>
+        <v>3245</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>3234</v>
+        <v>3246</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>3235</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>3236</v>
+        <v>3248</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>3236</v>
+        <v>3248</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>3237</v>
+        <v>3249</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>3238</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>3239</v>
+        <v>3251</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>3240</v>
+        <v>3252</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>56</v>
@@ -30444,45 +30519,45 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>3241</v>
+        <v>3253</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>3242</v>
+        <v>3254</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>3243</v>
+        <v>3255</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>3244</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>3245</v>
+        <v>3257</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>3246</v>
+        <v>3258</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>3247</v>
+        <v>3259</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>3248</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>3249</v>
+        <v>3261</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>3250</v>
+        <v>3262</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>3251</v>
+        <v>3263</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>3252</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/TranslateData.xlsx
+++ b/TranslateData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3508" uniqueCount="3233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="3257">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -9980,6 +9980,78 @@
   </si>
   <si>
     <t xml:space="preserve">开门时手指被夹死的概率。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MatryoshkaName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matryoshka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">マトリョーシカ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">马特罗什卡～ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MatryoshkaTitle1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloak the corpse and move the corpse. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">死体をまとって死体を移動させよう </t>
+  </si>
+  <si>
+    <t xml:space="preserve">给尸体披上斗篷，移动尸体。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MatryoshkaWearLimit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of times you can wear it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">纏える回数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">穿衣服的次数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MatryoshkaAddKillCoolTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increased kill-cool time time for corpse coats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">死体まといの増加キルクールタイムタイム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">尸体隐身的杀伤冷却时间增加</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MatryoshkaWearReport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can be called in while the body is still circled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">まとい中でも通報可能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以在盘绕时报告</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MatryoshkaWearTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coiling time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">まとえる時間</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胁迫时间</t>
   </si>
   <si>
     <t xml:space="preserve">WelcomeMessage1</t>
@@ -10473,7 +10545,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -10552,6 +10624,10 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -21562,8 +21638,8 @@
   </sheetPr>
   <dimension ref="A1:Q767"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C563" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L570" activeCellId="0" sqref="L570"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A567" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A573" activeCellId="0" sqref="A573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29485,12 +29561,90 @@
         <v>3127</v>
       </c>
     </row>
-    <row r="571" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="572" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="573" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="574" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="575" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="576" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="571" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A571" s="20" t="s">
+        <v>3128</v>
+      </c>
+      <c r="B571" s="5" t="s">
+        <v>3129</v>
+      </c>
+      <c r="M571" s="5" t="s">
+        <v>3130</v>
+      </c>
+      <c r="O571" s="20" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A572" s="20" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B572" s="20" t="s">
+        <v>3133</v>
+      </c>
+      <c r="M572" s="20" t="s">
+        <v>3134</v>
+      </c>
+      <c r="O572" s="20" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A573" s="0" t="s">
+        <v>3136</v>
+      </c>
+      <c r="B573" s="5" t="s">
+        <v>3137</v>
+      </c>
+      <c r="M573" s="5" t="s">
+        <v>3138</v>
+      </c>
+      <c r="O573" s="0" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A574" s="0" t="s">
+        <v>3140</v>
+      </c>
+      <c r="B574" s="5" t="s">
+        <v>3141</v>
+      </c>
+      <c r="M574" s="5" t="s">
+        <v>3142</v>
+      </c>
+      <c r="O574" s="0" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A575" s="0" t="s">
+        <v>3144</v>
+      </c>
+      <c r="B575" s="5" t="s">
+        <v>3145</v>
+      </c>
+      <c r="M575" s="5" t="s">
+        <v>3146</v>
+      </c>
+      <c r="O575" s="0" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="576" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A576" s="0" t="s">
+        <v>3148</v>
+      </c>
+      <c r="B576" s="5" t="s">
+        <v>3149</v>
+      </c>
+      <c r="M576" s="5" t="s">
+        <v>3150</v>
+      </c>
+      <c r="O576" s="0" t="s">
+        <v>3151</v>
+      </c>
+    </row>
     <row r="577" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="578" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="579" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -29983,332 +30137,332 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>3128</v>
+        <v>3152</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3129</v>
+        <v>3153</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>3130</v>
+        <v>3154</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>3131</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>3132</v>
+        <v>3156</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3133</v>
+        <v>3157</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>3134</v>
+        <v>3158</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>3135</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>3136</v>
+        <v>3160</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3137</v>
+        <v>3161</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>3138</v>
+        <v>3162</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>3139</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>3140</v>
+        <v>3164</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3141</v>
+        <v>3165</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>3142</v>
+        <v>3166</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>3143</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>3144</v>
+        <v>3168</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>3145</v>
+        <v>3169</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>3146</v>
+        <v>3170</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>3147</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>3148</v>
+        <v>3172</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>3149</v>
+        <v>3173</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>3150</v>
+        <v>3174</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>3151</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>3152</v>
+        <v>3176</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>3153</v>
+        <v>3177</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>3154</v>
+        <v>3178</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>3155</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>3156</v>
+        <v>3180</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>3157</v>
+        <v>3181</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>3158</v>
+        <v>3182</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>3159</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>3160</v>
+        <v>3184</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>3161</v>
+        <v>3185</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>3162</v>
+        <v>3186</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>3163</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>3164</v>
+        <v>3188</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>3165</v>
+        <v>3189</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>3166</v>
+        <v>3190</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>3167</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>3168</v>
+        <v>3192</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>3169</v>
+        <v>3193</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>3170</v>
+        <v>3194</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>3171</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>3172</v>
+        <v>3196</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>3173</v>
+        <v>3197</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>3174</v>
+        <v>3198</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>3175</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>3176</v>
+        <v>3200</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>3177</v>
+        <v>3201</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>3178</v>
+        <v>3202</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>3179</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>3180</v>
+        <v>3204</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>3181</v>
+        <v>3205</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>3182</v>
+        <v>3206</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>3183</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>3184</v>
+        <v>3208</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3185</v>
+        <v>3209</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>3186</v>
+        <v>3210</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>3187</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>3188</v>
+        <v>3212</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>3189</v>
+        <v>3213</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>3190</v>
+        <v>3214</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>3191</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>3192</v>
+        <v>3216</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>3193</v>
+        <v>3217</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>3194</v>
+        <v>3218</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>3195</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>3196</v>
+        <v>3220</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>3197</v>
+        <v>3221</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>3198</v>
+        <v>3222</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>3199</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>3200</v>
+        <v>3224</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>3201</v>
+        <v>3225</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>3202</v>
+        <v>3226</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>3203</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>3204</v>
+        <v>3228</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>3205</v>
+        <v>3229</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>3206</v>
+        <v>3230</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>3207</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>3208</v>
+        <v>3232</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>3209</v>
+        <v>3233</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>3210</v>
+        <v>3234</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>3211</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>3212</v>
+        <v>3236</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>3213</v>
+        <v>3237</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>3214</v>
+        <v>3238</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>3215</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>3216</v>
+        <v>3240</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>3216</v>
+        <v>3240</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>3217</v>
+        <v>3241</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>3218</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>3219</v>
+        <v>3243</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>3220</v>
+        <v>3244</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>56</v>
@@ -30319,45 +30473,45 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>3221</v>
+        <v>3245</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>3222</v>
+        <v>3246</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>3223</v>
+        <v>3247</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>3224</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>3225</v>
+        <v>3249</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>3226</v>
+        <v>3250</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>3227</v>
+        <v>3251</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>3228</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>3229</v>
+        <v>3253</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>3230</v>
+        <v>3254</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>3231</v>
+        <v>3255</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>3232</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/TranslateData.xlsx
+++ b/TranslateData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="3257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="3265">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -10052,6 +10052,30 @@
   </si>
   <si>
     <t xml:space="preserve">胁迫时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MatryoshkaPutOnButtonName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Put On</t>
+  </si>
+  <si>
+    <t xml:space="preserve">着る</t>
+  </si>
+  <si>
+    <t xml:space="preserve">穿上</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MatryoshkaTakeOffButtonName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">脱ぐ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">脱下</t>
   </si>
   <si>
     <t xml:space="preserve">WelcomeMessage1</t>
@@ -21639,7 +21663,7 @@
   <dimension ref="A1:Q767"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A567" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A573" activeCellId="0" sqref="A573"/>
+      <selection pane="topLeft" activeCell="A577" activeCellId="0" sqref="A577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29645,8 +29669,34 @@
         <v>3151</v>
       </c>
     </row>
-    <row r="577" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="578" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="577" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A577" s="13" t="s">
+        <v>3152</v>
+      </c>
+      <c r="B577" s="5" t="s">
+        <v>3153</v>
+      </c>
+      <c r="M577" s="5" t="s">
+        <v>3154</v>
+      </c>
+      <c r="O577" s="0" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="578" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A578" s="13" t="s">
+        <v>3156</v>
+      </c>
+      <c r="B578" s="5" t="s">
+        <v>3157</v>
+      </c>
+      <c r="M578" s="5" t="s">
+        <v>3158</v>
+      </c>
+      <c r="O578" s="0" t="s">
+        <v>3159</v>
+      </c>
+    </row>
     <row r="579" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="580" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="581" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -30137,332 +30187,332 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>3152</v>
+        <v>3160</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3153</v>
+        <v>3161</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>3154</v>
+        <v>3162</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>3155</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>3156</v>
+        <v>3164</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3157</v>
+        <v>3165</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>3158</v>
+        <v>3166</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>3159</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>3160</v>
+        <v>3168</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3161</v>
+        <v>3169</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>3162</v>
+        <v>3170</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>3163</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>3164</v>
+        <v>3172</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3165</v>
+        <v>3173</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>3166</v>
+        <v>3174</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>3167</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>3168</v>
+        <v>3176</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>3169</v>
+        <v>3177</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>3170</v>
+        <v>3178</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>3171</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>3172</v>
+        <v>3180</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>3173</v>
+        <v>3181</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>3174</v>
+        <v>3182</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>3175</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>3176</v>
+        <v>3184</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>3177</v>
+        <v>3185</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>3178</v>
+        <v>3186</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>3179</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>3180</v>
+        <v>3188</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>3181</v>
+        <v>3189</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>3182</v>
+        <v>3190</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>3183</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>3184</v>
+        <v>3192</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>3185</v>
+        <v>3193</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>3186</v>
+        <v>3194</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>3187</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>3188</v>
+        <v>3196</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>3189</v>
+        <v>3197</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>3190</v>
+        <v>3198</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>3191</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>3192</v>
+        <v>3200</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>3193</v>
+        <v>3201</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>3194</v>
+        <v>3202</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>3195</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>3196</v>
+        <v>3204</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>3197</v>
+        <v>3205</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>3198</v>
+        <v>3206</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>3199</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>3200</v>
+        <v>3208</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>3201</v>
+        <v>3209</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>3202</v>
+        <v>3210</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>3203</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>3204</v>
+        <v>3212</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>3205</v>
+        <v>3213</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>3206</v>
+        <v>3214</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>3207</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>3208</v>
+        <v>3216</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3209</v>
+        <v>3217</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>3210</v>
+        <v>3218</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>3211</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>3212</v>
+        <v>3220</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>3213</v>
+        <v>3221</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>3214</v>
+        <v>3222</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>3215</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>3216</v>
+        <v>3224</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>3217</v>
+        <v>3225</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>3218</v>
+        <v>3226</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>3219</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>3220</v>
+        <v>3228</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>3221</v>
+        <v>3229</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>3222</v>
+        <v>3230</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>3223</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>3224</v>
+        <v>3232</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>3225</v>
+        <v>3233</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>3226</v>
+        <v>3234</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>3227</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>3228</v>
+        <v>3236</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>3229</v>
+        <v>3237</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>3230</v>
+        <v>3238</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>3231</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>3232</v>
+        <v>3240</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>3233</v>
+        <v>3241</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>3234</v>
+        <v>3242</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>3235</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>3236</v>
+        <v>3244</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>3237</v>
+        <v>3245</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>3238</v>
+        <v>3246</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>3239</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>3240</v>
+        <v>3248</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>3240</v>
+        <v>3248</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>3241</v>
+        <v>3249</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>3242</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>3243</v>
+        <v>3251</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>3244</v>
+        <v>3252</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>56</v>
@@ -30473,45 +30523,45 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>3245</v>
+        <v>3253</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>3246</v>
+        <v>3254</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>3247</v>
+        <v>3255</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>3248</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>3249</v>
+        <v>3257</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>3250</v>
+        <v>3258</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>3251</v>
+        <v>3259</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>3252</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>3253</v>
+        <v>3261</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>3254</v>
+        <v>3262</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>3255</v>
+        <v>3263</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>3256</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/TranslateData.xlsx
+++ b/TranslateData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3508" uniqueCount="3233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3516" uniqueCount="3238">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -9980,6 +9980,21 @@
   </si>
   <si>
     <t xml:space="preserve">开门时手指被夹死的概率。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NunName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ぬーん</t>
+  </si>
+  <si>
+    <t xml:space="preserve">呜呜咽咽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NunTitle1</t>
   </si>
   <si>
     <t xml:space="preserve">WelcomeMessage1</t>
@@ -21562,8 +21577,8 @@
   </sheetPr>
   <dimension ref="A1:Q767"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C563" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L570" activeCellId="0" sqref="L570"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B566" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B571" activeCellId="0" sqref="B571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29485,8 +29500,34 @@
         <v>3127</v>
       </c>
     </row>
-    <row r="571" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="572" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="571" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A571" s="0" t="s">
+        <v>3128</v>
+      </c>
+      <c r="B571" s="5" t="s">
+        <v>3129</v>
+      </c>
+      <c r="M571" s="5" t="s">
+        <v>3130</v>
+      </c>
+      <c r="O571" s="0" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A572" s="0" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B572" s="5" t="s">
+        <v>3129</v>
+      </c>
+      <c r="M572" s="5" t="s">
+        <v>3130</v>
+      </c>
+      <c r="O572" s="0" t="s">
+        <v>3131</v>
+      </c>
+    </row>
     <row r="573" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="574" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="575" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -29983,332 +30024,332 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>3128</v>
+        <v>3133</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3129</v>
+        <v>3134</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>3130</v>
+        <v>3135</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>3131</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>3132</v>
+        <v>3137</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3133</v>
+        <v>3138</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>3134</v>
+        <v>3139</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>3135</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>3136</v>
+        <v>3141</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3137</v>
+        <v>3142</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>3138</v>
+        <v>3143</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>3139</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>3140</v>
+        <v>3145</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3141</v>
+        <v>3146</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>3142</v>
+        <v>3147</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>3143</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>3144</v>
+        <v>3149</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>3145</v>
+        <v>3150</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>3146</v>
+        <v>3151</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>3147</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>3148</v>
+        <v>3153</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>3149</v>
+        <v>3154</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>3150</v>
+        <v>3155</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>3151</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>3152</v>
+        <v>3157</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>3153</v>
+        <v>3158</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>3154</v>
+        <v>3159</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>3155</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>3156</v>
+        <v>3161</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>3157</v>
+        <v>3162</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>3158</v>
+        <v>3163</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>3159</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>3160</v>
+        <v>3165</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>3161</v>
+        <v>3166</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>3162</v>
+        <v>3167</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>3163</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>3164</v>
+        <v>3169</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>3165</v>
+        <v>3170</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>3166</v>
+        <v>3171</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>3167</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>3168</v>
+        <v>3173</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>3169</v>
+        <v>3174</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>3170</v>
+        <v>3175</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>3171</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>3172</v>
+        <v>3177</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>3173</v>
+        <v>3178</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>3174</v>
+        <v>3179</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>3175</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>3176</v>
+        <v>3181</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>3177</v>
+        <v>3182</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>3178</v>
+        <v>3183</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>3179</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>3180</v>
+        <v>3185</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>3181</v>
+        <v>3186</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>3182</v>
+        <v>3187</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>3183</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>3184</v>
+        <v>3189</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3185</v>
+        <v>3190</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>3186</v>
+        <v>3191</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>3187</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>3188</v>
+        <v>3193</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>3189</v>
+        <v>3194</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>3190</v>
+        <v>3195</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>3191</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>3192</v>
+        <v>3197</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>3193</v>
+        <v>3198</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>3194</v>
+        <v>3199</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>3195</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>3196</v>
+        <v>3201</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>3197</v>
+        <v>3202</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>3198</v>
+        <v>3203</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>3199</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>3200</v>
+        <v>3205</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>3201</v>
+        <v>3206</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>3202</v>
+        <v>3207</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>3203</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>3204</v>
+        <v>3209</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>3205</v>
+        <v>3210</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>3206</v>
+        <v>3211</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>3207</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>3208</v>
+        <v>3213</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>3209</v>
+        <v>3214</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>3210</v>
+        <v>3215</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>3211</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>3212</v>
+        <v>3217</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>3213</v>
+        <v>3218</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>3214</v>
+        <v>3219</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>3215</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>3216</v>
+        <v>3221</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>3216</v>
+        <v>3221</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>3217</v>
+        <v>3222</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>3218</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>3219</v>
+        <v>3224</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>3220</v>
+        <v>3225</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>56</v>
@@ -30319,45 +30360,45 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>3221</v>
+        <v>3226</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>3222</v>
+        <v>3227</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>3223</v>
+        <v>3228</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>3224</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>3225</v>
+        <v>3230</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>3226</v>
+        <v>3231</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>3227</v>
+        <v>3232</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>3228</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>3229</v>
+        <v>3234</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>3230</v>
+        <v>3235</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>3231</v>
+        <v>3236</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>3232</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/TranslateData.xlsx
+++ b/TranslateData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3516" uniqueCount="3238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3520" uniqueCount="3239">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -9995,6 +9995,9 @@
   </si>
   <si>
     <t xml:space="preserve">NunTitle1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NunButtonName</t>
   </si>
   <si>
     <t xml:space="preserve">WelcomeMessage1</t>
@@ -21577,8 +21580,8 @@
   </sheetPr>
   <dimension ref="A1:Q767"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B566" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B571" activeCellId="0" sqref="B571"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D566" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O574" activeCellId="0" sqref="O574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29528,7 +29531,20 @@
         <v>3131</v>
       </c>
     </row>
-    <row r="573" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="573" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A573" s="0" t="s">
+        <v>3133</v>
+      </c>
+      <c r="B573" s="5" t="s">
+        <v>3129</v>
+      </c>
+      <c r="M573" s="5" t="s">
+        <v>3130</v>
+      </c>
+      <c r="O573" s="0" t="s">
+        <v>3131</v>
+      </c>
+    </row>
     <row r="574" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="575" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="576" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -30024,332 +30040,332 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>3133</v>
+        <v>3134</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3134</v>
+        <v>3135</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>3135</v>
+        <v>3136</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>3136</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>3137</v>
+        <v>3138</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3138</v>
+        <v>3139</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>3139</v>
+        <v>3140</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>3140</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>3141</v>
+        <v>3142</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3142</v>
+        <v>3143</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>3143</v>
+        <v>3144</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>3144</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>3145</v>
+        <v>3146</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3146</v>
+        <v>3147</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>3147</v>
+        <v>3148</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>3148</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>3150</v>
+        <v>3151</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>3152</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>3153</v>
+        <v>3154</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>3154</v>
+        <v>3155</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>3156</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>3157</v>
+        <v>3158</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>3158</v>
+        <v>3159</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>3159</v>
+        <v>3160</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>3160</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>3161</v>
+        <v>3162</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>3162</v>
+        <v>3163</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>3163</v>
+        <v>3164</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>3164</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>3165</v>
+        <v>3166</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>3166</v>
+        <v>3167</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>3167</v>
+        <v>3168</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>3168</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>3169</v>
+        <v>3170</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>3170</v>
+        <v>3171</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>3171</v>
+        <v>3172</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>3172</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>3173</v>
+        <v>3174</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>3174</v>
+        <v>3175</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>3175</v>
+        <v>3176</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>3176</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>3177</v>
+        <v>3178</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>3178</v>
+        <v>3179</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>3180</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>3181</v>
+        <v>3182</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>3182</v>
+        <v>3183</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>3183</v>
+        <v>3184</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>3184</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>3185</v>
+        <v>3186</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>3186</v>
+        <v>3187</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>3187</v>
+        <v>3188</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>3188</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3190</v>
+        <v>3191</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>3191</v>
+        <v>3192</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>3192</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>3193</v>
+        <v>3194</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>3194</v>
+        <v>3195</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>3195</v>
+        <v>3196</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>3196</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>3197</v>
+        <v>3198</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>3198</v>
+        <v>3199</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>3199</v>
+        <v>3200</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>3200</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>3201</v>
+        <v>3202</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>3202</v>
+        <v>3203</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>3203</v>
+        <v>3204</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>3204</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>3205</v>
+        <v>3206</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>3206</v>
+        <v>3207</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>3207</v>
+        <v>3208</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>3208</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>3209</v>
+        <v>3210</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>3210</v>
+        <v>3211</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>3212</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>3213</v>
+        <v>3214</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>3214</v>
+        <v>3215</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>3215</v>
+        <v>3216</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>3216</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>3217</v>
+        <v>3218</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>3222</v>
+        <v>3223</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>3223</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>3224</v>
+        <v>3225</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>3225</v>
+        <v>3226</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>56</v>
@@ -30360,45 +30376,45 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>3226</v>
+        <v>3227</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>3227</v>
+        <v>3228</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>3228</v>
+        <v>3229</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>3229</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>3230</v>
+        <v>3231</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>3232</v>
+        <v>3233</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>3233</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>3234</v>
+        <v>3235</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>3235</v>
+        <v>3236</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>3236</v>
+        <v>3237</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>3237</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/TranslateData.xlsx
+++ b/TranslateData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3520" uniqueCount="3239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="3251">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -10000,6 +10000,42 @@
     <t xml:space="preserve">NunButtonName</t>
   </si>
   <si>
+    <t xml:space="preserve">PartTimerName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PartTimer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フリーター</t>
+  </si>
+  <si>
+    <t xml:space="preserve">弗里特 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PartTimerTitle1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you want a part-time job...!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バイトするなら…！ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">如果你想做兼职工作...!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PartTimerDeathTurn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of turns to die from unbited status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">未バイトの状態から死亡するターン数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">死于未被咬的状态的回合数。</t>
+  </si>
+  <si>
     <t xml:space="preserve">WelcomeMessage1</t>
   </si>
   <si>
@@ -10359,7 +10395,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -10448,6 +10484,12 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="MS Gothic"/>
+      <family val="0"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -10491,7 +10533,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -10570,6 +10612,14 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -21581,7 +21631,7 @@
   <dimension ref="A1:Q767"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D566" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O574" activeCellId="0" sqref="O574"/>
+      <selection pane="topLeft" activeCell="O576" activeCellId="0" sqref="O576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29545,9 +29595,48 @@
         <v>3131</v>
       </c>
     </row>
-    <row r="574" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="575" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="576" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="574" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A574" s="13" t="s">
+        <v>3134</v>
+      </c>
+      <c r="B574" s="13" t="s">
+        <v>3135</v>
+      </c>
+      <c r="M574" s="5" t="s">
+        <v>3136</v>
+      </c>
+      <c r="O574" s="20" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A575" s="21" t="s">
+        <v>3138</v>
+      </c>
+      <c r="B575" s="5" t="s">
+        <v>3139</v>
+      </c>
+      <c r="M575" s="20" t="s">
+        <v>3140</v>
+      </c>
+      <c r="O575" s="0" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="576" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A576" s="18" t="s">
+        <v>3142</v>
+      </c>
+      <c r="B576" s="5" t="s">
+        <v>3143</v>
+      </c>
+      <c r="M576" s="5" t="s">
+        <v>3144</v>
+      </c>
+      <c r="O576" s="0" t="s">
+        <v>3145</v>
+      </c>
+    </row>
     <row r="577" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="578" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="579" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -30040,332 +30129,332 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>3134</v>
+        <v>3146</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3135</v>
+        <v>3147</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>3136</v>
+        <v>3148</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>3137</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>3138</v>
+        <v>3150</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3139</v>
+        <v>3151</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>3140</v>
+        <v>3152</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>3141</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>3142</v>
+        <v>3154</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3143</v>
+        <v>3155</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>3144</v>
+        <v>3156</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>3145</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>3146</v>
+        <v>3158</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3147</v>
+        <v>3159</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>3148</v>
+        <v>3160</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>3149</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>3150</v>
+        <v>3162</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>3151</v>
+        <v>3163</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>3152</v>
+        <v>3164</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>3153</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>3154</v>
+        <v>3166</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>3155</v>
+        <v>3167</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>3156</v>
+        <v>3168</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>3157</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>3158</v>
+        <v>3170</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>3159</v>
+        <v>3171</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>3160</v>
+        <v>3172</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>3161</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>3162</v>
+        <v>3174</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>3163</v>
+        <v>3175</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>3164</v>
+        <v>3176</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>3165</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>3166</v>
+        <v>3178</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>3167</v>
+        <v>3179</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>3168</v>
+        <v>3180</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>3169</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>3170</v>
+        <v>3182</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>3171</v>
+        <v>3183</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>3172</v>
+        <v>3184</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>3173</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>3174</v>
+        <v>3186</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>3175</v>
+        <v>3187</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>3176</v>
+        <v>3188</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>3177</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>3178</v>
+        <v>3190</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>3179</v>
+        <v>3191</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>3180</v>
+        <v>3192</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>3181</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>3182</v>
+        <v>3194</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>3183</v>
+        <v>3195</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>3184</v>
+        <v>3196</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>3185</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>3186</v>
+        <v>3198</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>3187</v>
+        <v>3199</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>3188</v>
+        <v>3200</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>3189</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>3190</v>
+        <v>3202</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3191</v>
+        <v>3203</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>3192</v>
+        <v>3204</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>3193</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>3194</v>
+        <v>3206</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>3195</v>
+        <v>3207</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>3196</v>
+        <v>3208</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>3197</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>3198</v>
+        <v>3210</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>3199</v>
+        <v>3211</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>3200</v>
+        <v>3212</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>3201</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>3202</v>
+        <v>3214</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>3203</v>
+        <v>3215</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>3204</v>
+        <v>3216</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>3205</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>3206</v>
+        <v>3218</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>3207</v>
+        <v>3219</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>3208</v>
+        <v>3220</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>3209</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>3210</v>
+        <v>3222</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>3211</v>
+        <v>3223</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>3212</v>
+        <v>3224</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>3213</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>3214</v>
+        <v>3226</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>3215</v>
+        <v>3227</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>3216</v>
+        <v>3228</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>3217</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>3218</v>
+        <v>3230</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>3219</v>
+        <v>3231</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>3220</v>
+        <v>3232</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>3221</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>3222</v>
+        <v>3234</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>3222</v>
+        <v>3234</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>3223</v>
+        <v>3235</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>3224</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>3225</v>
+        <v>3237</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>3226</v>
+        <v>3238</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>56</v>
@@ -30376,45 +30465,45 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>3227</v>
+        <v>3239</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>3228</v>
+        <v>3240</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>3229</v>
+        <v>3241</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>3230</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>3231</v>
+        <v>3243</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>3232</v>
+        <v>3244</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>3233</v>
+        <v>3245</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>3234</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>3235</v>
+        <v>3247</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>3236</v>
+        <v>3248</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>3237</v>
+        <v>3249</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>3238</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/TranslateData.xlsx
+++ b/TranslateData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="3251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3536" uniqueCount="3255">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -10034,6 +10034,18 @@
   </si>
   <si>
     <t xml:space="preserve">死于未被咬的状态的回合数。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PartTimerIsCheckTargetRole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can see your part-time position.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バイト先の役職が見える</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可见兼职岗位。</t>
   </si>
   <si>
     <t xml:space="preserve">WelcomeMessage1</t>
@@ -21630,8 +21642,8 @@
   </sheetPr>
   <dimension ref="A1:Q767"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D566" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O576" activeCellId="0" sqref="O576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A572" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A577" activeCellId="0" sqref="A577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29637,7 +29649,20 @@
         <v>3145</v>
       </c>
     </row>
-    <row r="577" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="577" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A577" s="13" t="s">
+        <v>3146</v>
+      </c>
+      <c r="B577" s="5" t="s">
+        <v>3147</v>
+      </c>
+      <c r="M577" s="5" t="s">
+        <v>3148</v>
+      </c>
+      <c r="O577" s="0" t="s">
+        <v>3149</v>
+      </c>
+    </row>
     <row r="578" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="579" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="580" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -30129,332 +30154,332 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>3146</v>
+        <v>3150</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3147</v>
+        <v>3151</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>3148</v>
+        <v>3152</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>3149</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>3150</v>
+        <v>3154</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3151</v>
+        <v>3155</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>3152</v>
+        <v>3156</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>3153</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>3154</v>
+        <v>3158</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3155</v>
+        <v>3159</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>3156</v>
+        <v>3160</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>3157</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>3158</v>
+        <v>3162</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3159</v>
+        <v>3163</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>3160</v>
+        <v>3164</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>3161</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>3162</v>
+        <v>3166</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>3163</v>
+        <v>3167</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>3164</v>
+        <v>3168</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>3165</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>3166</v>
+        <v>3170</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>3167</v>
+        <v>3171</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>3168</v>
+        <v>3172</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>3169</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>3170</v>
+        <v>3174</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>3171</v>
+        <v>3175</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>3172</v>
+        <v>3176</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>3173</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>3174</v>
+        <v>3178</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>3175</v>
+        <v>3179</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>3176</v>
+        <v>3180</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>3177</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>3178</v>
+        <v>3182</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>3179</v>
+        <v>3183</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>3180</v>
+        <v>3184</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>3181</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>3182</v>
+        <v>3186</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>3183</v>
+        <v>3187</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>3184</v>
+        <v>3188</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>3185</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>3186</v>
+        <v>3190</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>3187</v>
+        <v>3191</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>3188</v>
+        <v>3192</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>3189</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>3190</v>
+        <v>3194</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>3191</v>
+        <v>3195</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>3192</v>
+        <v>3196</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>3193</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>3194</v>
+        <v>3198</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>3195</v>
+        <v>3199</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>3196</v>
+        <v>3200</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>3197</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>3198</v>
+        <v>3202</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>3199</v>
+        <v>3203</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>3200</v>
+        <v>3204</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>3201</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>3202</v>
+        <v>3206</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3203</v>
+        <v>3207</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>3204</v>
+        <v>3208</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>3205</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>3206</v>
+        <v>3210</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>3207</v>
+        <v>3211</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>3208</v>
+        <v>3212</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>3209</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>3210</v>
+        <v>3214</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>3211</v>
+        <v>3215</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>3212</v>
+        <v>3216</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>3213</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>3214</v>
+        <v>3218</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>3215</v>
+        <v>3219</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>3216</v>
+        <v>3220</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>3217</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>3218</v>
+        <v>3222</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>3219</v>
+        <v>3223</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>3220</v>
+        <v>3224</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>3221</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>3222</v>
+        <v>3226</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>3223</v>
+        <v>3227</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>3224</v>
+        <v>3228</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>3225</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>3226</v>
+        <v>3230</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>3227</v>
+        <v>3231</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>3228</v>
+        <v>3232</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>3229</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>3230</v>
+        <v>3234</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>3231</v>
+        <v>3235</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>3232</v>
+        <v>3236</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>3233</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>3234</v>
+        <v>3238</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>3234</v>
+        <v>3238</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>3235</v>
+        <v>3239</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>3236</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>3237</v>
+        <v>3241</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>3238</v>
+        <v>3242</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>56</v>
@@ -30465,45 +30490,45 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>3239</v>
+        <v>3243</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>3240</v>
+        <v>3244</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>3241</v>
+        <v>3245</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>3242</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>3243</v>
+        <v>3247</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>3244</v>
+        <v>3248</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>3245</v>
+        <v>3249</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>3246</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>3247</v>
+        <v>3251</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>3248</v>
+        <v>3252</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>3249</v>
+        <v>3253</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>3250</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/TranslateData.xlsx
+++ b/TranslateData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3536" uniqueCount="3255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="3259">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -10046,6 +10046,18 @@
   </si>
   <si>
     <t xml:space="preserve">可见兼职岗位。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PartTimerButtonName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PartTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バイト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">字节</t>
   </si>
   <si>
     <t xml:space="preserve">WelcomeMessage1</t>
@@ -10501,6 +10513,7 @@
       <color rgb="FF000000"/>
       <name val="MS Gothic"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -21642,8 +21655,8 @@
   </sheetPr>
   <dimension ref="A1:Q767"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A572" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A577" activeCellId="0" sqref="A577"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G572" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q578" activeCellId="0" sqref="Q578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29663,7 +29676,20 @@
         <v>3149</v>
       </c>
     </row>
-    <row r="578" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="578" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A578" s="13" t="s">
+        <v>3150</v>
+      </c>
+      <c r="B578" s="5" t="s">
+        <v>3151</v>
+      </c>
+      <c r="M578" s="5" t="s">
+        <v>3152</v>
+      </c>
+      <c r="O578" s="0" t="s">
+        <v>3153</v>
+      </c>
+    </row>
     <row r="579" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="580" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="581" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -30154,332 +30180,332 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>3150</v>
+        <v>3154</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3151</v>
+        <v>3155</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>3152</v>
+        <v>3156</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>3153</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>3154</v>
+        <v>3158</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3155</v>
+        <v>3159</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>3156</v>
+        <v>3160</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>3157</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>3158</v>
+        <v>3162</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3159</v>
+        <v>3163</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>3160</v>
+        <v>3164</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>3161</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>3162</v>
+        <v>3166</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3163</v>
+        <v>3167</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>3164</v>
+        <v>3168</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>3165</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>3166</v>
+        <v>3170</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>3167</v>
+        <v>3171</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>3168</v>
+        <v>3172</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>3169</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>3170</v>
+        <v>3174</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>3171</v>
+        <v>3175</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>3172</v>
+        <v>3176</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>3173</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>3174</v>
+        <v>3178</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>3175</v>
+        <v>3179</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>3176</v>
+        <v>3180</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>3177</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>3178</v>
+        <v>3182</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>3179</v>
+        <v>3183</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>3180</v>
+        <v>3184</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>3181</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>3182</v>
+        <v>3186</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>3183</v>
+        <v>3187</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>3184</v>
+        <v>3188</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>3185</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>3186</v>
+        <v>3190</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>3187</v>
+        <v>3191</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>3188</v>
+        <v>3192</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>3189</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>3190</v>
+        <v>3194</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>3191</v>
+        <v>3195</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>3192</v>
+        <v>3196</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>3193</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>3194</v>
+        <v>3198</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>3195</v>
+        <v>3199</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>3196</v>
+        <v>3200</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>3197</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>3198</v>
+        <v>3202</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>3199</v>
+        <v>3203</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>3200</v>
+        <v>3204</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>3201</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>3202</v>
+        <v>3206</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>3203</v>
+        <v>3207</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>3204</v>
+        <v>3208</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>3205</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>3206</v>
+        <v>3210</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3207</v>
+        <v>3211</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>3208</v>
+        <v>3212</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>3209</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>3210</v>
+        <v>3214</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>3211</v>
+        <v>3215</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>3212</v>
+        <v>3216</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>3213</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>3214</v>
+        <v>3218</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>3215</v>
+        <v>3219</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>3216</v>
+        <v>3220</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>3217</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>3218</v>
+        <v>3222</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>3219</v>
+        <v>3223</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>3220</v>
+        <v>3224</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>3221</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>3222</v>
+        <v>3226</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>3223</v>
+        <v>3227</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>3224</v>
+        <v>3228</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>3225</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>3226</v>
+        <v>3230</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>3227</v>
+        <v>3231</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>3228</v>
+        <v>3232</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>3229</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>3230</v>
+        <v>3234</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>3231</v>
+        <v>3235</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>3232</v>
+        <v>3236</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>3233</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>3234</v>
+        <v>3238</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>3235</v>
+        <v>3239</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>3236</v>
+        <v>3240</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>3237</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>3238</v>
+        <v>3242</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>3238</v>
+        <v>3242</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>3239</v>
+        <v>3243</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>3240</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>3241</v>
+        <v>3245</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>3242</v>
+        <v>3246</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>56</v>
@@ -30490,45 +30516,45 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>3243</v>
+        <v>3247</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>3244</v>
+        <v>3248</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>3245</v>
+        <v>3249</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>3246</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>3247</v>
+        <v>3251</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>3248</v>
+        <v>3252</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>3249</v>
+        <v>3253</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>3250</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>3251</v>
+        <v>3255</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>3252</v>
+        <v>3256</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>3253</v>
+        <v>3257</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>3254</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/TranslateData.xlsx
+++ b/TranslateData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3520" uniqueCount="3239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3556" uniqueCount="3275">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -9998,6 +9998,114 @@
   </si>
   <si>
     <t xml:space="preserve">NunButtonName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PsychometristName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychometrist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サイコメトラー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">心理测量师</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PsychometristTitle1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's read the situation of the corpse.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">死体の状況をよみとろう </t>
+  </si>
+  <si>
+    <t xml:space="preserve">让我们来看看尸体的情况。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PsychometristReadTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReadTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">よみとり時間</t>
+  </si>
+  <si>
+    <t xml:space="preserve">阅读时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PsychometristIsCheckDeathTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimated time of death is available.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">死亡推定時間がわかる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">估计的死亡时间是已知的。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PsychometristDeathTimeDeviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum discrepancy in estimated time of death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">死亡推定時刻の最大ズレ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">估计死亡时间的最大差异</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PsychometristIsCheckDeathReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I know the cause of death.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">死因がわかる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我知道死亡的原因。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PsychometristIsCheckFootprints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can see the killer's footprints.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">犯人の足跡が見える</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我可以看到凶手的脚印。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PsychometristCanCheckFootprintsTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time range within which footprints can be traced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">足跡が追跡可能な時間範囲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以追踪脚印的时间范围。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PsychometristIsReportCheckedDeadBody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can report it even after reading it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">よみとった後でも通報できる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你可以在读过之后再举报。</t>
   </si>
   <si>
     <t xml:space="preserve">WelcomeMessage1</t>
@@ -10491,7 +10599,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -10570,6 +10678,10 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -21580,8 +21692,8 @@
   </sheetPr>
   <dimension ref="A1:Q767"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D566" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O574" activeCellId="0" sqref="O574"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N570" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O582" activeCellId="0" sqref="O582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29545,15 +29657,132 @@
         <v>3131</v>
       </c>
     </row>
-    <row r="574" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="575" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="576" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="577" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="578" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="579" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="580" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="581" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="582" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="574" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A574" s="13" t="s">
+        <v>3134</v>
+      </c>
+      <c r="B574" s="13" t="s">
+        <v>3135</v>
+      </c>
+      <c r="M574" s="5" t="s">
+        <v>3136</v>
+      </c>
+      <c r="O574" s="0" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A575" s="13" t="s">
+        <v>3138</v>
+      </c>
+      <c r="B575" s="5" t="s">
+        <v>3139</v>
+      </c>
+      <c r="M575" s="20" t="s">
+        <v>3140</v>
+      </c>
+      <c r="O575" s="0" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="576" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A576" s="0" t="s">
+        <v>3142</v>
+      </c>
+      <c r="B576" s="5" t="s">
+        <v>3143</v>
+      </c>
+      <c r="M576" s="5" t="s">
+        <v>3144</v>
+      </c>
+      <c r="O576" s="0" t="s">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A577" s="0" t="s">
+        <v>3146</v>
+      </c>
+      <c r="B577" s="5" t="s">
+        <v>3147</v>
+      </c>
+      <c r="M577" s="5" t="s">
+        <v>3148</v>
+      </c>
+      <c r="O577" s="0" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="578" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A578" s="0" t="s">
+        <v>3150</v>
+      </c>
+      <c r="B578" s="5" t="s">
+        <v>3151</v>
+      </c>
+      <c r="M578" s="5" t="s">
+        <v>3152</v>
+      </c>
+      <c r="O578" s="0" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="579" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A579" s="0" t="s">
+        <v>3154</v>
+      </c>
+      <c r="B579" s="5" t="s">
+        <v>3155</v>
+      </c>
+      <c r="M579" s="5" t="s">
+        <v>3156</v>
+      </c>
+      <c r="O579" s="0" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A580" s="0" t="s">
+        <v>3158</v>
+      </c>
+      <c r="B580" s="5" t="s">
+        <v>3159</v>
+      </c>
+      <c r="M580" s="5" t="s">
+        <v>3160</v>
+      </c>
+      <c r="O580" s="0" t="s">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="581" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A581" s="0" t="s">
+        <v>3162</v>
+      </c>
+      <c r="B581" s="5" t="s">
+        <v>3163</v>
+      </c>
+      <c r="M581" s="5" t="s">
+        <v>3164</v>
+      </c>
+      <c r="O581" s="0" t="s">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="582" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A582" s="0" t="s">
+        <v>3166</v>
+      </c>
+      <c r="B582" s="5" t="s">
+        <v>3167</v>
+      </c>
+      <c r="M582" s="5" t="s">
+        <v>3168</v>
+      </c>
+      <c r="O582" s="0" t="s">
+        <v>3169</v>
+      </c>
+    </row>
     <row r="583" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="584" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="585" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -30040,332 +30269,332 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>3134</v>
+        <v>3170</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3135</v>
+        <v>3171</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>3136</v>
+        <v>3172</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>3137</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>3138</v>
+        <v>3174</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3139</v>
+        <v>3175</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>3140</v>
+        <v>3176</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>3141</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>3142</v>
+        <v>3178</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3143</v>
+        <v>3179</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>3144</v>
+        <v>3180</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>3145</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>3146</v>
+        <v>3182</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3147</v>
+        <v>3183</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>3148</v>
+        <v>3184</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>3149</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>3150</v>
+        <v>3186</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>3151</v>
+        <v>3187</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>3152</v>
+        <v>3188</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>3153</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>3154</v>
+        <v>3190</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>3155</v>
+        <v>3191</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>3156</v>
+        <v>3192</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>3157</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>3158</v>
+        <v>3194</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>3159</v>
+        <v>3195</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>3160</v>
+        <v>3196</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>3161</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>3162</v>
+        <v>3198</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>3163</v>
+        <v>3199</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>3164</v>
+        <v>3200</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>3165</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>3166</v>
+        <v>3202</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>3167</v>
+        <v>3203</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>3168</v>
+        <v>3204</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>3169</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>3170</v>
+        <v>3206</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>3171</v>
+        <v>3207</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>3172</v>
+        <v>3208</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>3173</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>3174</v>
+        <v>3210</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>3175</v>
+        <v>3211</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>3176</v>
+        <v>3212</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>3177</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>3178</v>
+        <v>3214</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>3179</v>
+        <v>3215</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>3180</v>
+        <v>3216</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>3181</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>3182</v>
+        <v>3218</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>3183</v>
+        <v>3219</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>3184</v>
+        <v>3220</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>3185</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>3186</v>
+        <v>3222</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>3187</v>
+        <v>3223</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>3188</v>
+        <v>3224</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>3189</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>3190</v>
+        <v>3226</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3191</v>
+        <v>3227</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>3192</v>
+        <v>3228</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>3193</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>3194</v>
+        <v>3230</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>3195</v>
+        <v>3231</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>3196</v>
+        <v>3232</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>3197</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>3198</v>
+        <v>3234</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>3199</v>
+        <v>3235</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>3200</v>
+        <v>3236</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>3201</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>3202</v>
+        <v>3238</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>3203</v>
+        <v>3239</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>3204</v>
+        <v>3240</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>3205</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>3206</v>
+        <v>3242</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>3207</v>
+        <v>3243</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>3208</v>
+        <v>3244</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>3209</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>3210</v>
+        <v>3246</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>3211</v>
+        <v>3247</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>3212</v>
+        <v>3248</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>3213</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>3214</v>
+        <v>3250</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>3215</v>
+        <v>3251</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>3216</v>
+        <v>3252</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>3217</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>3218</v>
+        <v>3254</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>3219</v>
+        <v>3255</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>3220</v>
+        <v>3256</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>3221</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>3222</v>
+        <v>3258</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>3222</v>
+        <v>3258</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>3223</v>
+        <v>3259</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>3224</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>3225</v>
+        <v>3261</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>3226</v>
+        <v>3262</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>56</v>
@@ -30376,45 +30605,45 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>3227</v>
+        <v>3263</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>3228</v>
+        <v>3264</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>3229</v>
+        <v>3265</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>3230</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>3231</v>
+        <v>3267</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>3232</v>
+        <v>3268</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>3233</v>
+        <v>3269</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>3234</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>3235</v>
+        <v>3271</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>3236</v>
+        <v>3272</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>3237</v>
+        <v>3273</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>3238</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/TranslateData.xlsx
+++ b/TranslateData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3556" uniqueCount="3275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3560" uniqueCount="3279">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -10106,6 +10106,18 @@
   </si>
   <si>
     <t xml:space="preserve">你可以在读过之后再举报。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PsychometristButtonName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">よみとり</t>
+  </si>
+  <si>
+    <t xml:space="preserve">读取</t>
   </si>
   <si>
     <t xml:space="preserve">WelcomeMessage1</t>
@@ -21692,8 +21704,8 @@
   </sheetPr>
   <dimension ref="A1:Q767"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N570" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O582" activeCellId="0" sqref="O582"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B570" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B583" activeCellId="0" sqref="B583"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29783,7 +29795,20 @@
         <v>3169</v>
       </c>
     </row>
-    <row r="583" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="583" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A583" s="13" t="s">
+        <v>3170</v>
+      </c>
+      <c r="B583" s="5" t="s">
+        <v>3171</v>
+      </c>
+      <c r="M583" s="5" t="s">
+        <v>3172</v>
+      </c>
+      <c r="O583" s="0" t="s">
+        <v>3173</v>
+      </c>
+    </row>
     <row r="584" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="585" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="586" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -30269,332 +30294,332 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>3170</v>
+        <v>3174</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3171</v>
+        <v>3175</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>3172</v>
+        <v>3176</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>3173</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>3174</v>
+        <v>3178</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3175</v>
+        <v>3179</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>3176</v>
+        <v>3180</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>3177</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>3178</v>
+        <v>3182</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3179</v>
+        <v>3183</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>3180</v>
+        <v>3184</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>3181</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>3182</v>
+        <v>3186</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3183</v>
+        <v>3187</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>3184</v>
+        <v>3188</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>3185</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>3186</v>
+        <v>3190</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>3187</v>
+        <v>3191</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>3188</v>
+        <v>3192</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>3189</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>3190</v>
+        <v>3194</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>3191</v>
+        <v>3195</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>3192</v>
+        <v>3196</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>3193</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>3194</v>
+        <v>3198</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>3195</v>
+        <v>3199</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>3196</v>
+        <v>3200</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>3197</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>3198</v>
+        <v>3202</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>3199</v>
+        <v>3203</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>3200</v>
+        <v>3204</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>3201</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>3202</v>
+        <v>3206</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>3203</v>
+        <v>3207</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>3204</v>
+        <v>3208</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>3205</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>3206</v>
+        <v>3210</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>3207</v>
+        <v>3211</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>3208</v>
+        <v>3212</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>3209</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>3210</v>
+        <v>3214</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>3211</v>
+        <v>3215</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>3212</v>
+        <v>3216</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>3213</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>3214</v>
+        <v>3218</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>3215</v>
+        <v>3219</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>3216</v>
+        <v>3220</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>3217</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>3218</v>
+        <v>3222</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>3219</v>
+        <v>3223</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>3220</v>
+        <v>3224</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>3221</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>3222</v>
+        <v>3226</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>3223</v>
+        <v>3227</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>3224</v>
+        <v>3228</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>3225</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>3226</v>
+        <v>3230</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3227</v>
+        <v>3231</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>3228</v>
+        <v>3232</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>3229</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>3230</v>
+        <v>3234</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>3231</v>
+        <v>3235</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>3232</v>
+        <v>3236</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>3233</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>3234</v>
+        <v>3238</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>3235</v>
+        <v>3239</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>3236</v>
+        <v>3240</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>3237</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>3238</v>
+        <v>3242</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>3239</v>
+        <v>3243</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>3240</v>
+        <v>3244</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>3241</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>3242</v>
+        <v>3246</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>3243</v>
+        <v>3247</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>3244</v>
+        <v>3248</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>3245</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>3246</v>
+        <v>3250</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>3247</v>
+        <v>3251</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>3248</v>
+        <v>3252</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>3249</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>3250</v>
+        <v>3254</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>3251</v>
+        <v>3255</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>3252</v>
+        <v>3256</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>3253</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>3254</v>
+        <v>3258</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>3255</v>
+        <v>3259</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>3256</v>
+        <v>3260</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>3257</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>3258</v>
+        <v>3262</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>3258</v>
+        <v>3262</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>3259</v>
+        <v>3263</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>3260</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>3261</v>
+        <v>3265</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>3262</v>
+        <v>3266</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>56</v>
@@ -30605,45 +30630,45 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>3263</v>
+        <v>3267</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>3264</v>
+        <v>3268</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>3265</v>
+        <v>3269</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>3266</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>3267</v>
+        <v>3271</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>3268</v>
+        <v>3272</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>3269</v>
+        <v>3273</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>3270</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>3271</v>
+        <v>3275</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>3272</v>
+        <v>3276</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>3273</v>
+        <v>3277</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>3274</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/TranslateData.xlsx
+++ b/TranslateData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3520" uniqueCount="3239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3528" uniqueCount="3247">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -9998,6 +9998,30 @@
   </si>
   <si>
     <t xml:space="preserve">NunButtonName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SeeThroughPersonName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SeeThroughPerson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">透視者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">透视的人 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SeeThroughPersonTitle1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Witness the decisive moment!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">決定的瞬間を目撃しよう </t>
+  </si>
+  <si>
+    <t xml:space="preserve">见证决定性的时刻。</t>
   </si>
   <si>
     <t xml:space="preserve">WelcomeMessage1</t>
@@ -10491,7 +10515,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -10570,6 +10594,14 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -21580,8 +21612,8 @@
   </sheetPr>
   <dimension ref="A1:Q767"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D566" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O574" activeCellId="0" sqref="O574"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A566" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A575" activeCellId="0" sqref="A575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29545,8 +29577,34 @@
         <v>3131</v>
       </c>
     </row>
-    <row r="574" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="575" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="574" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A574" s="0" t="s">
+        <v>3134</v>
+      </c>
+      <c r="B574" s="20" t="s">
+        <v>3135</v>
+      </c>
+      <c r="M574" s="5" t="s">
+        <v>3136</v>
+      </c>
+      <c r="O574" s="21" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A575" s="0" t="s">
+        <v>3138</v>
+      </c>
+      <c r="B575" s="5" t="s">
+        <v>3139</v>
+      </c>
+      <c r="M575" s="21" t="s">
+        <v>3140</v>
+      </c>
+      <c r="O575" s="0" t="s">
+        <v>3141</v>
+      </c>
+    </row>
     <row r="576" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="577" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="578" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -30040,332 +30098,332 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>3134</v>
+        <v>3142</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3135</v>
+        <v>3143</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>3136</v>
+        <v>3144</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>3137</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>3138</v>
+        <v>3146</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3139</v>
+        <v>3147</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>3140</v>
+        <v>3148</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>3141</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>3142</v>
+        <v>3150</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3143</v>
+        <v>3151</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>3144</v>
+        <v>3152</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>3145</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>3146</v>
+        <v>3154</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3147</v>
+        <v>3155</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>3148</v>
+        <v>3156</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>3149</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>3150</v>
+        <v>3158</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>3151</v>
+        <v>3159</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>3152</v>
+        <v>3160</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>3153</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>3154</v>
+        <v>3162</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>3155</v>
+        <v>3163</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>3156</v>
+        <v>3164</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>3157</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>3158</v>
+        <v>3166</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>3159</v>
+        <v>3167</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>3160</v>
+        <v>3168</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>3161</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>3162</v>
+        <v>3170</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>3163</v>
+        <v>3171</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>3164</v>
+        <v>3172</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>3165</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>3166</v>
+        <v>3174</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>3167</v>
+        <v>3175</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>3168</v>
+        <v>3176</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>3169</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>3170</v>
+        <v>3178</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>3171</v>
+        <v>3179</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>3172</v>
+        <v>3180</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>3173</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>3174</v>
+        <v>3182</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>3175</v>
+        <v>3183</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>3176</v>
+        <v>3184</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>3177</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>3178</v>
+        <v>3186</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>3179</v>
+        <v>3187</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>3180</v>
+        <v>3188</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>3181</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>3182</v>
+        <v>3190</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>3183</v>
+        <v>3191</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>3184</v>
+        <v>3192</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>3185</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>3186</v>
+        <v>3194</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>3187</v>
+        <v>3195</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>3188</v>
+        <v>3196</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>3189</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>3190</v>
+        <v>3198</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3191</v>
+        <v>3199</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>3192</v>
+        <v>3200</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>3193</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>3194</v>
+        <v>3202</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>3195</v>
+        <v>3203</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>3196</v>
+        <v>3204</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>3197</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>3198</v>
+        <v>3206</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>3199</v>
+        <v>3207</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>3200</v>
+        <v>3208</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>3201</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>3202</v>
+        <v>3210</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>3203</v>
+        <v>3211</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>3204</v>
+        <v>3212</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>3205</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>3206</v>
+        <v>3214</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>3207</v>
+        <v>3215</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>3208</v>
+        <v>3216</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>3209</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>3210</v>
+        <v>3218</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>3211</v>
+        <v>3219</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>3212</v>
+        <v>3220</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>3213</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>3214</v>
+        <v>3222</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>3215</v>
+        <v>3223</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>3216</v>
+        <v>3224</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>3217</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>3218</v>
+        <v>3226</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>3219</v>
+        <v>3227</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>3220</v>
+        <v>3228</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>3221</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>3222</v>
+        <v>3230</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>3222</v>
+        <v>3230</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>3223</v>
+        <v>3231</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>3224</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>3225</v>
+        <v>3233</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>3226</v>
+        <v>3234</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>56</v>
@@ -30376,45 +30434,45 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>3227</v>
+        <v>3235</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>3228</v>
+        <v>3236</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>3229</v>
+        <v>3237</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>3230</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>3231</v>
+        <v>3239</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>3232</v>
+        <v>3240</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>3233</v>
+        <v>3241</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>3234</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>3235</v>
+        <v>3243</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>3236</v>
+        <v>3244</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>3237</v>
+        <v>3245</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>3238</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/TranslateData.xlsx
+++ b/TranslateData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="3259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3548" uniqueCount="3267">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -10058,6 +10058,30 @@
   </si>
   <si>
     <t xml:space="preserve">字节</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PainterName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Painter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ペインター</t>
+  </si>
+  <si>
+    <t xml:space="preserve">画家</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PainterTitle1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow the traces of paint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">絵具の痕跡をたどろう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">遵循油漆的痕迹。</t>
   </si>
   <si>
     <t xml:space="preserve">WelcomeMessage1</t>
@@ -21655,8 +21679,8 @@
   </sheetPr>
   <dimension ref="A1:Q767"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G572" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q578" activeCellId="0" sqref="Q578"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A572" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A579" activeCellId="0" sqref="A579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29690,8 +29714,34 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="579" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="580" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="579" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A579" s="20" t="s">
+        <v>3154</v>
+      </c>
+      <c r="B579" s="20" t="s">
+        <v>3155</v>
+      </c>
+      <c r="M579" s="5" t="s">
+        <v>3156</v>
+      </c>
+      <c r="O579" s="0" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A580" s="20" t="s">
+        <v>3158</v>
+      </c>
+      <c r="B580" s="5" t="s">
+        <v>3159</v>
+      </c>
+      <c r="M580" s="5" t="s">
+        <v>3160</v>
+      </c>
+      <c r="O580" s="0" t="s">
+        <v>3161</v>
+      </c>
+    </row>
     <row r="581" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="582" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="583" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -30180,332 +30230,332 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>3154</v>
+        <v>3162</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3155</v>
+        <v>3163</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>3156</v>
+        <v>3164</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>3157</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>3158</v>
+        <v>3166</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3159</v>
+        <v>3167</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>3160</v>
+        <v>3168</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>3161</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>3162</v>
+        <v>3170</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3163</v>
+        <v>3171</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>3164</v>
+        <v>3172</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>3165</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>3166</v>
+        <v>3174</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3167</v>
+        <v>3175</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>3168</v>
+        <v>3176</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>3169</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>3170</v>
+        <v>3178</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>3171</v>
+        <v>3179</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>3172</v>
+        <v>3180</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>3173</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>3174</v>
+        <v>3182</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>3175</v>
+        <v>3183</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>3176</v>
+        <v>3184</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>3177</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>3178</v>
+        <v>3186</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>3179</v>
+        <v>3187</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>3180</v>
+        <v>3188</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>3181</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>3182</v>
+        <v>3190</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>3183</v>
+        <v>3191</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>3184</v>
+        <v>3192</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>3185</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>3186</v>
+        <v>3194</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>3187</v>
+        <v>3195</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>3188</v>
+        <v>3196</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>3189</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>3190</v>
+        <v>3198</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>3191</v>
+        <v>3199</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>3192</v>
+        <v>3200</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>3193</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>3194</v>
+        <v>3202</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>3195</v>
+        <v>3203</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>3196</v>
+        <v>3204</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>3197</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>3198</v>
+        <v>3206</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>3199</v>
+        <v>3207</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>3200</v>
+        <v>3208</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>3201</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>3202</v>
+        <v>3210</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>3203</v>
+        <v>3211</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>3204</v>
+        <v>3212</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>3205</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>3206</v>
+        <v>3214</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>3207</v>
+        <v>3215</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>3208</v>
+        <v>3216</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>3209</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>3210</v>
+        <v>3218</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3211</v>
+        <v>3219</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>3212</v>
+        <v>3220</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>3213</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>3214</v>
+        <v>3222</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>3215</v>
+        <v>3223</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>3216</v>
+        <v>3224</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>3217</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>3218</v>
+        <v>3226</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>3219</v>
+        <v>3227</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>3220</v>
+        <v>3228</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>3221</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>3222</v>
+        <v>3230</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>3223</v>
+        <v>3231</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>3224</v>
+        <v>3232</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>3225</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>3226</v>
+        <v>3234</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>3227</v>
+        <v>3235</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>3228</v>
+        <v>3236</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>3229</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>3230</v>
+        <v>3238</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>3231</v>
+        <v>3239</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>3232</v>
+        <v>3240</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>3233</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>3234</v>
+        <v>3242</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>3235</v>
+        <v>3243</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>3236</v>
+        <v>3244</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>3237</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>3238</v>
+        <v>3246</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>3239</v>
+        <v>3247</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>3240</v>
+        <v>3248</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>3241</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>3242</v>
+        <v>3250</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>3242</v>
+        <v>3250</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>3243</v>
+        <v>3251</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>3244</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>3245</v>
+        <v>3253</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>3246</v>
+        <v>3254</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>56</v>
@@ -30516,45 +30566,45 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>3247</v>
+        <v>3255</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>3248</v>
+        <v>3256</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>3249</v>
+        <v>3257</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>3250</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>3251</v>
+        <v>3259</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>3252</v>
+        <v>3260</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>3253</v>
+        <v>3261</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>3254</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>3255</v>
+        <v>3263</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>3256</v>
+        <v>3264</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>3257</v>
+        <v>3265</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>3258</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/TranslateData.xlsx
+++ b/TranslateData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3548" uniqueCount="3267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3588" uniqueCount="3307">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -10082,6 +10082,126 @@
   </si>
   <si>
     <t xml:space="preserve">遵循油漆的痕迹。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PainterIsTaskComplateFootprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave a trace when completing a task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タスク完了時痕跡を残す</t>
+  </si>
+  <si>
+    <t xml:space="preserve">任务完成后留下痕迹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PainterIsSabotageRepairFootprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave a trace when repairing a sabotage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サボタージュ修復時痕跡を残す</t>
+  </si>
+  <si>
+    <t xml:space="preserve">修复破坏行为时要留下痕迹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PainterIsInVentFootprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave a trace when entering a vent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ベントに入った時痕跡を残す</t>
+  </si>
+  <si>
+    <t xml:space="preserve">进入通风口时留下痕迹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PainterIsExitVentFootprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave a trace when exiting a vent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ベントから出た時痕跡を残す</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在离开通风口时留下痕迹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PainterIsCheckVitalFootprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave a trace when checking vitals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バイタルチェック時痕跡を残す</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查生命体征时留下痕迹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PainterIsCheckAdminFootprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave a trace when administering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アドミン時痕跡を残す</t>
+  </si>
+  <si>
+    <t xml:space="preserve">管理时留下痕迹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PainterIsDeathFootprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave a trace of the place of death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">死亡場所の痕跡を残す</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在死亡的地方留下痕迹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PainterIsDeathFootprintBig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase the size of the trace at the place of death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">死亡場所の痕跡を大きくする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">增加死亡地点的痕迹大小</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PainterIsFootprintMeetingDestroy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trace disappears at meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">痕跡が会議で消える</t>
+  </si>
+  <si>
+    <t xml:space="preserve">痕迹在会议上消失</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PainterButtonName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ペイント</t>
+  </si>
+  <si>
+    <t xml:space="preserve">涂料</t>
   </si>
   <si>
     <t xml:space="preserve">WelcomeMessage1</t>
@@ -21679,8 +21799,8 @@
   </sheetPr>
   <dimension ref="A1:Q767"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A572" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A579" activeCellId="0" sqref="A579"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N580" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O589" activeCellId="0" sqref="O589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29742,16 +29862,146 @@
         <v>3161</v>
       </c>
     </row>
-    <row r="581" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="582" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="583" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="584" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="585" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="586" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="587" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="588" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="589" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="590" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="581" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A581" s="0" t="s">
+        <v>3162</v>
+      </c>
+      <c r="B581" s="5" t="s">
+        <v>3163</v>
+      </c>
+      <c r="M581" s="5" t="s">
+        <v>3164</v>
+      </c>
+      <c r="O581" s="0" t="s">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="582" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A582" s="0" t="s">
+        <v>3166</v>
+      </c>
+      <c r="B582" s="5" t="s">
+        <v>3167</v>
+      </c>
+      <c r="M582" s="5" t="s">
+        <v>3168</v>
+      </c>
+      <c r="O582" s="0" t="s">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="583" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A583" s="0" t="s">
+        <v>3170</v>
+      </c>
+      <c r="B583" s="5" t="s">
+        <v>3171</v>
+      </c>
+      <c r="M583" s="5" t="s">
+        <v>3172</v>
+      </c>
+      <c r="O583" s="0" t="s">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A584" s="0" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B584" s="5" t="s">
+        <v>3175</v>
+      </c>
+      <c r="M584" s="5" t="s">
+        <v>3176</v>
+      </c>
+      <c r="O584" s="0" t="s">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="585" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A585" s="0" t="s">
+        <v>3178</v>
+      </c>
+      <c r="B585" s="5" t="s">
+        <v>3179</v>
+      </c>
+      <c r="M585" s="5" t="s">
+        <v>3180</v>
+      </c>
+      <c r="O585" s="0" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A586" s="0" t="s">
+        <v>3182</v>
+      </c>
+      <c r="B586" s="5" t="s">
+        <v>3183</v>
+      </c>
+      <c r="M586" s="5" t="s">
+        <v>3184</v>
+      </c>
+      <c r="O586" s="0" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="587" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A587" s="0" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B587" s="5" t="s">
+        <v>3187</v>
+      </c>
+      <c r="M587" s="5" t="s">
+        <v>3188</v>
+      </c>
+      <c r="O587" s="0" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="588" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A588" s="0" t="s">
+        <v>3190</v>
+      </c>
+      <c r="B588" s="5" t="s">
+        <v>3191</v>
+      </c>
+      <c r="M588" s="5" t="s">
+        <v>3192</v>
+      </c>
+      <c r="O588" s="0" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="589" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A589" s="0" t="s">
+        <v>3194</v>
+      </c>
+      <c r="B589" s="5" t="s">
+        <v>3195</v>
+      </c>
+      <c r="M589" s="5" t="s">
+        <v>3196</v>
+      </c>
+      <c r="O589" s="0" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="590" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A590" s="0" t="s">
+        <v>3198</v>
+      </c>
+      <c r="B590" s="5" t="s">
+        <v>3199</v>
+      </c>
+      <c r="M590" s="5" t="s">
+        <v>3200</v>
+      </c>
+      <c r="O590" s="0" t="s">
+        <v>3201</v>
+      </c>
+    </row>
     <row r="591" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="592" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="593" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -30230,332 +30480,332 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>3162</v>
+        <v>3202</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3163</v>
+        <v>3203</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>3164</v>
+        <v>3204</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>3165</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>3166</v>
+        <v>3206</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3167</v>
+        <v>3207</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>3168</v>
+        <v>3208</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>3169</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>3170</v>
+        <v>3210</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3171</v>
+        <v>3211</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>3172</v>
+        <v>3212</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>3173</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>3174</v>
+        <v>3214</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3175</v>
+        <v>3215</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>3176</v>
+        <v>3216</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>3177</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>3178</v>
+        <v>3218</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>3179</v>
+        <v>3219</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>3180</v>
+        <v>3220</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>3181</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>3182</v>
+        <v>3222</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>3183</v>
+        <v>3223</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>3184</v>
+        <v>3224</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>3185</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>3186</v>
+        <v>3226</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>3187</v>
+        <v>3227</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>3188</v>
+        <v>3228</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>3189</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>3190</v>
+        <v>3230</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>3191</v>
+        <v>3231</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>3192</v>
+        <v>3232</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>3193</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>3194</v>
+        <v>3234</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>3195</v>
+        <v>3235</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>3196</v>
+        <v>3236</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>3197</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>3198</v>
+        <v>3238</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>3199</v>
+        <v>3239</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>3200</v>
+        <v>3240</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>3201</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>3202</v>
+        <v>3242</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>3203</v>
+        <v>3243</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>3204</v>
+        <v>3244</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>3205</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>3206</v>
+        <v>3246</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>3207</v>
+        <v>3247</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>3208</v>
+        <v>3248</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>3209</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>3210</v>
+        <v>3250</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>3211</v>
+        <v>3251</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>3212</v>
+        <v>3252</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>3213</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>3214</v>
+        <v>3254</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>3215</v>
+        <v>3255</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>3216</v>
+        <v>3256</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>3217</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>3218</v>
+        <v>3258</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3219</v>
+        <v>3259</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>3220</v>
+        <v>3260</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>3221</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>3222</v>
+        <v>3262</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>3223</v>
+        <v>3263</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>3224</v>
+        <v>3264</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>3225</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>3226</v>
+        <v>3266</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>3227</v>
+        <v>3267</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>3228</v>
+        <v>3268</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>3229</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>3230</v>
+        <v>3270</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>3231</v>
+        <v>3271</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>3232</v>
+        <v>3272</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>3233</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>3234</v>
+        <v>3274</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>3235</v>
+        <v>3275</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>3236</v>
+        <v>3276</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>3237</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>3238</v>
+        <v>3278</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>3239</v>
+        <v>3279</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>3240</v>
+        <v>3280</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>3241</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>3242</v>
+        <v>3282</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>3243</v>
+        <v>3283</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>3244</v>
+        <v>3284</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>3245</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>3246</v>
+        <v>3286</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>3247</v>
+        <v>3287</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>3248</v>
+        <v>3288</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>3249</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>3250</v>
+        <v>3290</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>3250</v>
+        <v>3290</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>3251</v>
+        <v>3291</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>3252</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>3253</v>
+        <v>3293</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>3254</v>
+        <v>3294</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>56</v>
@@ -30566,45 +30816,45 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>3255</v>
+        <v>3295</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>3256</v>
+        <v>3296</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>3257</v>
+        <v>3297</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>3258</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>3259</v>
+        <v>3299</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>3260</v>
+        <v>3300</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>3261</v>
+        <v>3301</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>3262</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>3263</v>
+        <v>3303</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>3264</v>
+        <v>3304</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>3265</v>
+        <v>3305</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>3266</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/TranslateData.xlsx
+++ b/TranslateData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3683" uniqueCount="3395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3751" uniqueCount="3463">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -9972,6 +9972,210 @@
   </si>
   <si>
     <t xml:space="preserve">単独勝利</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PartTimerName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PartTimer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フリーター</t>
+  </si>
+  <si>
+    <t xml:space="preserve">弗里特 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PartTimerTitle1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you want a part-time job...!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バイトするなら…！ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">如果?想做兼?工作...!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PartTimerDeathTurn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of turns to die from unbited status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">未バイトの状態から死亡するターン数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">死于未被咬的状?的回合数。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PartTimerIsCheckTargetRole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can see your part-time position.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バイト先の役職が見える</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可?兼??位。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PartTimerButtonName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PartTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バイト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">字?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PainterName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Painter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ペインター</t>
+  </si>
+  <si>
+    <t xml:space="preserve">画家</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PainterTitle1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow the traces of paint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">絵具の痕跡をたどろう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">遵循油漆的痕迹。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PainterIsTaskComplateFootprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave a trace when completing a task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タスク完了時痕跡を残す</t>
+  </si>
+  <si>
+    <t xml:space="preserve">任?完成后留下痕迹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PainterIsSabotageRepairFootprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave a trace when repairing a sabotage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サボタージュ修復時痕跡を残す</t>
+  </si>
+  <si>
+    <t xml:space="preserve">修?破坏行??要留下痕迹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PainterIsInVentFootprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave a trace when entering a vent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ベントに入った時痕跡を残す</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?入通?口?留下痕迹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PainterIsExitVentFootprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave a trace when exiting a vent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ベントから出た時痕跡を残す</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在??通?口?留下痕迹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PainterIsCheckVitalFootprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave a trace when checking vitals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バイタルチェック時痕跡を残す</t>
+  </si>
+  <si>
+    <t xml:space="preserve">??生命体征?留下痕迹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PainterIsCheckAdminFootprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave a trace when administering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アドミン時痕跡を残す</t>
+  </si>
+  <si>
+    <t xml:space="preserve">管理?留下痕迹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PainterIsDeathFootprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave a trace of the place of death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">死亡場所の痕跡を残す</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在死亡的地方留下痕迹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PainterIsDeathFootprintBig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase the size of the trace at the place of death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">死亡場所の痕跡を大きくする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">增加死亡地点的痕迹大小</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PainterIsFootprintMeetingDestroy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trace disappears at meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">痕跡が会議で消える</t>
+  </si>
+  <si>
+    <t xml:space="preserve">痕迹在会?上消失</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PainterButtonName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ペイント</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?料</t>
   </si>
   <si>
     <t xml:space="preserve">WelcomeMessage1</t>
@@ -21476,8 +21680,8 @@
   </sheetPr>
   <dimension ref="A1:AJ856"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A326" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E330" activeCellId="0" sqref="E330"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A605" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A610" activeCellId="0" sqref="A610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -49497,8 +49701,12 @@
       <c r="AJ609" s="9"/>
     </row>
     <row r="610" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A610" s="9"/>
-      <c r="B610" s="9"/>
+      <c r="A610" s="9" t="s">
+        <v>3290</v>
+      </c>
+      <c r="B610" s="9" t="s">
+        <v>3291</v>
+      </c>
       <c r="C610" s="9"/>
       <c r="D610" s="9"/>
       <c r="E610" s="9"/>
@@ -49509,9 +49717,13 @@
       <c r="J610" s="9"/>
       <c r="K610" s="9"/>
       <c r="L610" s="9"/>
-      <c r="M610" s="9"/>
+      <c r="M610" s="9" t="s">
+        <v>3292</v>
+      </c>
       <c r="N610" s="9"/>
-      <c r="O610" s="9"/>
+      <c r="O610" s="9" t="s">
+        <v>3293</v>
+      </c>
       <c r="P610" s="9"/>
       <c r="Q610" s="9"/>
       <c r="R610" s="9"/>
@@ -49535,8 +49747,12 @@
       <c r="AJ610" s="9"/>
     </row>
     <row r="611" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A611" s="9"/>
-      <c r="B611" s="9"/>
+      <c r="A611" s="9" t="s">
+        <v>3294</v>
+      </c>
+      <c r="B611" s="9" t="s">
+        <v>3295</v>
+      </c>
       <c r="C611" s="9"/>
       <c r="D611" s="9"/>
       <c r="E611" s="9"/>
@@ -49547,9 +49763,13 @@
       <c r="J611" s="9"/>
       <c r="K611" s="9"/>
       <c r="L611" s="9"/>
-      <c r="M611" s="9"/>
+      <c r="M611" s="9" t="s">
+        <v>3296</v>
+      </c>
       <c r="N611" s="9"/>
-      <c r="O611" s="9"/>
+      <c r="O611" s="9" t="s">
+        <v>3297</v>
+      </c>
       <c r="P611" s="9"/>
       <c r="Q611" s="9"/>
       <c r="R611" s="9"/>
@@ -49573,8 +49793,12 @@
       <c r="AJ611" s="9"/>
     </row>
     <row r="612" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A612" s="9"/>
-      <c r="B612" s="9"/>
+      <c r="A612" s="9" t="s">
+        <v>3298</v>
+      </c>
+      <c r="B612" s="9" t="s">
+        <v>3299</v>
+      </c>
       <c r="C612" s="9"/>
       <c r="D612" s="9"/>
       <c r="E612" s="9"/>
@@ -49585,9 +49809,13 @@
       <c r="J612" s="9"/>
       <c r="K612" s="9"/>
       <c r="L612" s="9"/>
-      <c r="M612" s="9"/>
+      <c r="M612" s="9" t="s">
+        <v>3300</v>
+      </c>
       <c r="N612" s="9"/>
-      <c r="O612" s="9"/>
+      <c r="O612" s="9" t="s">
+        <v>3301</v>
+      </c>
       <c r="P612" s="9"/>
       <c r="Q612" s="9"/>
       <c r="R612" s="9"/>
@@ -49611,8 +49839,12 @@
       <c r="AJ612" s="9"/>
     </row>
     <row r="613" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A613" s="9"/>
-      <c r="B613" s="9"/>
+      <c r="A613" s="9" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B613" s="9" t="s">
+        <v>3303</v>
+      </c>
       <c r="C613" s="9"/>
       <c r="D613" s="9"/>
       <c r="E613" s="9"/>
@@ -49623,9 +49855,13 @@
       <c r="J613" s="9"/>
       <c r="K613" s="9"/>
       <c r="L613" s="9"/>
-      <c r="M613" s="9"/>
+      <c r="M613" s="9" t="s">
+        <v>3304</v>
+      </c>
       <c r="N613" s="9"/>
-      <c r="O613" s="9"/>
+      <c r="O613" s="9" t="s">
+        <v>3305</v>
+      </c>
       <c r="P613" s="9"/>
       <c r="Q613" s="9"/>
       <c r="R613" s="9"/>
@@ -49649,8 +49885,12 @@
       <c r="AJ613" s="9"/>
     </row>
     <row r="614" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A614" s="9"/>
-      <c r="B614" s="9"/>
+      <c r="A614" s="9" t="s">
+        <v>3306</v>
+      </c>
+      <c r="B614" s="9" t="s">
+        <v>3307</v>
+      </c>
       <c r="C614" s="9"/>
       <c r="D614" s="9"/>
       <c r="E614" s="9"/>
@@ -49661,9 +49901,13 @@
       <c r="J614" s="9"/>
       <c r="K614" s="9"/>
       <c r="L614" s="9"/>
-      <c r="M614" s="9"/>
+      <c r="M614" s="9" t="s">
+        <v>3308</v>
+      </c>
       <c r="N614" s="9"/>
-      <c r="O614" s="9"/>
+      <c r="O614" s="9" t="s">
+        <v>3309</v>
+      </c>
       <c r="P614" s="9"/>
       <c r="Q614" s="9"/>
       <c r="R614" s="9"/>
@@ -49687,8 +49931,12 @@
       <c r="AJ614" s="9"/>
     </row>
     <row r="615" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A615" s="9"/>
-      <c r="B615" s="9"/>
+      <c r="A615" s="9" t="s">
+        <v>3310</v>
+      </c>
+      <c r="B615" s="9" t="s">
+        <v>3311</v>
+      </c>
       <c r="C615" s="9"/>
       <c r="D615" s="9"/>
       <c r="E615" s="9"/>
@@ -49699,9 +49947,13 @@
       <c r="J615" s="9"/>
       <c r="K615" s="9"/>
       <c r="L615" s="9"/>
-      <c r="M615" s="9"/>
+      <c r="M615" s="9" t="s">
+        <v>3312</v>
+      </c>
       <c r="N615" s="9"/>
-      <c r="O615" s="9"/>
+      <c r="O615" s="9" t="s">
+        <v>3313</v>
+      </c>
       <c r="P615" s="9"/>
       <c r="Q615" s="9"/>
       <c r="R615" s="9"/>
@@ -49725,8 +49977,12 @@
       <c r="AJ615" s="9"/>
     </row>
     <row r="616" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A616" s="9"/>
-      <c r="B616" s="9"/>
+      <c r="A616" s="9" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B616" s="9" t="s">
+        <v>3315</v>
+      </c>
       <c r="C616" s="9"/>
       <c r="D616" s="9"/>
       <c r="E616" s="9"/>
@@ -49737,9 +49993,13 @@
       <c r="J616" s="9"/>
       <c r="K616" s="9"/>
       <c r="L616" s="9"/>
-      <c r="M616" s="9"/>
+      <c r="M616" s="9" t="s">
+        <v>3316</v>
+      </c>
       <c r="N616" s="9"/>
-      <c r="O616" s="9"/>
+      <c r="O616" s="9" t="s">
+        <v>3317</v>
+      </c>
       <c r="P616" s="9"/>
       <c r="Q616" s="9"/>
       <c r="R616" s="9"/>
@@ -49763,8 +50023,12 @@
       <c r="AJ616" s="9"/>
     </row>
     <row r="617" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A617" s="9"/>
-      <c r="B617" s="9"/>
+      <c r="A617" s="9" t="s">
+        <v>3318</v>
+      </c>
+      <c r="B617" s="9" t="s">
+        <v>3319</v>
+      </c>
       <c r="C617" s="9"/>
       <c r="D617" s="9"/>
       <c r="E617" s="9"/>
@@ -49775,9 +50039,13 @@
       <c r="J617" s="9"/>
       <c r="K617" s="9"/>
       <c r="L617" s="9"/>
-      <c r="M617" s="9"/>
+      <c r="M617" s="9" t="s">
+        <v>3320</v>
+      </c>
       <c r="N617" s="9"/>
-      <c r="O617" s="9"/>
+      <c r="O617" s="9" t="s">
+        <v>3321</v>
+      </c>
       <c r="P617" s="9"/>
       <c r="Q617" s="9"/>
       <c r="R617" s="9"/>
@@ -49801,8 +50069,12 @@
       <c r="AJ617" s="9"/>
     </row>
     <row r="618" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A618" s="9"/>
-      <c r="B618" s="9"/>
+      <c r="A618" s="9" t="s">
+        <v>3322</v>
+      </c>
+      <c r="B618" s="9" t="s">
+        <v>3323</v>
+      </c>
       <c r="C618" s="9"/>
       <c r="D618" s="9"/>
       <c r="E618" s="9"/>
@@ -49813,9 +50085,13 @@
       <c r="J618" s="9"/>
       <c r="K618" s="9"/>
       <c r="L618" s="9"/>
-      <c r="M618" s="9"/>
+      <c r="M618" s="9" t="s">
+        <v>3324</v>
+      </c>
       <c r="N618" s="9"/>
-      <c r="O618" s="9"/>
+      <c r="O618" s="9" t="s">
+        <v>3325</v>
+      </c>
       <c r="P618" s="9"/>
       <c r="Q618" s="9"/>
       <c r="R618" s="9"/>
@@ -49839,8 +50115,12 @@
       <c r="AJ618" s="9"/>
     </row>
     <row r="619" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A619" s="9"/>
-      <c r="B619" s="9"/>
+      <c r="A619" s="9" t="s">
+        <v>3326</v>
+      </c>
+      <c r="B619" s="9" t="s">
+        <v>3327</v>
+      </c>
       <c r="C619" s="9"/>
       <c r="D619" s="9"/>
       <c r="E619" s="9"/>
@@ -49851,9 +50131,13 @@
       <c r="J619" s="9"/>
       <c r="K619" s="9"/>
       <c r="L619" s="9"/>
-      <c r="M619" s="9"/>
+      <c r="M619" s="9" t="s">
+        <v>3328</v>
+      </c>
       <c r="N619" s="9"/>
-      <c r="O619" s="9"/>
+      <c r="O619" s="9" t="s">
+        <v>3329</v>
+      </c>
       <c r="P619" s="9"/>
       <c r="Q619" s="9"/>
       <c r="R619" s="9"/>
@@ -49877,8 +50161,12 @@
       <c r="AJ619" s="9"/>
     </row>
     <row r="620" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A620" s="9"/>
-      <c r="B620" s="9"/>
+      <c r="A620" s="9" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B620" s="9" t="s">
+        <v>3331</v>
+      </c>
       <c r="C620" s="9"/>
       <c r="D620" s="9"/>
       <c r="E620" s="9"/>
@@ -49889,9 +50177,13 @@
       <c r="J620" s="9"/>
       <c r="K620" s="9"/>
       <c r="L620" s="9"/>
-      <c r="M620" s="9"/>
+      <c r="M620" s="9" t="s">
+        <v>3332</v>
+      </c>
       <c r="N620" s="9"/>
-      <c r="O620" s="9"/>
+      <c r="O620" s="9" t="s">
+        <v>3333</v>
+      </c>
       <c r="P620" s="9"/>
       <c r="Q620" s="9"/>
       <c r="R620" s="9"/>
@@ -49915,8 +50207,12 @@
       <c r="AJ620" s="9"/>
     </row>
     <row r="621" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A621" s="9"/>
-      <c r="B621" s="9"/>
+      <c r="A621" s="9" t="s">
+        <v>3334</v>
+      </c>
+      <c r="B621" s="9" t="s">
+        <v>3335</v>
+      </c>
       <c r="C621" s="9"/>
       <c r="D621" s="9"/>
       <c r="E621" s="9"/>
@@ -49927,9 +50223,13 @@
       <c r="J621" s="9"/>
       <c r="K621" s="9"/>
       <c r="L621" s="9"/>
-      <c r="M621" s="9"/>
+      <c r="M621" s="9" t="s">
+        <v>3336</v>
+      </c>
       <c r="N621" s="9"/>
-      <c r="O621" s="9"/>
+      <c r="O621" s="9" t="s">
+        <v>3337</v>
+      </c>
       <c r="P621" s="9"/>
       <c r="Q621" s="9"/>
       <c r="R621" s="9"/>
@@ -49953,8 +50253,12 @@
       <c r="AJ621" s="9"/>
     </row>
     <row r="622" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A622" s="9"/>
-      <c r="B622" s="9"/>
+      <c r="A622" s="9" t="s">
+        <v>3338</v>
+      </c>
+      <c r="B622" s="9" t="s">
+        <v>3339</v>
+      </c>
       <c r="C622" s="9"/>
       <c r="D622" s="9"/>
       <c r="E622" s="9"/>
@@ -49965,9 +50269,13 @@
       <c r="J622" s="9"/>
       <c r="K622" s="9"/>
       <c r="L622" s="9"/>
-      <c r="M622" s="9"/>
+      <c r="M622" s="9" t="s">
+        <v>3340</v>
+      </c>
       <c r="N622" s="9"/>
-      <c r="O622" s="9"/>
+      <c r="O622" s="9" t="s">
+        <v>3341</v>
+      </c>
       <c r="P622" s="9"/>
       <c r="Q622" s="9"/>
       <c r="R622" s="9"/>
@@ -49991,8 +50299,12 @@
       <c r="AJ622" s="9"/>
     </row>
     <row r="623" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A623" s="9"/>
-      <c r="B623" s="9"/>
+      <c r="A623" s="9" t="s">
+        <v>3342</v>
+      </c>
+      <c r="B623" s="9" t="s">
+        <v>3343</v>
+      </c>
       <c r="C623" s="9"/>
       <c r="D623" s="9"/>
       <c r="E623" s="9"/>
@@ -50003,9 +50315,13 @@
       <c r="J623" s="9"/>
       <c r="K623" s="9"/>
       <c r="L623" s="9"/>
-      <c r="M623" s="9"/>
+      <c r="M623" s="9" t="s">
+        <v>3344</v>
+      </c>
       <c r="N623" s="9"/>
-      <c r="O623" s="9"/>
+      <c r="O623" s="9" t="s">
+        <v>3345</v>
+      </c>
       <c r="P623" s="9"/>
       <c r="Q623" s="9"/>
       <c r="R623" s="9"/>
@@ -50029,8 +50345,12 @@
       <c r="AJ623" s="9"/>
     </row>
     <row r="624" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A624" s="9"/>
-      <c r="B624" s="9"/>
+      <c r="A624" s="9" t="s">
+        <v>3346</v>
+      </c>
+      <c r="B624" s="9" t="s">
+        <v>3347</v>
+      </c>
       <c r="C624" s="9"/>
       <c r="D624" s="9"/>
       <c r="E624" s="9"/>
@@ -50041,9 +50361,13 @@
       <c r="J624" s="9"/>
       <c r="K624" s="9"/>
       <c r="L624" s="9"/>
-      <c r="M624" s="9"/>
+      <c r="M624" s="9" t="s">
+        <v>3348</v>
+      </c>
       <c r="N624" s="9"/>
-      <c r="O624" s="9"/>
+      <c r="O624" s="9" t="s">
+        <v>3349</v>
+      </c>
       <c r="P624" s="9"/>
       <c r="Q624" s="9"/>
       <c r="R624" s="9"/>
@@ -50067,8 +50391,12 @@
       <c r="AJ624" s="9"/>
     </row>
     <row r="625" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A625" s="9"/>
-      <c r="B625" s="9"/>
+      <c r="A625" s="9" t="s">
+        <v>3350</v>
+      </c>
+      <c r="B625" s="9" t="s">
+        <v>3351</v>
+      </c>
       <c r="C625" s="9"/>
       <c r="D625" s="9"/>
       <c r="E625" s="9"/>
@@ -50079,9 +50407,13 @@
       <c r="J625" s="9"/>
       <c r="K625" s="9"/>
       <c r="L625" s="9"/>
-      <c r="M625" s="9"/>
+      <c r="M625" s="9" t="s">
+        <v>3352</v>
+      </c>
       <c r="N625" s="9"/>
-      <c r="O625" s="9"/>
+      <c r="O625" s="9" t="s">
+        <v>3353</v>
+      </c>
       <c r="P625" s="9"/>
       <c r="Q625" s="9"/>
       <c r="R625" s="9"/>
@@ -50105,8 +50437,12 @@
       <c r="AJ625" s="9"/>
     </row>
     <row r="626" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A626" s="9"/>
-      <c r="B626" s="9"/>
+      <c r="A626" s="9" t="s">
+        <v>3354</v>
+      </c>
+      <c r="B626" s="9" t="s">
+        <v>3355</v>
+      </c>
       <c r="C626" s="9"/>
       <c r="D626" s="9"/>
       <c r="E626" s="9"/>
@@ -50117,9 +50453,13 @@
       <c r="J626" s="9"/>
       <c r="K626" s="9"/>
       <c r="L626" s="9"/>
-      <c r="M626" s="9"/>
+      <c r="M626" s="9" t="s">
+        <v>3356</v>
+      </c>
       <c r="N626" s="9"/>
-      <c r="O626" s="9"/>
+      <c r="O626" s="9" t="s">
+        <v>3357</v>
+      </c>
       <c r="P626" s="9"/>
       <c r="Q626" s="9"/>
       <c r="R626" s="9"/>
@@ -58967,332 +59307,332 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>3290</v>
+        <v>3358</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3291</v>
+        <v>3359</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>3292</v>
+        <v>3360</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>3293</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>3294</v>
+        <v>3362</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3295</v>
+        <v>3363</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>3296</v>
+        <v>3364</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>3297</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>3298</v>
+        <v>3366</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3299</v>
+        <v>3367</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>3300</v>
+        <v>3368</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>3301</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>3302</v>
+        <v>3370</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3303</v>
+        <v>3371</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>3304</v>
+        <v>3372</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>3305</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>3306</v>
+        <v>3374</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>3307</v>
+        <v>3375</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>3308</v>
+        <v>3376</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>3309</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>3310</v>
+        <v>3378</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>3311</v>
+        <v>3379</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>3312</v>
+        <v>3380</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>3313</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>3314</v>
+        <v>3382</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>3315</v>
+        <v>3383</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>3316</v>
+        <v>3384</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>3317</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>3318</v>
+        <v>3386</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>3319</v>
+        <v>3387</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>3320</v>
+        <v>3388</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>3321</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>3322</v>
+        <v>3390</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>3323</v>
+        <v>3391</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>3324</v>
+        <v>3392</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>3325</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>3326</v>
+        <v>3394</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>3327</v>
+        <v>3395</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>3328</v>
+        <v>3396</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>3329</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>3330</v>
+        <v>3398</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>3331</v>
+        <v>3399</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>3332</v>
+        <v>3400</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>3333</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>3334</v>
+        <v>3402</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>3335</v>
+        <v>3403</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>3336</v>
+        <v>3404</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>3337</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>3338</v>
+        <v>3406</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>3339</v>
+        <v>3407</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>3340</v>
+        <v>3408</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>3341</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>3342</v>
+        <v>3410</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>3343</v>
+        <v>3411</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>3344</v>
+        <v>3412</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>3345</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>3346</v>
+        <v>3414</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3347</v>
+        <v>3415</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>3348</v>
+        <v>3416</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>3349</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>3350</v>
+        <v>3418</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>3351</v>
+        <v>3419</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>3352</v>
+        <v>3420</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>3353</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>3354</v>
+        <v>3422</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>3355</v>
+        <v>3423</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>3356</v>
+        <v>3424</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>3357</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>3358</v>
+        <v>3426</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>3359</v>
+        <v>3427</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>3360</v>
+        <v>3428</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>3361</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>3362</v>
+        <v>3430</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>3363</v>
+        <v>3431</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>3364</v>
+        <v>3432</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>3365</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>3366</v>
+        <v>3434</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>3367</v>
+        <v>3435</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>3368</v>
+        <v>3436</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>3369</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>3370</v>
+        <v>3438</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>3371</v>
+        <v>3439</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>3372</v>
+        <v>3440</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>3373</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>3374</v>
+        <v>3442</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>3375</v>
+        <v>3443</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>3376</v>
+        <v>3444</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>3377</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>3378</v>
+        <v>3446</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>3378</v>
+        <v>3446</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>3379</v>
+        <v>3447</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>3380</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>3381</v>
+        <v>3449</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>3382</v>
+        <v>3450</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>56</v>
@@ -59303,45 +59643,45 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>3383</v>
+        <v>3451</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>3384</v>
+        <v>3452</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>3385</v>
+        <v>3453</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>3386</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>3387</v>
+        <v>3455</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>3388</v>
+        <v>3456</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>3389</v>
+        <v>3457</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>3390</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>3391</v>
+        <v>3459</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>3392</v>
+        <v>3460</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>3393</v>
+        <v>3461</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>3394</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/TranslateData.xlsx
+++ b/TranslateData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3751" uniqueCount="3463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3763" uniqueCount="3475">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -10176,6 +10176,43 @@
   </si>
   <si>
     <t xml:space="preserve">?料</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FinderName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ファインダー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?找者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FinderTitle1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get to know your peers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">仲間を知ろう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">了解?的同伴。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FinderCheckMadmateSetting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of confirmed kills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">確認できるキル数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+??的?戮数量</t>
   </si>
   <si>
     <t xml:space="preserve">WelcomeMessage1</t>
@@ -21680,8 +21717,8 @@
   </sheetPr>
   <dimension ref="A1:AJ856"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A605" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A610" activeCellId="0" sqref="A610"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A608" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A627" activeCellId="0" sqref="A627"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -50483,8 +50520,12 @@
       <c r="AJ626" s="9"/>
     </row>
     <row r="627" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A627" s="9"/>
-      <c r="B627" s="9"/>
+      <c r="A627" s="9" t="s">
+        <v>3358</v>
+      </c>
+      <c r="B627" s="9" t="s">
+        <v>3359</v>
+      </c>
       <c r="C627" s="9"/>
       <c r="D627" s="9"/>
       <c r="E627" s="9"/>
@@ -50495,9 +50536,13 @@
       <c r="J627" s="9"/>
       <c r="K627" s="9"/>
       <c r="L627" s="9"/>
-      <c r="M627" s="9"/>
+      <c r="M627" s="9" t="s">
+        <v>3360</v>
+      </c>
       <c r="N627" s="9"/>
-      <c r="O627" s="9"/>
+      <c r="O627" s="9" t="s">
+        <v>3361</v>
+      </c>
       <c r="P627" s="9"/>
       <c r="Q627" s="9"/>
       <c r="R627" s="9"/>
@@ -50521,8 +50566,12 @@
       <c r="AJ627" s="9"/>
     </row>
     <row r="628" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A628" s="9"/>
-      <c r="B628" s="9"/>
+      <c r="A628" s="9" t="s">
+        <v>3362</v>
+      </c>
+      <c r="B628" s="9" t="s">
+        <v>3363</v>
+      </c>
       <c r="C628" s="9"/>
       <c r="D628" s="9"/>
       <c r="E628" s="9"/>
@@ -50533,9 +50582,13 @@
       <c r="J628" s="9"/>
       <c r="K628" s="9"/>
       <c r="L628" s="9"/>
-      <c r="M628" s="9"/>
+      <c r="M628" s="9" t="s">
+        <v>3364</v>
+      </c>
       <c r="N628" s="9"/>
-      <c r="O628" s="9"/>
+      <c r="O628" s="9" t="s">
+        <v>3365</v>
+      </c>
       <c r="P628" s="9"/>
       <c r="Q628" s="9"/>
       <c r="R628" s="9"/>
@@ -50559,8 +50612,12 @@
       <c r="AJ628" s="9"/>
     </row>
     <row r="629" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A629" s="9"/>
-      <c r="B629" s="9"/>
+      <c r="A629" s="9" t="s">
+        <v>3366</v>
+      </c>
+      <c r="B629" s="9" t="s">
+        <v>3367</v>
+      </c>
       <c r="C629" s="9"/>
       <c r="D629" s="9"/>
       <c r="E629" s="9"/>
@@ -50571,9 +50628,13 @@
       <c r="J629" s="9"/>
       <c r="K629" s="9"/>
       <c r="L629" s="9"/>
-      <c r="M629" s="9"/>
+      <c r="M629" s="9" t="s">
+        <v>3368</v>
+      </c>
       <c r="N629" s="9"/>
-      <c r="O629" s="9"/>
+      <c r="O629" s="10" t="s">
+        <v>3369</v>
+      </c>
       <c r="P629" s="9"/>
       <c r="Q629" s="9"/>
       <c r="R629" s="9"/>
@@ -59307,332 +59368,332 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>3358</v>
+        <v>3370</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3359</v>
+        <v>3371</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>3360</v>
+        <v>3372</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>3361</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>3362</v>
+        <v>3374</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3363</v>
+        <v>3375</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>3364</v>
+        <v>3376</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>3365</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>3366</v>
+        <v>3378</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3367</v>
+        <v>3379</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>3368</v>
+        <v>3380</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>3369</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>3370</v>
+        <v>3382</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3371</v>
+        <v>3383</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>3372</v>
+        <v>3384</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>3373</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>3374</v>
+        <v>3386</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>3375</v>
+        <v>3387</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>3376</v>
+        <v>3388</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>3377</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>3378</v>
+        <v>3390</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>3379</v>
+        <v>3391</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>3380</v>
+        <v>3392</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>3381</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>3382</v>
+        <v>3394</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>3383</v>
+        <v>3395</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>3384</v>
+        <v>3396</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>3385</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>3386</v>
+        <v>3398</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>3387</v>
+        <v>3399</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>3388</v>
+        <v>3400</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>3389</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>3390</v>
+        <v>3402</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>3391</v>
+        <v>3403</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>3392</v>
+        <v>3404</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>3393</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>3394</v>
+        <v>3406</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>3395</v>
+        <v>3407</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>3396</v>
+        <v>3408</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>3397</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>3398</v>
+        <v>3410</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>3399</v>
+        <v>3411</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>3400</v>
+        <v>3412</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>3401</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>3402</v>
+        <v>3414</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>3403</v>
+        <v>3415</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>3404</v>
+        <v>3416</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>3405</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>3406</v>
+        <v>3418</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>3407</v>
+        <v>3419</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>3408</v>
+        <v>3420</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>3409</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>3410</v>
+        <v>3422</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>3411</v>
+        <v>3423</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>3412</v>
+        <v>3424</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>3413</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>3414</v>
+        <v>3426</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3415</v>
+        <v>3427</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>3416</v>
+        <v>3428</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>3417</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>3418</v>
+        <v>3430</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>3419</v>
+        <v>3431</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>3420</v>
+        <v>3432</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>3421</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>3422</v>
+        <v>3434</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>3423</v>
+        <v>3435</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>3424</v>
+        <v>3436</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>3425</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>3426</v>
+        <v>3438</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>3427</v>
+        <v>3439</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>3428</v>
+        <v>3440</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>3429</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>3430</v>
+        <v>3442</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>3431</v>
+        <v>3443</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>3432</v>
+        <v>3444</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>3433</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>3434</v>
+        <v>3446</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>3435</v>
+        <v>3447</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>3436</v>
+        <v>3448</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>3437</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>3438</v>
+        <v>3450</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>3439</v>
+        <v>3451</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>3440</v>
+        <v>3452</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>3441</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>3442</v>
+        <v>3454</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>3443</v>
+        <v>3455</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>3444</v>
+        <v>3456</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>3445</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>3446</v>
+        <v>3458</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>3446</v>
+        <v>3458</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>3447</v>
+        <v>3459</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>3448</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>3449</v>
+        <v>3461</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>3450</v>
+        <v>3462</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>56</v>
@@ -59643,45 +59704,45 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>3451</v>
+        <v>3463</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>3452</v>
+        <v>3464</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>3453</v>
+        <v>3465</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>3454</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>3455</v>
+        <v>3467</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>3456</v>
+        <v>3468</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>3457</v>
+        <v>3469</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>3458</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>3459</v>
+        <v>3471</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>3460</v>
+        <v>3472</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>3461</v>
+        <v>3473</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>3462</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/TranslateData.xlsx
+++ b/TranslateData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="3265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3548" uniqueCount="3273">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -10076,6 +10076,30 @@
   </si>
   <si>
     <t xml:space="preserve">脱下</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhotographerName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photographer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">写真屋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">摄影师。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhotographerTitle1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's capture everyone on camera!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">みんなの姿をカメラに収めよう </t>
+  </si>
+  <si>
+    <t xml:space="preserve">用镜头捕捉每个人的身影!</t>
   </si>
   <si>
     <t xml:space="preserve">WelcomeMessage1</t>
@@ -21663,7 +21687,7 @@
   <dimension ref="A1:Q767"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A567" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A577" activeCellId="0" sqref="A577"/>
+      <selection pane="topLeft" activeCell="B580" activeCellId="0" sqref="B580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29697,8 +29721,34 @@
         <v>3159</v>
       </c>
     </row>
-    <row r="579" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="580" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="579" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A579" s="13" t="s">
+        <v>3160</v>
+      </c>
+      <c r="B579" s="13" t="s">
+        <v>3161</v>
+      </c>
+      <c r="M579" s="5" t="s">
+        <v>3162</v>
+      </c>
+      <c r="O579" s="0" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A580" s="13" t="s">
+        <v>3164</v>
+      </c>
+      <c r="B580" s="5" t="s">
+        <v>3165</v>
+      </c>
+      <c r="M580" s="20" t="s">
+        <v>3166</v>
+      </c>
+      <c r="O580" s="0" t="s">
+        <v>3167</v>
+      </c>
+    </row>
     <row r="581" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="582" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="583" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -30187,332 +30237,332 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>3160</v>
+        <v>3168</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3161</v>
+        <v>3169</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>3162</v>
+        <v>3170</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>3163</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>3164</v>
+        <v>3172</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3165</v>
+        <v>3173</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>3166</v>
+        <v>3174</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>3167</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>3168</v>
+        <v>3176</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3169</v>
+        <v>3177</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>3170</v>
+        <v>3178</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>3171</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>3172</v>
+        <v>3180</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3173</v>
+        <v>3181</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>3174</v>
+        <v>3182</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>3175</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>3176</v>
+        <v>3184</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>3177</v>
+        <v>3185</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>3178</v>
+        <v>3186</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>3179</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>3180</v>
+        <v>3188</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>3181</v>
+        <v>3189</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>3182</v>
+        <v>3190</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>3183</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>3184</v>
+        <v>3192</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>3185</v>
+        <v>3193</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>3186</v>
+        <v>3194</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>3187</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>3188</v>
+        <v>3196</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>3189</v>
+        <v>3197</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>3190</v>
+        <v>3198</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>3191</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>3192</v>
+        <v>3200</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>3193</v>
+        <v>3201</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>3194</v>
+        <v>3202</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>3195</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>3196</v>
+        <v>3204</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>3197</v>
+        <v>3205</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>3198</v>
+        <v>3206</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>3199</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>3200</v>
+        <v>3208</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>3201</v>
+        <v>3209</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>3202</v>
+        <v>3210</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>3203</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>3204</v>
+        <v>3212</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>3205</v>
+        <v>3213</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>3206</v>
+        <v>3214</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>3207</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>3208</v>
+        <v>3216</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>3209</v>
+        <v>3217</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>3210</v>
+        <v>3218</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>3211</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>3212</v>
+        <v>3220</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>3213</v>
+        <v>3221</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>3214</v>
+        <v>3222</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>3215</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>3216</v>
+        <v>3224</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3217</v>
+        <v>3225</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>3218</v>
+        <v>3226</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>3219</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>3220</v>
+        <v>3228</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>3221</v>
+        <v>3229</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>3222</v>
+        <v>3230</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>3223</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>3224</v>
+        <v>3232</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>3225</v>
+        <v>3233</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>3226</v>
+        <v>3234</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>3227</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>3228</v>
+        <v>3236</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>3229</v>
+        <v>3237</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>3230</v>
+        <v>3238</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>3231</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>3232</v>
+        <v>3240</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>3233</v>
+        <v>3241</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>3234</v>
+        <v>3242</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>3235</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>3236</v>
+        <v>3244</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>3237</v>
+        <v>3245</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>3238</v>
+        <v>3246</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>3239</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>3240</v>
+        <v>3248</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>3241</v>
+        <v>3249</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>3242</v>
+        <v>3250</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>3243</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>3244</v>
+        <v>3252</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>3245</v>
+        <v>3253</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>3246</v>
+        <v>3254</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>3247</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>3248</v>
+        <v>3256</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>3248</v>
+        <v>3256</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>3249</v>
+        <v>3257</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>3250</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>3251</v>
+        <v>3259</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>3252</v>
+        <v>3260</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>56</v>
@@ -30523,45 +30573,45 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>3253</v>
+        <v>3261</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>3254</v>
+        <v>3262</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>3255</v>
+        <v>3263</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>3256</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>3257</v>
+        <v>3265</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>3258</v>
+        <v>3266</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>3259</v>
+        <v>3267</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>3260</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>3261</v>
+        <v>3269</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>3262</v>
+        <v>3270</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>3263</v>
+        <v>3271</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>3264</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/TranslateData.xlsx
+++ b/TranslateData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3548" uniqueCount="3273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3571" uniqueCount="3295">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -10102,6 +10102,108 @@
     <t xml:space="preserve">用镜头捕捉每个人的身影!</t>
   </si>
   <si>
+    <t xml:space="preserve">PhotographerIsBonus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonuscooltime is valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ボーナスクールタイムが有効</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Photographer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">BonusCount</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of people to be photographed that will be Bonuscooltime.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ボーナスクールタイムになる撮影人数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">被拍到的人中，有多少人获得了奖励的上学时间。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Photographer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">BonusCoolTime</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonus Cool Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ボーナスクールタイム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奖励学校时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhotographerIsImpostorVision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impostor view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冒牌货的知名度。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhotographerIsNotification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notification of Shooting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">撮影の通知</t>
+  </si>
+  <si>
+    <t xml:space="preserve">拍摄的通知</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhotographerButtonName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photographing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">撮影</t>
+  </si>
+  <si>
+    <t xml:space="preserve">拍摄</t>
+  </si>
+  <si>
     <t xml:space="preserve">WelcomeMessage1</t>
   </si>
   <si>
@@ -10461,7 +10563,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -10549,6 +10651,18 @@
       <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="MS Gothic"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="MS Gothic"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -21686,8 +21800,8 @@
   </sheetPr>
   <dimension ref="A1:Q767"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A567" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B580" activeCellId="0" sqref="B580"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A575" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C586" activeCellId="0" sqref="C586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29749,12 +29863,124 @@
         <v>3167</v>
       </c>
     </row>
-    <row r="581" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="582" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="583" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="584" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="585" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="586" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="581" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A581" s="0" t="s">
+        <v>3168</v>
+      </c>
+      <c r="B581" s="0" t="s">
+        <v>3169</v>
+      </c>
+      <c r="C581" s="0"/>
+      <c r="D581" s="0"/>
+      <c r="E581" s="0"/>
+      <c r="F581" s="0"/>
+      <c r="G581" s="0"/>
+      <c r="H581" s="0"/>
+      <c r="I581" s="0"/>
+      <c r="J581" s="0"/>
+      <c r="K581" s="0"/>
+      <c r="L581" s="0"/>
+      <c r="M581" s="0" t="s">
+        <v>3170</v>
+      </c>
+      <c r="N581" s="0"/>
+      <c r="P581" s="0"/>
+      <c r="Q581" s="0"/>
+    </row>
+    <row r="582" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A582" s="0" t="s">
+        <v>3171</v>
+      </c>
+      <c r="B582" s="5" t="s">
+        <v>3172</v>
+      </c>
+      <c r="M582" s="5" t="s">
+        <v>3173</v>
+      </c>
+      <c r="O582" s="0" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="583" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A583" s="0" t="s">
+        <v>3175</v>
+      </c>
+      <c r="B583" s="5" t="s">
+        <v>3176</v>
+      </c>
+      <c r="M583" s="5" t="s">
+        <v>3177</v>
+      </c>
+      <c r="O583" s="0" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A584" s="0" t="s">
+        <v>3179</v>
+      </c>
+      <c r="B584" s="0" t="s">
+        <v>3180</v>
+      </c>
+      <c r="C584" s="0"/>
+      <c r="D584" s="0"/>
+      <c r="E584" s="0"/>
+      <c r="F584" s="0"/>
+      <c r="G584" s="0"/>
+      <c r="H584" s="0"/>
+      <c r="I584" s="0"/>
+      <c r="J584" s="0"/>
+      <c r="K584" s="0"/>
+      <c r="L584" s="0"/>
+      <c r="M584" s="0" t="s">
+        <v>1664</v>
+      </c>
+      <c r="N584" s="0"/>
+      <c r="O584" s="0" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="585" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A585" s="0" t="s">
+        <v>3182</v>
+      </c>
+      <c r="B585" s="0" t="s">
+        <v>3183</v>
+      </c>
+      <c r="C585" s="0"/>
+      <c r="D585" s="0"/>
+      <c r="E585" s="0"/>
+      <c r="F585" s="0"/>
+      <c r="G585" s="0"/>
+      <c r="H585" s="0"/>
+      <c r="I585" s="0"/>
+      <c r="J585" s="0"/>
+      <c r="K585" s="0"/>
+      <c r="L585" s="0"/>
+      <c r="M585" s="0" t="s">
+        <v>3184</v>
+      </c>
+      <c r="N585" s="0"/>
+      <c r="O585" s="0" t="s">
+        <v>3185</v>
+      </c>
+      <c r="P585" s="0"/>
+      <c r="Q585" s="0"/>
+    </row>
+    <row r="586" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A586" s="0" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B586" s="5" t="s">
+        <v>3187</v>
+      </c>
+      <c r="M586" s="5" t="s">
+        <v>3188</v>
+      </c>
+      <c r="O586" s="0" t="s">
+        <v>3189</v>
+      </c>
+    </row>
     <row r="587" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="588" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="589" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -30237,332 +30463,332 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>3168</v>
+        <v>3190</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3169</v>
+        <v>3191</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>3170</v>
+        <v>3192</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>3171</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>3172</v>
+        <v>3194</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3173</v>
+        <v>3195</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>3174</v>
+        <v>3196</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>3175</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>3176</v>
+        <v>3198</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3177</v>
+        <v>3199</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>3178</v>
+        <v>3200</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>3179</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>3180</v>
+        <v>3202</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3181</v>
+        <v>3203</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>3182</v>
+        <v>3204</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>3183</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>3184</v>
+        <v>3206</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>3185</v>
+        <v>3207</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>3186</v>
+        <v>3208</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>3187</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>3188</v>
+        <v>3210</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>3189</v>
+        <v>3211</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>3190</v>
+        <v>3212</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>3191</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>3192</v>
+        <v>3214</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>3193</v>
+        <v>3215</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>3194</v>
+        <v>3216</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>3195</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>3196</v>
+        <v>3218</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>3197</v>
+        <v>3219</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>3198</v>
+        <v>3220</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>3199</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>3200</v>
+        <v>3222</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>3201</v>
+        <v>3223</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>3202</v>
+        <v>3224</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>3203</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>3204</v>
+        <v>3226</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>3205</v>
+        <v>3227</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>3206</v>
+        <v>3228</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>3207</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>3208</v>
+        <v>3230</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>3209</v>
+        <v>3231</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>3210</v>
+        <v>3232</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>3211</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>3212</v>
+        <v>3234</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>3213</v>
+        <v>3235</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>3214</v>
+        <v>3236</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>3215</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>3216</v>
+        <v>3238</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>3217</v>
+        <v>3239</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>3218</v>
+        <v>3240</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>3219</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>3220</v>
+        <v>3242</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>3221</v>
+        <v>3243</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>3222</v>
+        <v>3244</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>3223</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>3224</v>
+        <v>3246</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3225</v>
+        <v>3247</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>3226</v>
+        <v>3248</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>3227</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>3228</v>
+        <v>3250</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>3229</v>
+        <v>3251</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>3230</v>
+        <v>3252</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>3231</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>3232</v>
+        <v>3254</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>3233</v>
+        <v>3255</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>3234</v>
+        <v>3256</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>3235</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>3236</v>
+        <v>3258</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>3237</v>
+        <v>3259</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>3238</v>
+        <v>3260</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>3239</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>3240</v>
+        <v>3262</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>3241</v>
+        <v>3263</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>3242</v>
+        <v>3264</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>3243</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>3244</v>
+        <v>3266</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>3245</v>
+        <v>3267</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>3246</v>
+        <v>3268</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>3247</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>3248</v>
+        <v>3270</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>3249</v>
+        <v>3271</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>3250</v>
+        <v>3272</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>3251</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>3252</v>
+        <v>3274</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>3253</v>
+        <v>3275</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>3254</v>
+        <v>3276</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>3255</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>3256</v>
+        <v>3278</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>3256</v>
+        <v>3278</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>3257</v>
+        <v>3279</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>3258</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>3259</v>
+        <v>3281</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>3260</v>
+        <v>3282</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>56</v>
@@ -30573,45 +30799,45 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>3261</v>
+        <v>3283</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>3262</v>
+        <v>3284</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>3263</v>
+        <v>3285</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>3264</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>3265</v>
+        <v>3287</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>3266</v>
+        <v>3288</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>3267</v>
+        <v>3289</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>3268</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>3269</v>
+        <v>3291</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>3270</v>
+        <v>3292</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>3271</v>
+        <v>3293</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>3272</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/TranslateData.xlsx
+++ b/TranslateData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3763" uniqueCount="3475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3790" uniqueCount="3501">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -10213,6 +10213,84 @@
   <si>
     <t xml:space="preserve">
 ??的?戮数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhotographerName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photographer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">写真屋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?影?。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhotographerTitle1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's capture everyone on camera!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">みんなの姿をカメラに収めよう </t>
+  </si>
+  <si>
+    <t xml:space="preserve">用??捕捉?个人的身影!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhotographerIsBonus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonuscooltime is valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ボーナスクールタイムが有効</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhotographerBonusCount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of people to be photographed that will be Bonuscooltime.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ボーナスクールタイムになる撮影人数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">被拍到的人中，有多少人?得了?励的上学??。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhotographerBonusCoolTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonus Cool Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ボーナスクールタイム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?励学校??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhotographerIsImpostorVision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impostor view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冒牌?的知名度。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhotographerIsNotification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notification of Shooting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">撮影の通知</t>
+  </si>
+  <si>
+    <t xml:space="preserve">拍?的通知</t>
   </si>
   <si>
     <t xml:space="preserve">WelcomeMessage1</t>
@@ -21717,8 +21795,8 @@
   </sheetPr>
   <dimension ref="A1:AJ856"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A608" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A627" activeCellId="0" sqref="A627"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A626" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A630" activeCellId="0" sqref="A630"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -50658,8 +50736,12 @@
       <c r="AJ629" s="9"/>
     </row>
     <row r="630" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A630" s="9"/>
-      <c r="B630" s="9"/>
+      <c r="A630" s="9" t="s">
+        <v>3370</v>
+      </c>
+      <c r="B630" s="9" t="s">
+        <v>3371</v>
+      </c>
       <c r="C630" s="9"/>
       <c r="D630" s="9"/>
       <c r="E630" s="9"/>
@@ -50670,9 +50752,13 @@
       <c r="J630" s="9"/>
       <c r="K630" s="9"/>
       <c r="L630" s="9"/>
-      <c r="M630" s="9"/>
+      <c r="M630" s="9" t="s">
+        <v>3372</v>
+      </c>
       <c r="N630" s="9"/>
-      <c r="O630" s="9"/>
+      <c r="O630" s="9" t="s">
+        <v>3373</v>
+      </c>
       <c r="P630" s="9"/>
       <c r="Q630" s="9"/>
       <c r="R630" s="9"/>
@@ -50696,8 +50782,12 @@
       <c r="AJ630" s="9"/>
     </row>
     <row r="631" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A631" s="9"/>
-      <c r="B631" s="9"/>
+      <c r="A631" s="9" t="s">
+        <v>3374</v>
+      </c>
+      <c r="B631" s="9" t="s">
+        <v>3375</v>
+      </c>
       <c r="C631" s="9"/>
       <c r="D631" s="9"/>
       <c r="E631" s="9"/>
@@ -50708,9 +50798,13 @@
       <c r="J631" s="9"/>
       <c r="K631" s="9"/>
       <c r="L631" s="9"/>
-      <c r="M631" s="9"/>
+      <c r="M631" s="9" t="s">
+        <v>3376</v>
+      </c>
       <c r="N631" s="9"/>
-      <c r="O631" s="9"/>
+      <c r="O631" s="9" t="s">
+        <v>3377</v>
+      </c>
       <c r="P631" s="9"/>
       <c r="Q631" s="9"/>
       <c r="R631" s="9"/>
@@ -50734,8 +50828,12 @@
       <c r="AJ631" s="9"/>
     </row>
     <row r="632" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A632" s="9"/>
-      <c r="B632" s="9"/>
+      <c r="A632" s="9" t="s">
+        <v>3378</v>
+      </c>
+      <c r="B632" s="9" t="s">
+        <v>3379</v>
+      </c>
       <c r="C632" s="9"/>
       <c r="D632" s="9"/>
       <c r="E632" s="9"/>
@@ -50746,7 +50844,9 @@
       <c r="J632" s="9"/>
       <c r="K632" s="9"/>
       <c r="L632" s="9"/>
-      <c r="M632" s="9"/>
+      <c r="M632" s="9" t="s">
+        <v>3380</v>
+      </c>
       <c r="N632" s="9"/>
       <c r="O632" s="9"/>
       <c r="P632" s="9"/>
@@ -50772,8 +50872,12 @@
       <c r="AJ632" s="9"/>
     </row>
     <row r="633" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A633" s="9"/>
-      <c r="B633" s="9"/>
+      <c r="A633" s="9" t="s">
+        <v>3381</v>
+      </c>
+      <c r="B633" s="9" t="s">
+        <v>3382</v>
+      </c>
       <c r="C633" s="9"/>
       <c r="D633" s="9"/>
       <c r="E633" s="9"/>
@@ -50784,9 +50888,13 @@
       <c r="J633" s="9"/>
       <c r="K633" s="9"/>
       <c r="L633" s="9"/>
-      <c r="M633" s="9"/>
+      <c r="M633" s="9" t="s">
+        <v>3383</v>
+      </c>
       <c r="N633" s="9"/>
-      <c r="O633" s="9"/>
+      <c r="O633" s="9" t="s">
+        <v>3384</v>
+      </c>
       <c r="P633" s="9"/>
       <c r="Q633" s="9"/>
       <c r="R633" s="9"/>
@@ -50810,8 +50918,12 @@
       <c r="AJ633" s="9"/>
     </row>
     <row r="634" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A634" s="9"/>
-      <c r="B634" s="9"/>
+      <c r="A634" s="9" t="s">
+        <v>3385</v>
+      </c>
+      <c r="B634" s="9" t="s">
+        <v>3386</v>
+      </c>
       <c r="C634" s="9"/>
       <c r="D634" s="9"/>
       <c r="E634" s="9"/>
@@ -50822,9 +50934,13 @@
       <c r="J634" s="9"/>
       <c r="K634" s="9"/>
       <c r="L634" s="9"/>
-      <c r="M634" s="9"/>
+      <c r="M634" s="9" t="s">
+        <v>3387</v>
+      </c>
       <c r="N634" s="9"/>
-      <c r="O634" s="9"/>
+      <c r="O634" s="9" t="s">
+        <v>3388</v>
+      </c>
       <c r="P634" s="9"/>
       <c r="Q634" s="9"/>
       <c r="R634" s="9"/>
@@ -50848,8 +50964,12 @@
       <c r="AJ634" s="9"/>
     </row>
     <row r="635" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A635" s="9"/>
-      <c r="B635" s="9"/>
+      <c r="A635" s="9" t="s">
+        <v>3389</v>
+      </c>
+      <c r="B635" s="9" t="s">
+        <v>3390</v>
+      </c>
       <c r="C635" s="9"/>
       <c r="D635" s="9"/>
       <c r="E635" s="9"/>
@@ -50860,9 +50980,13 @@
       <c r="J635" s="9"/>
       <c r="K635" s="9"/>
       <c r="L635" s="9"/>
-      <c r="M635" s="9"/>
+      <c r="M635" s="9" t="s">
+        <v>1664</v>
+      </c>
       <c r="N635" s="9"/>
-      <c r="O635" s="9"/>
+      <c r="O635" s="9" t="s">
+        <v>3391</v>
+      </c>
       <c r="P635" s="9"/>
       <c r="Q635" s="9"/>
       <c r="R635" s="9"/>
@@ -50886,8 +51010,12 @@
       <c r="AJ635" s="9"/>
     </row>
     <row r="636" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A636" s="9"/>
-      <c r="B636" s="9"/>
+      <c r="A636" s="9" t="s">
+        <v>3392</v>
+      </c>
+      <c r="B636" s="9" t="s">
+        <v>3393</v>
+      </c>
       <c r="C636" s="9"/>
       <c r="D636" s="9"/>
       <c r="E636" s="9"/>
@@ -50898,9 +51026,13 @@
       <c r="J636" s="9"/>
       <c r="K636" s="9"/>
       <c r="L636" s="9"/>
-      <c r="M636" s="9"/>
+      <c r="M636" s="9" t="s">
+        <v>3394</v>
+      </c>
       <c r="N636" s="9"/>
-      <c r="O636" s="9"/>
+      <c r="O636" s="9" t="s">
+        <v>3395</v>
+      </c>
       <c r="P636" s="9"/>
       <c r="Q636" s="9"/>
       <c r="R636" s="9"/>
@@ -59368,332 +59500,332 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>3370</v>
+        <v>3396</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3371</v>
+        <v>3397</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>3372</v>
+        <v>3398</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>3373</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>3374</v>
+        <v>3400</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3375</v>
+        <v>3401</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>3376</v>
+        <v>3402</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>3377</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>3378</v>
+        <v>3404</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3379</v>
+        <v>3405</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>3380</v>
+        <v>3406</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>3381</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>3382</v>
+        <v>3408</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3383</v>
+        <v>3409</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>3384</v>
+        <v>3410</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>3385</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>3386</v>
+        <v>3412</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>3387</v>
+        <v>3413</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>3388</v>
+        <v>3414</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>3389</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>3390</v>
+        <v>3416</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>3391</v>
+        <v>3417</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>3392</v>
+        <v>3418</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>3393</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>3394</v>
+        <v>3420</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>3395</v>
+        <v>3421</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>3396</v>
+        <v>3422</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>3397</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>3398</v>
+        <v>3424</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>3399</v>
+        <v>3425</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>3400</v>
+        <v>3426</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>3401</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>3402</v>
+        <v>3428</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>3403</v>
+        <v>3429</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>3404</v>
+        <v>3430</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>3405</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>3406</v>
+        <v>3432</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>3407</v>
+        <v>3433</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>3408</v>
+        <v>3434</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>3409</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>3410</v>
+        <v>3436</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>3411</v>
+        <v>3437</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>3412</v>
+        <v>3438</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>3413</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>3414</v>
+        <v>3440</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>3415</v>
+        <v>3441</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>3416</v>
+        <v>3442</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>3417</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>3418</v>
+        <v>3444</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>3419</v>
+        <v>3445</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>3420</v>
+        <v>3446</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>3421</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>3422</v>
+        <v>3448</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>3423</v>
+        <v>3449</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>3424</v>
+        <v>3450</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>3425</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>3426</v>
+        <v>3452</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3427</v>
+        <v>3453</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>3428</v>
+        <v>3454</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>3429</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>3430</v>
+        <v>3456</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>3431</v>
+        <v>3457</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>3432</v>
+        <v>3458</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>3433</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>3434</v>
+        <v>3460</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>3435</v>
+        <v>3461</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>3436</v>
+        <v>3462</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>3437</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>3438</v>
+        <v>3464</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>3439</v>
+        <v>3465</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>3440</v>
+        <v>3466</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>3441</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>3442</v>
+        <v>3468</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>3443</v>
+        <v>3469</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>3444</v>
+        <v>3470</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>3445</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>3446</v>
+        <v>3472</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>3447</v>
+        <v>3473</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>3448</v>
+        <v>3474</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>3450</v>
+        <v>3476</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>3451</v>
+        <v>3477</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>3452</v>
+        <v>3478</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>3453</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>3454</v>
+        <v>3480</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>3455</v>
+        <v>3481</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>3456</v>
+        <v>3482</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>3457</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>3458</v>
+        <v>3484</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>3458</v>
+        <v>3484</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>3459</v>
+        <v>3485</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>3460</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>3461</v>
+        <v>3487</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>3462</v>
+        <v>3488</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>56</v>
@@ -59704,45 +59836,45 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>3463</v>
+        <v>3489</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>3464</v>
+        <v>3490</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>3465</v>
+        <v>3491</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>3466</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>3467</v>
+        <v>3493</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>3468</v>
+        <v>3494</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>3469</v>
+        <v>3495</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>3470</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>3471</v>
+        <v>3497</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>3472</v>
+        <v>3498</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>3473</v>
+        <v>3499</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>3474</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/TranslateData.xlsx
+++ b/TranslateData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="3265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3548" uniqueCount="3273">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -5969,6 +5969,30 @@
   </si>
   <si>
     <t xml:space="preserve">随时查看生命监测装置来确认船员的生死</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DoctorChargeTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charging time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">充電時間</t>
+  </si>
+  <si>
+    <t xml:space="preserve">充电时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DoctorUseTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time until charge runs out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">充電が切れるまでの時間</t>
+  </si>
+  <si>
+    <t xml:space="preserve">直到充电耗尽的时间</t>
   </si>
   <si>
     <t xml:space="preserve">DoctorVitalName</t>
@@ -10606,6 +10630,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -10620,10 +10648,6 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -21660,10 +21684,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q767"/>
+  <dimension ref="A1:Q769"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A567" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A577" activeCellId="0" sqref="A577"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A243" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B252" activeCellId="0" sqref="B252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25216,7 +25240,7 @@
       </c>
     </row>
     <row r="252" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A252" s="6" t="s">
+      <c r="A252" s="9" t="s">
         <v>1940</v>
       </c>
       <c r="B252" s="6" t="s">
@@ -25230,7 +25254,7 @@
       </c>
     </row>
     <row r="253" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A253" s="6" t="s">
+      <c r="A253" s="9" t="s">
         <v>1944</v>
       </c>
       <c r="B253" s="6" t="s">
@@ -25391,35 +25415,35 @@
         <v>1989</v>
       </c>
       <c r="M264" s="6" t="s">
-        <v>1798</v>
+        <v>1990</v>
       </c>
       <c r="O264" s="7" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="6" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="M265" s="6" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="O265" s="7" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="6" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="M266" s="6" t="s">
-        <v>1997</v>
+        <v>1798</v>
       </c>
       <c r="O266" s="7" t="s">
         <v>1998</v>
@@ -25444,52 +25468,52 @@
         <v>2003</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>859</v>
+        <v>2004</v>
       </c>
       <c r="M268" s="6" t="s">
-        <v>860</v>
+        <v>2005</v>
       </c>
       <c r="O268" s="7" t="s">
-        <v>2004</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="6" t="s">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>855</v>
+        <v>2008</v>
       </c>
       <c r="M269" s="6" t="s">
-        <v>856</v>
+        <v>2009</v>
       </c>
       <c r="O269" s="7" t="s">
-        <v>2006</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="6" t="s">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>2008</v>
+        <v>859</v>
       </c>
       <c r="M270" s="6" t="s">
-        <v>2009</v>
+        <v>860</v>
       </c>
       <c r="O270" s="7" t="s">
-        <v>2010</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="6" t="s">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>2012</v>
+        <v>855</v>
       </c>
       <c r="M271" s="6" t="s">
-        <v>2013</v>
+        <v>856</v>
       </c>
       <c r="O271" s="7" t="s">
         <v>2014</v>
@@ -25514,164 +25538,164 @@
         <v>2019</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>1598</v>
+        <v>2020</v>
       </c>
       <c r="M273" s="6" t="s">
-        <v>1599</v>
+        <v>2021</v>
       </c>
       <c r="O273" s="7" t="s">
-        <v>2020</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="6" t="s">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="M274" s="6" t="s">
-        <v>1603</v>
+        <v>2025</v>
       </c>
       <c r="O274" s="7" t="s">
-        <v>590</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="6" t="s">
-        <v>2023</v>
+        <v>2027</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>2024</v>
+        <v>1598</v>
       </c>
       <c r="M275" s="6" t="s">
-        <v>2025</v>
+        <v>1599</v>
       </c>
       <c r="O275" s="7" t="s">
-        <v>593</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="6" t="s">
-        <v>2026</v>
+        <v>2029</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>2027</v>
+        <v>2030</v>
       </c>
       <c r="M276" s="6" t="s">
-        <v>2028</v>
+        <v>1603</v>
       </c>
       <c r="O276" s="7" t="s">
-        <v>2029</v>
+        <v>590</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="6" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="M277" s="6" t="s">
-        <v>1758</v>
+        <v>2033</v>
       </c>
       <c r="O277" s="7" t="s">
-        <v>2032</v>
+        <v>593</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
-        <v>2033</v>
-      </c>
-      <c r="B278" s="7" t="s">
         <v>2034</v>
       </c>
-      <c r="M278" s="7" t="s">
+      <c r="B278" s="6" t="s">
         <v>2035</v>
       </c>
+      <c r="M278" s="6" t="s">
+        <v>2036</v>
+      </c>
       <c r="O278" s="7" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="6" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="M279" s="6" t="s">
-        <v>1274</v>
+        <v>1758</v>
       </c>
       <c r="O279" s="7" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="6" t="s">
-        <v>2040</v>
-      </c>
-      <c r="B280" s="6" t="s">
         <v>2041</v>
       </c>
-      <c r="M280" s="6" t="s">
-        <v>856</v>
+      <c r="B280" s="7" t="s">
+        <v>2042</v>
+      </c>
+      <c r="M280" s="7" t="s">
+        <v>2043</v>
       </c>
       <c r="O280" s="7" t="s">
-        <v>2042</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c r="M281" s="6" t="s">
-        <v>1664</v>
+        <v>1274</v>
       </c>
       <c r="O281" s="7" t="s">
-        <v>2045</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="6" t="s">
-        <v>2046</v>
+        <v>2048</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>2047</v>
+        <v>2049</v>
       </c>
       <c r="M282" s="6" t="s">
-        <v>1417</v>
+        <v>856</v>
       </c>
       <c r="O282" s="7" t="s">
-        <v>2048</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="6" t="s">
-        <v>2049</v>
+        <v>2051</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>2050</v>
+        <v>2052</v>
       </c>
       <c r="M283" s="6" t="s">
-        <v>2051</v>
+        <v>1664</v>
       </c>
       <c r="O283" s="7" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="M284" s="6" t="s">
-        <v>2055</v>
+        <v>1417</v>
       </c>
       <c r="O284" s="7" t="s">
         <v>2056</v>
@@ -25920,35 +25944,35 @@
         <v>2125</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>1745</v>
+        <v>2126</v>
       </c>
       <c r="M302" s="6" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="O302" s="7" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="6" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="M303" s="6" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="O303" s="7" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="6" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>2133</v>
+        <v>1745</v>
       </c>
       <c r="M304" s="6" t="s">
         <v>2134</v>
@@ -26217,35 +26241,35 @@
         <v>2209</v>
       </c>
       <c r="M323" s="6" t="s">
-        <v>1186</v>
+        <v>2210</v>
       </c>
       <c r="O323" s="7" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="6" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="M324" s="6" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="O324" s="7" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="6" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="M325" s="6" t="s">
-        <v>2217</v>
+        <v>1186</v>
       </c>
       <c r="O325" s="7" t="s">
         <v>2218</v>
@@ -26637,35 +26661,35 @@
         <v>2328</v>
       </c>
       <c r="M353" s="6" t="s">
-        <v>1186</v>
+        <v>2329</v>
       </c>
       <c r="O353" s="7" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="6" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="M354" s="6" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="O354" s="7" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="6" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="M355" s="6" t="s">
-        <v>2336</v>
+        <v>1186</v>
       </c>
       <c r="O355" s="7" t="s">
         <v>2337</v>
@@ -26704,91 +26728,91 @@
         <v>2346</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>1649</v>
+        <v>2347</v>
       </c>
       <c r="M358" s="6" t="s">
-        <v>1650</v>
+        <v>2348</v>
       </c>
       <c r="O358" s="7" t="s">
-        <v>2347</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="6" t="s">
-        <v>2348</v>
+        <v>2350</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>859</v>
+        <v>2351</v>
       </c>
       <c r="M359" s="6" t="s">
-        <v>1274</v>
+        <v>2352</v>
       </c>
       <c r="O359" s="7" t="s">
-        <v>2349</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="6" t="s">
-        <v>2350</v>
+        <v>2354</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>1659</v>
+        <v>1649</v>
       </c>
       <c r="M360" s="6" t="s">
-        <v>1660</v>
+        <v>1650</v>
       </c>
       <c r="O360" s="7" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="6" t="s">
-        <v>2352</v>
+        <v>2356</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>1663</v>
+        <v>859</v>
       </c>
       <c r="M361" s="6" t="s">
-        <v>1664</v>
+        <v>1274</v>
       </c>
       <c r="O361" s="7" t="s">
-        <v>2353</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="6" t="s">
-        <v>2354</v>
+        <v>2358</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>1653</v>
+        <v>1659</v>
       </c>
       <c r="M362" s="6" t="s">
-        <v>2355</v>
+        <v>1660</v>
       </c>
       <c r="O362" s="7" t="s">
-        <v>2356</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A363" s="6" t="s">
-        <v>2357</v>
+        <v>2360</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>2358</v>
+        <v>1663</v>
       </c>
       <c r="M363" s="6" t="s">
-        <v>2359</v>
+        <v>1664</v>
       </c>
       <c r="O363" s="7" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A364" s="6" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>2362</v>
+        <v>1653</v>
       </c>
       <c r="M364" s="6" t="s">
         <v>2363</v>
@@ -26821,7 +26845,7 @@
       <c r="M366" s="6" t="s">
         <v>2371</v>
       </c>
-      <c r="O366" s="6" t="s">
+      <c r="O366" s="7" t="s">
         <v>2372</v>
       </c>
     </row>
@@ -26849,7 +26873,7 @@
       <c r="M368" s="6" t="s">
         <v>2379</v>
       </c>
-      <c r="O368" s="7" t="s">
+      <c r="O368" s="6" t="s">
         <v>2380</v>
       </c>
     </row>
@@ -26863,7 +26887,7 @@
       <c r="M369" s="6" t="s">
         <v>2383</v>
       </c>
-      <c r="O369" s="6" t="s">
+      <c r="O369" s="7" t="s">
         <v>2384</v>
       </c>
     </row>
@@ -26877,7 +26901,7 @@
       <c r="M370" s="6" t="s">
         <v>2387</v>
       </c>
-      <c r="O370" s="6" t="s">
+      <c r="O370" s="7" t="s">
         <v>2388</v>
       </c>
     </row>
@@ -26891,7 +26915,7 @@
       <c r="M371" s="6" t="s">
         <v>2391</v>
       </c>
-      <c r="O371" s="7" t="s">
+      <c r="O371" s="6" t="s">
         <v>2392</v>
       </c>
     </row>
@@ -26905,7 +26929,7 @@
       <c r="M372" s="6" t="s">
         <v>2395</v>
       </c>
-      <c r="O372" s="7" t="s">
+      <c r="O372" s="6" t="s">
         <v>2396</v>
       </c>
     </row>
@@ -26917,80 +26941,80 @@
         <v>2398</v>
       </c>
       <c r="M373" s="6" t="s">
-        <v>1274</v>
+        <v>2399</v>
       </c>
       <c r="O373" s="7" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A374" s="6" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>1663</v>
+        <v>2402</v>
       </c>
       <c r="M374" s="6" t="s">
-        <v>1664</v>
+        <v>2403</v>
       </c>
       <c r="O374" s="7" t="s">
-        <v>2401</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A375" s="6" t="s">
-        <v>2402</v>
+        <v>2405</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>2403</v>
+        <v>2406</v>
       </c>
       <c r="M375" s="6" t="s">
-        <v>2404</v>
-      </c>
-      <c r="O375" s="6" t="s">
-        <v>2405</v>
+        <v>1274</v>
+      </c>
+      <c r="O375" s="7" t="s">
+        <v>2407</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A376" s="6" t="s">
-        <v>2406</v>
+        <v>2408</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>2362</v>
+        <v>1663</v>
       </c>
       <c r="M376" s="6" t="s">
-        <v>2407</v>
+        <v>1664</v>
       </c>
       <c r="O376" s="7" t="s">
-        <v>2364</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A377" s="6" t="s">
-        <v>2408</v>
+        <v>2410</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>2409</v>
+        <v>2411</v>
       </c>
       <c r="M377" s="6" t="s">
-        <v>2410</v>
-      </c>
-      <c r="O377" s="7" t="s">
-        <v>2411</v>
+        <v>2412</v>
+      </c>
+      <c r="O377" s="6" t="s">
+        <v>2413</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A378" s="6" t="s">
-        <v>2412</v>
+        <v>2414</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>2413</v>
+        <v>2370</v>
       </c>
       <c r="M378" s="6" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="O378" s="7" t="s">
-        <v>2415</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27017,7 +27041,7 @@
       <c r="M380" s="6" t="s">
         <v>2422</v>
       </c>
-      <c r="O380" s="6" t="s">
+      <c r="O380" s="7" t="s">
         <v>2423</v>
       </c>
     </row>
@@ -27045,7 +27069,7 @@
       <c r="M382" s="6" t="s">
         <v>2430</v>
       </c>
-      <c r="O382" s="7" t="s">
+      <c r="O382" s="6" t="s">
         <v>2431</v>
       </c>
     </row>
@@ -27068,40 +27092,40 @@
         <v>2436</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>1598</v>
+        <v>2437</v>
       </c>
       <c r="M384" s="6" t="s">
-        <v>1599</v>
+        <v>2438</v>
       </c>
       <c r="O384" s="7" t="s">
-        <v>2437</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="6" t="s">
-        <v>2438</v>
+        <v>2440</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>2439</v>
+        <v>2441</v>
       </c>
       <c r="M385" s="6" t="s">
-        <v>2440</v>
+        <v>2442</v>
       </c>
       <c r="O385" s="7" t="s">
-        <v>2441</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="6" t="s">
-        <v>2442</v>
+        <v>2444</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>2443</v>
+        <v>1598</v>
       </c>
       <c r="M386" s="6" t="s">
-        <v>2444</v>
-      </c>
-      <c r="O386" s="6" t="s">
+        <v>1599</v>
+      </c>
+      <c r="O386" s="7" t="s">
         <v>2445</v>
       </c>
     </row>
@@ -27129,7 +27153,7 @@
       <c r="M388" s="6" t="s">
         <v>2452</v>
       </c>
-      <c r="O388" s="7" t="s">
+      <c r="O388" s="6" t="s">
         <v>2453</v>
       </c>
     </row>
@@ -27143,7 +27167,7 @@
       <c r="M389" s="6" t="s">
         <v>2456</v>
       </c>
-      <c r="O389" s="6" t="s">
+      <c r="O389" s="7" t="s">
         <v>2457</v>
       </c>
     </row>
@@ -27171,7 +27195,7 @@
       <c r="M391" s="6" t="s">
         <v>2464</v>
       </c>
-      <c r="O391" s="7" t="s">
+      <c r="O391" s="6" t="s">
         <v>2465</v>
       </c>
     </row>
@@ -27199,7 +27223,7 @@
       <c r="M393" s="6" t="s">
         <v>2472</v>
       </c>
-      <c r="O393" s="6" t="s">
+      <c r="O393" s="7" t="s">
         <v>2473</v>
       </c>
     </row>
@@ -27227,7 +27251,7 @@
       <c r="M395" s="6" t="s">
         <v>2480</v>
       </c>
-      <c r="O395" s="7" t="s">
+      <c r="O395" s="6" t="s">
         <v>2481</v>
       </c>
     </row>
@@ -27241,7 +27265,7 @@
       <c r="M396" s="6" t="s">
         <v>2484</v>
       </c>
-      <c r="O396" s="6" t="s">
+      <c r="O396" s="7" t="s">
         <v>2485</v>
       </c>
     </row>
@@ -27269,7 +27293,7 @@
       <c r="M398" s="6" t="s">
         <v>2492</v>
       </c>
-      <c r="O398" s="7" t="s">
+      <c r="O398" s="6" t="s">
         <v>2493</v>
       </c>
     </row>
@@ -27283,7 +27307,7 @@
       <c r="M399" s="6" t="s">
         <v>2496</v>
       </c>
-      <c r="O399" s="6" t="s">
+      <c r="O399" s="7" t="s">
         <v>2497</v>
       </c>
     </row>
@@ -27311,7 +27335,7 @@
       <c r="M401" s="6" t="s">
         <v>2504</v>
       </c>
-      <c r="O401" s="7" t="s">
+      <c r="O401" s="6" t="s">
         <v>2505</v>
       </c>
     </row>
@@ -27325,7 +27349,7 @@
       <c r="M402" s="6" t="s">
         <v>2508</v>
       </c>
-      <c r="O402" s="6" t="s">
+      <c r="O402" s="7" t="s">
         <v>2509</v>
       </c>
     </row>
@@ -27353,7 +27377,7 @@
       <c r="M404" s="6" t="s">
         <v>2516</v>
       </c>
-      <c r="O404" s="7" t="s">
+      <c r="O404" s="6" t="s">
         <v>2517</v>
       </c>
     </row>
@@ -27367,33 +27391,33 @@
       <c r="M405" s="6" t="s">
         <v>2520</v>
       </c>
-      <c r="O405" s="6" t="s">
-        <v>2520</v>
+      <c r="O405" s="7" t="s">
+        <v>2521</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A406" s="6" t="s">
-        <v>2521</v>
+        <v>2522</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="M406" s="6" t="s">
-        <v>2523</v>
+        <v>2524</v>
       </c>
       <c r="O406" s="7" t="s">
-        <v>2524</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A407" s="6" t="s">
-        <v>2525</v>
+        <v>2526</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>2526</v>
+        <v>2527</v>
       </c>
       <c r="M407" s="6" t="s">
-        <v>2527</v>
+        <v>2528</v>
       </c>
       <c r="O407" s="6" t="s">
         <v>2528</v>
@@ -27418,38 +27442,38 @@
         <v>2533</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>619</v>
+        <v>2534</v>
       </c>
       <c r="M409" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="O409" s="7" t="s">
-        <v>2534</v>
+        <v>2535</v>
+      </c>
+      <c r="O409" s="6" t="s">
+        <v>2536</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A410" s="6" t="s">
-        <v>2535</v>
+        <v>2537</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>2536</v>
+        <v>2538</v>
       </c>
       <c r="M410" s="6" t="s">
-        <v>2537</v>
+        <v>2539</v>
       </c>
       <c r="O410" s="7" t="s">
-        <v>2538</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A411" s="6" t="s">
-        <v>2539</v>
+        <v>2541</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>2540</v>
+        <v>619</v>
       </c>
       <c r="M411" s="6" t="s">
-        <v>2541</v>
+        <v>620</v>
       </c>
       <c r="O411" s="7" t="s">
         <v>2542</v>
@@ -27507,7 +27531,7 @@
       <c r="M415" s="6" t="s">
         <v>2557</v>
       </c>
-      <c r="O415" s="6" t="s">
+      <c r="O415" s="7" t="s">
         <v>2558</v>
       </c>
     </row>
@@ -27544,41 +27568,41 @@
         <v>2567</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>2530</v>
+        <v>2568</v>
       </c>
       <c r="M418" s="6" t="s">
-        <v>2531</v>
+        <v>2569</v>
       </c>
       <c r="O418" s="7" t="s">
-        <v>2532</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="6" t="s">
-        <v>2568</v>
+        <v>2571</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>2569</v>
+        <v>2572</v>
       </c>
       <c r="M419" s="6" t="s">
-        <v>2570</v>
-      </c>
-      <c r="O419" s="7" t="s">
-        <v>2571</v>
+        <v>2573</v>
+      </c>
+      <c r="O419" s="6" t="s">
+        <v>2574</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A420" s="6" t="s">
-        <v>2572</v>
+        <v>2575</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>2573</v>
+        <v>2538</v>
       </c>
       <c r="M420" s="6" t="s">
-        <v>2574</v>
+        <v>2539</v>
       </c>
       <c r="O420" s="7" t="s">
-        <v>2575</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27661,7 +27685,7 @@
       <c r="M426" s="6" t="s">
         <v>2598</v>
       </c>
-      <c r="O426" s="6" t="s">
+      <c r="O426" s="7" t="s">
         <v>2599</v>
       </c>
     </row>
@@ -27687,37 +27711,37 @@
         <v>2605</v>
       </c>
       <c r="M428" s="6" t="s">
-        <v>2087</v>
-      </c>
-      <c r="O428" s="7" t="s">
         <v>2606</v>
+      </c>
+      <c r="O428" s="6" t="s">
+        <v>2607</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A429" s="6" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="M429" s="6" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="O429" s="7" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A430" s="6" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="M430" s="6" t="s">
-        <v>2613</v>
-      </c>
-      <c r="O430" s="6" t="s">
+        <v>2095</v>
+      </c>
+      <c r="O430" s="7" t="s">
         <v>2614</v>
       </c>
     </row>
@@ -27745,7 +27769,7 @@
       <c r="M432" s="6" t="s">
         <v>2621</v>
       </c>
-      <c r="O432" s="7" t="s">
+      <c r="O432" s="6" t="s">
         <v>2622</v>
       </c>
     </row>
@@ -27872,35 +27896,35 @@
         <v>2657</v>
       </c>
       <c r="O441" s="7" t="s">
-        <v>1558</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A442" s="6" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="M442" s="6" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="O442" s="7" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A443" s="6" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="M443" s="6" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="O443" s="7" t="s">
-        <v>2665</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -28081,64 +28105,64 @@
       <c r="M456" s="6" t="s">
         <v>2716</v>
       </c>
-      <c r="O456" s="6" t="s">
-        <v>1868</v>
+      <c r="O456" s="7" t="s">
+        <v>2717</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A457" s="6" t="s">
-        <v>2717</v>
+        <v>2718</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>2718</v>
+        <v>2719</v>
       </c>
       <c r="M457" s="6" t="s">
-        <v>2719</v>
+        <v>2720</v>
       </c>
       <c r="O457" s="7" t="s">
-        <v>2720</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A458" s="6" t="s">
-        <v>2721</v>
+        <v>2722</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
       <c r="M458" s="6" t="s">
-        <v>2723</v>
-      </c>
-      <c r="O458" s="7" t="s">
-        <v>1880</v>
+        <v>2724</v>
+      </c>
+      <c r="O458" s="6" t="s">
+        <v>1868</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A459" s="6" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="M459" s="6" t="s">
-        <v>2726</v>
+        <v>2727</v>
       </c>
       <c r="O459" s="7" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A460" s="6" t="s">
-        <v>2728</v>
+        <v>2729</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>2729</v>
+        <v>2730</v>
       </c>
       <c r="M460" s="6" t="s">
-        <v>2730</v>
+        <v>2731</v>
       </c>
       <c r="O460" s="7" t="s">
-        <v>2731</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -28179,7 +28203,7 @@
       <c r="M463" s="6" t="s">
         <v>2742</v>
       </c>
-      <c r="O463" s="6" t="s">
+      <c r="O463" s="7" t="s">
         <v>2743</v>
       </c>
     </row>
@@ -28207,7 +28231,7 @@
       <c r="M465" s="6" t="s">
         <v>2750</v>
       </c>
-      <c r="O465" s="7" t="s">
+      <c r="O465" s="6" t="s">
         <v>2751</v>
       </c>
     </row>
@@ -28272,51 +28296,51 @@
         <v>2768</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>2335</v>
+        <v>2769</v>
       </c>
       <c r="M470" s="6" t="s">
-        <v>2336</v>
+        <v>2770</v>
       </c>
       <c r="O470" s="7" t="s">
-        <v>2337</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A471" s="6" t="s">
-        <v>2769</v>
-      </c>
-      <c r="B471" s="7" t="s">
-        <v>2770</v>
-      </c>
-      <c r="M471" s="7" t="s">
-        <v>2771</v>
+        <v>2772</v>
+      </c>
+      <c r="B471" s="6" t="s">
+        <v>2773</v>
+      </c>
+      <c r="M471" s="6" t="s">
+        <v>2774</v>
       </c>
       <c r="O471" s="7" t="s">
-        <v>2772</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A472" s="6" t="s">
-        <v>2773</v>
+        <v>2776</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>2774</v>
+        <v>2343</v>
       </c>
       <c r="M472" s="6" t="s">
-        <v>2775</v>
+        <v>2344</v>
       </c>
       <c r="O472" s="7" t="s">
-        <v>2776</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A473" s="6" t="s">
         <v>2777</v>
       </c>
-      <c r="B473" s="6" t="s">
+      <c r="B473" s="7" t="s">
         <v>2778</v>
       </c>
-      <c r="M473" s="6" t="s">
+      <c r="M473" s="7" t="s">
         <v>2779</v>
       </c>
       <c r="O473" s="7" t="s">
@@ -28384,35 +28408,35 @@
         <v>2797</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>2782</v>
+        <v>2798</v>
       </c>
       <c r="M478" s="6" t="s">
-        <v>2798</v>
+        <v>2799</v>
       </c>
       <c r="O478" s="7" t="s">
-        <v>2799</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A479" s="6" t="s">
-        <v>2800</v>
+        <v>2801</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>2801</v>
+        <v>2802</v>
       </c>
       <c r="M479" s="6" t="s">
-        <v>2802</v>
+        <v>2803</v>
       </c>
       <c r="O479" s="7" t="s">
-        <v>2803</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A480" s="6" t="s">
-        <v>2804</v>
+        <v>2805</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>2805</v>
+        <v>2790</v>
       </c>
       <c r="M480" s="6" t="s">
         <v>2806</v>
@@ -28445,7 +28469,7 @@
       <c r="M482" s="6" t="s">
         <v>2814</v>
       </c>
-      <c r="O482" s="6" t="s">
+      <c r="O482" s="7" t="s">
         <v>2815</v>
       </c>
     </row>
@@ -28473,7 +28497,7 @@
       <c r="M484" s="6" t="s">
         <v>2822</v>
       </c>
-      <c r="O484" s="7" t="s">
+      <c r="O484" s="6" t="s">
         <v>2823</v>
       </c>
     </row>
@@ -28499,48 +28523,48 @@
         <v>2829</v>
       </c>
       <c r="M486" s="6" t="s">
-        <v>2798</v>
+        <v>2830</v>
       </c>
       <c r="O486" s="7" t="s">
-        <v>2799</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A487" s="6" t="s">
-        <v>2830</v>
+        <v>2832</v>
       </c>
       <c r="B487" s="6" t="s">
-        <v>2831</v>
+        <v>2833</v>
       </c>
       <c r="M487" s="6" t="s">
-        <v>2832</v>
+        <v>2834</v>
       </c>
       <c r="O487" s="7" t="s">
-        <v>2833</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A488" s="6" t="s">
-        <v>2834</v>
+        <v>2836</v>
       </c>
       <c r="B488" s="6" t="s">
-        <v>2835</v>
+        <v>2837</v>
       </c>
       <c r="M488" s="6" t="s">
-        <v>2836</v>
+        <v>2806</v>
       </c>
       <c r="O488" s="7" t="s">
-        <v>2837</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A489" s="6" t="s">
         <v>2838</v>
       </c>
-      <c r="B489" s="7" t="s">
+      <c r="B489" s="6" t="s">
         <v>2839</v>
       </c>
-      <c r="M489" s="7" t="s">
+      <c r="M489" s="6" t="s">
         <v>2840</v>
       </c>
       <c r="O489" s="7" t="s">
@@ -28565,10 +28589,10 @@
       <c r="A491" s="6" t="s">
         <v>2846</v>
       </c>
-      <c r="B491" s="6" t="s">
+      <c r="B491" s="7" t="s">
         <v>2847</v>
       </c>
-      <c r="M491" s="6" t="s">
+      <c r="M491" s="7" t="s">
         <v>2848</v>
       </c>
       <c r="O491" s="7" t="s">
@@ -28599,32 +28623,32 @@
       <c r="M493" s="6" t="s">
         <v>2856</v>
       </c>
+      <c r="O493" s="7" t="s">
+        <v>2857</v>
+      </c>
     </row>
     <row r="494" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A494" s="6" t="s">
-        <v>2857</v>
+        <v>2858</v>
       </c>
       <c r="B494" s="6" t="s">
-        <v>2858</v>
+        <v>2859</v>
       </c>
       <c r="M494" s="6" t="s">
-        <v>2859</v>
+        <v>2860</v>
       </c>
       <c r="O494" s="7" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A495" s="6" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
       <c r="B495" s="6" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
       <c r="M495" s="6" t="s">
-        <v>2863</v>
-      </c>
-      <c r="O495" s="7" t="s">
         <v>2864</v>
       </c>
     </row>
@@ -28821,35 +28845,35 @@
         <v>2919</v>
       </c>
       <c r="O509" s="7" t="s">
-        <v>1607</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A510" s="6" t="s">
-        <v>2920</v>
+        <v>2921</v>
       </c>
       <c r="B510" s="6" t="s">
-        <v>2921</v>
+        <v>2922</v>
       </c>
       <c r="M510" s="6" t="s">
-        <v>2922</v>
+        <v>2923</v>
       </c>
       <c r="O510" s="7" t="s">
-        <v>2923</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A511" s="6" t="s">
-        <v>2924</v>
+        <v>2925</v>
       </c>
       <c r="B511" s="6" t="s">
-        <v>2925</v>
+        <v>2926</v>
       </c>
       <c r="M511" s="6" t="s">
-        <v>2926</v>
+        <v>2927</v>
       </c>
       <c r="O511" s="7" t="s">
-        <v>2927</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -28940,10 +28964,10 @@
       <c r="A518" s="6" t="s">
         <v>2952</v>
       </c>
-      <c r="B518" s="7" t="s">
+      <c r="B518" s="6" t="s">
         <v>2953</v>
       </c>
-      <c r="M518" s="7" t="s">
+      <c r="M518" s="6" t="s">
         <v>2954</v>
       </c>
       <c r="O518" s="7" t="s">
@@ -28960,359 +28984,359 @@
       <c r="M519" s="6" t="s">
         <v>2958</v>
       </c>
+      <c r="O519" s="7" t="s">
+        <v>2959</v>
+      </c>
     </row>
     <row r="520" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A520" s="6" t="s">
-        <v>2959</v>
-      </c>
-      <c r="B520" s="6" t="s">
         <v>2960</v>
       </c>
-      <c r="M520" s="6" t="s">
+      <c r="B520" s="7" t="s">
         <v>2961</v>
+      </c>
+      <c r="M520" s="7" t="s">
+        <v>2962</v>
+      </c>
+      <c r="O520" s="7" t="s">
+        <v>2963</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A521" s="6" t="s">
-        <v>2962</v>
+        <v>2964</v>
       </c>
       <c r="B521" s="6" t="s">
-        <v>2963</v>
+        <v>2965</v>
       </c>
       <c r="M521" s="6" t="s">
-        <v>2964</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A522" s="6" t="s">
-        <v>2965</v>
+        <v>2967</v>
       </c>
       <c r="B522" s="6" t="s">
-        <v>2966</v>
+        <v>2968</v>
       </c>
       <c r="M522" s="6" t="s">
-        <v>2967</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A523" s="6" t="s">
-        <v>2968</v>
+        <v>2970</v>
       </c>
       <c r="B523" s="6" t="s">
-        <v>2969</v>
+        <v>2971</v>
       </c>
       <c r="M523" s="6" t="s">
-        <v>2970</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A524" s="6" t="s">
-        <v>2971</v>
+        <v>2973</v>
       </c>
       <c r="B524" s="6" t="s">
-        <v>2972</v>
+        <v>2974</v>
       </c>
       <c r="M524" s="6" t="s">
-        <v>2973</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A525" s="6" t="s">
-        <v>2974</v>
+        <v>2976</v>
       </c>
       <c r="B525" s="6" t="s">
-        <v>2975</v>
+        <v>2977</v>
       </c>
       <c r="M525" s="6" t="s">
-        <v>2976</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A526" s="6" t="s">
-        <v>2977</v>
+        <v>2979</v>
       </c>
       <c r="B526" s="6" t="s">
-        <v>2978</v>
+        <v>2980</v>
       </c>
       <c r="M526" s="6" t="s">
-        <v>2979</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A527" s="6" t="s">
-        <v>2980</v>
+        <v>2982</v>
       </c>
       <c r="B527" s="6" t="s">
-        <v>2981</v>
+        <v>2983</v>
       </c>
       <c r="M527" s="6" t="s">
-        <v>2982</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A528" s="6" t="s">
-        <v>2983</v>
+        <v>2985</v>
       </c>
       <c r="B528" s="6" t="s">
-        <v>2984</v>
+        <v>2986</v>
       </c>
       <c r="M528" s="6" t="s">
-        <v>2985</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A529" s="6" t="s">
-        <v>2986</v>
+        <v>2988</v>
       </c>
       <c r="B529" s="6" t="s">
-        <v>2987</v>
+        <v>2989</v>
       </c>
       <c r="M529" s="6" t="s">
-        <v>2988</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A530" s="6" t="s">
-        <v>2989</v>
+        <v>2991</v>
       </c>
       <c r="B530" s="6" t="s">
-        <v>2990</v>
+        <v>2992</v>
       </c>
       <c r="M530" s="6" t="s">
-        <v>2991</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A531" s="6" t="s">
-        <v>2992</v>
+        <v>2994</v>
       </c>
       <c r="B531" s="6" t="s">
-        <v>2993</v>
+        <v>2995</v>
       </c>
       <c r="M531" s="6" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A532" s="6" t="s">
-        <v>2995</v>
+        <v>2997</v>
       </c>
       <c r="B532" s="6" t="s">
-        <v>2996</v>
+        <v>2998</v>
       </c>
       <c r="M532" s="6" t="s">
-        <v>2997</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A533" s="6" t="s">
-        <v>2998</v>
+        <v>3000</v>
       </c>
       <c r="B533" s="6" t="s">
-        <v>2999</v>
+        <v>3001</v>
       </c>
       <c r="M533" s="6" t="s">
-        <v>3000</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A534" s="6" t="s">
-        <v>3001</v>
+        <v>3003</v>
       </c>
       <c r="B534" s="6" t="s">
-        <v>3002</v>
+        <v>3004</v>
       </c>
       <c r="M534" s="6" t="s">
-        <v>868</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A535" s="6" t="s">
-        <v>3003</v>
+        <v>3006</v>
       </c>
       <c r="B535" s="6" t="s">
-        <v>3004</v>
+        <v>3007</v>
       </c>
       <c r="M535" s="6" t="s">
-        <v>3005</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A536" s="6" t="s">
-        <v>3006</v>
+        <v>3009</v>
       </c>
       <c r="B536" s="6" t="s">
-        <v>3007</v>
+        <v>3010</v>
       </c>
       <c r="M536" s="6" t="s">
-        <v>3008</v>
+        <v>868</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A537" s="6" t="s">
-        <v>3009</v>
+        <v>3011</v>
       </c>
       <c r="B537" s="6" t="s">
-        <v>3010</v>
+        <v>3012</v>
       </c>
       <c r="M537" s="6" t="s">
-        <v>3011</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A538" s="6" t="s">
-        <v>3012</v>
+        <v>3014</v>
       </c>
       <c r="B538" s="6" t="s">
-        <v>3013</v>
+        <v>3015</v>
       </c>
       <c r="M538" s="6" t="s">
-        <v>3014</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A539" s="6" t="s">
-        <v>3015</v>
+        <v>3017</v>
       </c>
       <c r="B539" s="6" t="s">
-        <v>3016</v>
+        <v>3018</v>
       </c>
       <c r="M539" s="6" t="s">
-        <v>3017</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A540" s="6" t="s">
-        <v>3018</v>
+        <v>3020</v>
       </c>
       <c r="B540" s="6" t="s">
-        <v>3019</v>
+        <v>3021</v>
       </c>
       <c r="M540" s="6" t="s">
-        <v>3020</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A541" s="6" t="s">
-        <v>3021</v>
+        <v>3023</v>
       </c>
       <c r="B541" s="6" t="s">
-        <v>3022</v>
+        <v>3024</v>
       </c>
       <c r="M541" s="6" t="s">
-        <v>3023</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A542" s="9" t="s">
-        <v>3024</v>
-      </c>
-      <c r="B542" s="10" t="s">
-        <v>3025</v>
-      </c>
-      <c r="M542" s="10" t="s">
+      <c r="A542" s="6" t="s">
         <v>3026</v>
       </c>
+      <c r="B542" s="6" t="s">
+        <v>3027</v>
+      </c>
+      <c r="M542" s="6" t="s">
+        <v>3028</v>
+      </c>
     </row>
     <row r="543" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A543" s="9" t="s">
-        <v>3027</v>
-      </c>
-      <c r="B543" s="10" t="s">
-        <v>3028</v>
-      </c>
-      <c r="M543" s="10" t="s">
+      <c r="A543" s="6" t="s">
         <v>3029</v>
       </c>
+      <c r="B543" s="6" t="s">
+        <v>3030</v>
+      </c>
+      <c r="M543" s="6" t="s">
+        <v>3031</v>
+      </c>
     </row>
     <row r="544" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A544" s="9" t="s">
-        <v>3030</v>
-      </c>
-      <c r="B544" s="10" t="s">
-        <v>3031</v>
-      </c>
-      <c r="M544" s="10" t="s">
+      <c r="A544" s="10" t="s">
         <v>3032</v>
       </c>
+      <c r="B544" s="11" t="s">
+        <v>3033</v>
+      </c>
+      <c r="M544" s="11" t="s">
+        <v>3034</v>
+      </c>
     </row>
     <row r="545" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A545" s="9" t="s">
-        <v>3033</v>
-      </c>
-      <c r="B545" s="10" t="s">
-        <v>3028</v>
-      </c>
-      <c r="M545" s="10" t="s">
-        <v>3029</v>
+      <c r="A545" s="10" t="s">
+        <v>3035</v>
+      </c>
+      <c r="B545" s="11" t="s">
+        <v>3036</v>
+      </c>
+      <c r="M545" s="11" t="s">
+        <v>3037</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A546" s="9" t="s">
-        <v>3034</v>
-      </c>
-      <c r="B546" s="10" t="s">
-        <v>2725</v>
-      </c>
-      <c r="M546" s="10" t="s">
+      <c r="A546" s="10" t="s">
+        <v>3038</v>
+      </c>
+      <c r="B546" s="11" t="s">
+        <v>3039</v>
+      </c>
+      <c r="M546" s="11" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A547" s="10" t="s">
+        <v>3041</v>
+      </c>
+      <c r="B547" s="11" t="s">
+        <v>3036</v>
+      </c>
+      <c r="M547" s="11" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A548" s="10" t="s">
+        <v>3042</v>
+      </c>
+      <c r="B548" s="11" t="s">
+        <v>2733</v>
+      </c>
+      <c r="M548" s="11" t="s">
         <v>1599</v>
       </c>
     </row>
-    <row r="547" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A547" s="9" t="s">
-        <v>3035</v>
-      </c>
-      <c r="B547" s="10" t="s">
-        <v>3036</v>
-      </c>
-      <c r="M547" s="10" t="s">
-        <v>3037</v>
-      </c>
-    </row>
-    <row r="548" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A548" s="9" t="s">
-        <v>3038</v>
-      </c>
-      <c r="B548" s="10" t="s">
-        <v>3039</v>
-      </c>
-      <c r="M548" s="10" t="s">
-        <v>3040</v>
-      </c>
-    </row>
     <row r="549" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A549" s="11" t="s">
-        <v>3041</v>
-      </c>
-      <c r="B549" s="12" t="s">
-        <v>3042</v>
-      </c>
-      <c r="M549" s="5" t="s">
+      <c r="A549" s="10" t="s">
         <v>3043</v>
       </c>
-      <c r="O549" s="0" t="s">
+      <c r="B549" s="11" t="s">
         <v>3044</v>
       </c>
+      <c r="M549" s="11" t="s">
+        <v>3045</v>
+      </c>
     </row>
     <row r="550" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A550" s="11" t="s">
-        <v>3045</v>
-      </c>
-      <c r="B550" s="12" t="s">
+      <c r="A550" s="10" t="s">
         <v>3046</v>
       </c>
-      <c r="M550" s="5" t="s">
+      <c r="B550" s="11" t="s">
         <v>3047</v>
       </c>
-      <c r="O550" s="0" t="s">
+      <c r="M550" s="11" t="s">
         <v>3048</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A551" s="11" t="s">
+      <c r="A551" s="12" t="s">
         <v>3049</v>
       </c>
-      <c r="B551" s="12" t="s">
+      <c r="B551" s="13" t="s">
         <v>3050</v>
       </c>
       <c r="M551" s="5" t="s">
@@ -29323,91 +29347,91 @@
       </c>
     </row>
     <row r="552" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A552" s="11" t="s">
+      <c r="A552" s="12" t="s">
         <v>3053</v>
       </c>
-      <c r="B552" s="12" t="s">
+      <c r="B552" s="13" t="s">
         <v>3054</v>
       </c>
       <c r="M552" s="5" t="s">
         <v>3055</v>
       </c>
-      <c r="O552" s="13" t="s">
+      <c r="O552" s="0" t="s">
         <v>3056</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A553" s="14" t="s">
+      <c r="A553" s="12" t="s">
         <v>3057</v>
       </c>
-      <c r="B553" s="12" t="s">
+      <c r="B553" s="13" t="s">
         <v>3058</v>
       </c>
-      <c r="M553" s="12" t="s">
+      <c r="M553" s="5" t="s">
         <v>3059</v>
       </c>
+      <c r="O553" s="0" t="s">
+        <v>3060</v>
+      </c>
     </row>
     <row r="554" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A554" s="14" t="s">
-        <v>3060</v>
-      </c>
-      <c r="B554" s="15" t="s">
+      <c r="A554" s="12" t="s">
         <v>3061</v>
       </c>
-      <c r="M554" s="12" t="s">
+      <c r="B554" s="13" t="s">
         <v>3062</v>
       </c>
-      <c r="O554" s="16" t="s">
+      <c r="M554" s="5" t="s">
         <v>3063</v>
       </c>
+      <c r="O554" s="9" t="s">
+        <v>3064</v>
+      </c>
     </row>
     <row r="555" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A555" s="16" t="s">
-        <v>3064</v>
-      </c>
-      <c r="B555" s="15" t="s">
+      <c r="A555" s="14" t="s">
         <v>3065</v>
       </c>
-      <c r="M555" s="12" t="s">
+      <c r="B555" s="13" t="s">
         <v>3066</v>
       </c>
-      <c r="O555" s="11" t="s">
+      <c r="M555" s="13" t="s">
         <v>3067</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A556" s="16" t="s">
+      <c r="A556" s="14" t="s">
         <v>3068</v>
       </c>
-      <c r="B556" s="17" t="s">
+      <c r="B556" s="15" t="s">
         <v>3069</v>
       </c>
-      <c r="M556" s="5" t="s">
+      <c r="M556" s="13" t="s">
         <v>3070</v>
       </c>
-      <c r="O556" s="0" t="s">
+      <c r="O556" s="16" t="s">
         <v>3071</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A557" s="11" t="s">
+      <c r="A557" s="16" t="s">
         <v>3072</v>
       </c>
-      <c r="B557" s="17" t="s">
+      <c r="B557" s="15" t="s">
         <v>3073</v>
       </c>
-      <c r="M557" s="5" t="s">
+      <c r="M557" s="13" t="s">
         <v>3074</v>
       </c>
-      <c r="O557" s="0" t="s">
+      <c r="O557" s="12" t="s">
         <v>3075</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A558" s="11" t="s">
+      <c r="A558" s="16" t="s">
         <v>3076</v>
       </c>
-      <c r="B558" s="5" t="s">
+      <c r="B558" s="17" t="s">
         <v>3077</v>
       </c>
       <c r="M558" s="5" t="s">
@@ -29418,10 +29442,10 @@
       </c>
     </row>
     <row r="559" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A559" s="0" t="s">
+      <c r="A559" s="12" t="s">
         <v>3080</v>
       </c>
-      <c r="B559" s="5" t="s">
+      <c r="B559" s="17" t="s">
         <v>3081</v>
       </c>
       <c r="M559" s="5" t="s">
@@ -29432,7 +29456,7 @@
       </c>
     </row>
     <row r="560" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A560" s="0" t="s">
+      <c r="A560" s="12" t="s">
         <v>3084</v>
       </c>
       <c r="B560" s="5" t="s">
@@ -29446,7 +29470,7 @@
       </c>
     </row>
     <row r="561" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A561" s="18" t="s">
+      <c r="A561" s="0" t="s">
         <v>3088</v>
       </c>
       <c r="B561" s="5" t="s">
@@ -29460,7 +29484,7 @@
       </c>
     </row>
     <row r="562" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A562" s="18" t="s">
+      <c r="A562" s="0" t="s">
         <v>3092</v>
       </c>
       <c r="B562" s="5" t="s">
@@ -29488,10 +29512,10 @@
       </c>
     </row>
     <row r="564" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A564" s="14" t="s">
+      <c r="A564" s="18" t="s">
         <v>3100</v>
       </c>
-      <c r="B564" s="19" t="s">
+      <c r="B564" s="5" t="s">
         <v>3101</v>
       </c>
       <c r="M564" s="5" t="s">
@@ -29502,7 +29526,7 @@
       </c>
     </row>
     <row r="565" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A565" s="14" t="s">
+      <c r="A565" s="18" t="s">
         <v>3104</v>
       </c>
       <c r="B565" s="5" t="s">
@@ -29516,10 +29540,10 @@
       </c>
     </row>
     <row r="566" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A566" s="13" t="s">
+      <c r="A566" s="14" t="s">
         <v>3108</v>
       </c>
-      <c r="B566" s="5" t="s">
+      <c r="B566" s="19" t="s">
         <v>3109</v>
       </c>
       <c r="M566" s="5" t="s">
@@ -29530,7 +29554,7 @@
       </c>
     </row>
     <row r="567" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A567" s="13" t="s">
+      <c r="A567" s="14" t="s">
         <v>3112</v>
       </c>
       <c r="B567" s="5" t="s">
@@ -29544,7 +29568,7 @@
       </c>
     </row>
     <row r="568" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A568" s="0" t="s">
+      <c r="A568" s="9" t="s">
         <v>3116</v>
       </c>
       <c r="B568" s="5" t="s">
@@ -29558,7 +29582,7 @@
       </c>
     </row>
     <row r="569" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A569" s="0" t="s">
+      <c r="A569" s="9" t="s">
         <v>3120</v>
       </c>
       <c r="B569" s="5" t="s">
@@ -29572,7 +29596,7 @@
       </c>
     </row>
     <row r="570" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A570" s="13" t="s">
+      <c r="A570" s="0" t="s">
         <v>3124</v>
       </c>
       <c r="B570" s="5" t="s">
@@ -29586,7 +29610,7 @@
       </c>
     </row>
     <row r="571" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A571" s="20" t="s">
+      <c r="A571" s="0" t="s">
         <v>3128</v>
       </c>
       <c r="B571" s="5" t="s">
@@ -29595,26 +29619,26 @@
       <c r="M571" s="5" t="s">
         <v>3130</v>
       </c>
-      <c r="O571" s="20" t="s">
+      <c r="O571" s="0" t="s">
         <v>3131</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A572" s="20" t="s">
+      <c r="A572" s="9" t="s">
         <v>3132</v>
       </c>
-      <c r="B572" s="20" t="s">
+      <c r="B572" s="5" t="s">
         <v>3133</v>
       </c>
-      <c r="M572" s="20" t="s">
+      <c r="M572" s="5" t="s">
         <v>3134</v>
       </c>
-      <c r="O572" s="20" t="s">
+      <c r="O572" s="0" t="s">
         <v>3135</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A573" s="0" t="s">
+      <c r="A573" s="20" t="s">
         <v>3136</v>
       </c>
       <c r="B573" s="5" t="s">
@@ -29623,21 +29647,21 @@
       <c r="M573" s="5" t="s">
         <v>3138</v>
       </c>
-      <c r="O573" s="0" t="s">
+      <c r="O573" s="20" t="s">
         <v>3139</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A574" s="0" t="s">
+      <c r="A574" s="20" t="s">
         <v>3140</v>
       </c>
-      <c r="B574" s="5" t="s">
+      <c r="B574" s="20" t="s">
         <v>3141</v>
       </c>
-      <c r="M574" s="5" t="s">
+      <c r="M574" s="20" t="s">
         <v>3142</v>
       </c>
-      <c r="O574" s="0" t="s">
+      <c r="O574" s="20" t="s">
         <v>3143</v>
       </c>
     </row>
@@ -29670,7 +29694,7 @@
       </c>
     </row>
     <row r="577" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A577" s="13" t="s">
+      <c r="A577" s="0" t="s">
         <v>3152</v>
       </c>
       <c r="B577" s="5" t="s">
@@ -29684,7 +29708,7 @@
       </c>
     </row>
     <row r="578" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A578" s="13" t="s">
+      <c r="A578" s="0" t="s">
         <v>3156</v>
       </c>
       <c r="B578" s="5" t="s">
@@ -29697,8 +29721,34 @@
         <v>3159</v>
       </c>
     </row>
-    <row r="579" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="580" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="579" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A579" s="9" t="s">
+        <v>3160</v>
+      </c>
+      <c r="B579" s="5" t="s">
+        <v>3161</v>
+      </c>
+      <c r="M579" s="5" t="s">
+        <v>3162</v>
+      </c>
+      <c r="O579" s="0" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A580" s="9" t="s">
+        <v>3164</v>
+      </c>
+      <c r="B580" s="5" t="s">
+        <v>3165</v>
+      </c>
+      <c r="M580" s="5" t="s">
+        <v>3166</v>
+      </c>
+      <c r="O580" s="0" t="s">
+        <v>3167</v>
+      </c>
+    </row>
     <row r="581" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="582" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="583" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -29798,27 +29848,27 @@
     <row r="677" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="678" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="679" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="680" s="1" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A680" s="3"/>
-      <c r="B680" s="7"/>
-      <c r="C680" s="3"/>
-      <c r="D680" s="3"/>
-      <c r="E680" s="3"/>
-      <c r="F680" s="3"/>
-      <c r="G680" s="3"/>
-      <c r="H680" s="3"/>
-      <c r="I680" s="3"/>
-      <c r="J680" s="3"/>
-      <c r="K680" s="3"/>
-      <c r="L680" s="3"/>
-      <c r="M680" s="7"/>
-      <c r="N680" s="3"/>
-      <c r="O680" s="3"/>
-      <c r="P680" s="3"/>
-      <c r="Q680" s="3"/>
-    </row>
+    <row r="680" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="681" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="682" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="682" s="1" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A682" s="3"/>
+      <c r="B682" s="7"/>
+      <c r="C682" s="3"/>
+      <c r="D682" s="3"/>
+      <c r="E682" s="3"/>
+      <c r="F682" s="3"/>
+      <c r="G682" s="3"/>
+      <c r="H682" s="3"/>
+      <c r="I682" s="3"/>
+      <c r="J682" s="3"/>
+      <c r="K682" s="3"/>
+      <c r="L682" s="3"/>
+      <c r="M682" s="7"/>
+      <c r="N682" s="3"/>
+      <c r="O682" s="3"/>
+      <c r="P682" s="3"/>
+      <c r="Q682" s="3"/>
+    </row>
     <row r="683" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="684" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="685" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -29858,44 +29908,8 @@
     <row r="719" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="720" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="721" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="722" s="1" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A722" s="3"/>
-      <c r="B722" s="7"/>
-      <c r="C722" s="3"/>
-      <c r="D722" s="3"/>
-      <c r="E722" s="3"/>
-      <c r="F722" s="3"/>
-      <c r="G722" s="3"/>
-      <c r="H722" s="3"/>
-      <c r="I722" s="3"/>
-      <c r="J722" s="3"/>
-      <c r="K722" s="3"/>
-      <c r="L722" s="3"/>
-      <c r="M722" s="7"/>
-      <c r="N722" s="3"/>
-      <c r="O722" s="3"/>
-      <c r="P722" s="3"/>
-      <c r="Q722" s="3"/>
-    </row>
-    <row r="723" s="1" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A723" s="3"/>
-      <c r="B723" s="7"/>
-      <c r="C723" s="3"/>
-      <c r="D723" s="3"/>
-      <c r="E723" s="3"/>
-      <c r="F723" s="3"/>
-      <c r="G723" s="3"/>
-      <c r="H723" s="3"/>
-      <c r="I723" s="3"/>
-      <c r="J723" s="3"/>
-      <c r="K723" s="3"/>
-      <c r="L723" s="3"/>
-      <c r="M723" s="7"/>
-      <c r="N723" s="3"/>
-      <c r="O723" s="3"/>
-      <c r="P723" s="3"/>
-      <c r="Q723" s="3"/>
-    </row>
+    <row r="722" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="723" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="724" s="1" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A724" s="3"/>
       <c r="B724" s="7"/>
@@ -29955,7 +29969,7 @@
     </row>
     <row r="727" s="1" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A727" s="3"/>
-      <c r="B727" s="3"/>
+      <c r="B727" s="7"/>
       <c r="C727" s="3"/>
       <c r="D727" s="3"/>
       <c r="E727" s="3"/>
@@ -29993,7 +30007,7 @@
     </row>
     <row r="729" s="1" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A729" s="3"/>
-      <c r="B729" s="7"/>
+      <c r="B729" s="3"/>
       <c r="C729" s="3"/>
       <c r="D729" s="3"/>
       <c r="E729" s="3"/>
@@ -30048,8 +30062,44 @@
       <c r="P731" s="3"/>
       <c r="Q731" s="3"/>
     </row>
-    <row r="732" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="733" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="732" s="1" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A732" s="3"/>
+      <c r="B732" s="7"/>
+      <c r="C732" s="3"/>
+      <c r="D732" s="3"/>
+      <c r="E732" s="3"/>
+      <c r="F732" s="3"/>
+      <c r="G732" s="3"/>
+      <c r="H732" s="3"/>
+      <c r="I732" s="3"/>
+      <c r="J732" s="3"/>
+      <c r="K732" s="3"/>
+      <c r="L732" s="3"/>
+      <c r="M732" s="7"/>
+      <c r="N732" s="3"/>
+      <c r="O732" s="3"/>
+      <c r="P732" s="3"/>
+      <c r="Q732" s="3"/>
+    </row>
+    <row r="733" s="1" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A733" s="3"/>
+      <c r="B733" s="7"/>
+      <c r="C733" s="3"/>
+      <c r="D733" s="3"/>
+      <c r="E733" s="3"/>
+      <c r="F733" s="3"/>
+      <c r="G733" s="3"/>
+      <c r="H733" s="3"/>
+      <c r="I733" s="3"/>
+      <c r="J733" s="3"/>
+      <c r="K733" s="3"/>
+      <c r="L733" s="3"/>
+      <c r="M733" s="7"/>
+      <c r="N733" s="3"/>
+      <c r="O733" s="3"/>
+      <c r="P733" s="3"/>
+      <c r="Q733" s="3"/>
+    </row>
     <row r="734" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="735" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="736" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -30083,24 +30133,26 @@
     <row r="764" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="765" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="766" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="767" s="1" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A767" s="3"/>
-      <c r="B767" s="7"/>
-      <c r="C767" s="3"/>
-      <c r="D767" s="3"/>
-      <c r="E767" s="3"/>
-      <c r="F767" s="3"/>
-      <c r="G767" s="3"/>
-      <c r="H767" s="3"/>
-      <c r="I767" s="3"/>
-      <c r="J767" s="3"/>
-      <c r="K767" s="3"/>
-      <c r="L767" s="3"/>
-      <c r="M767" s="7"/>
-      <c r="N767" s="3"/>
-      <c r="O767" s="3"/>
-      <c r="P767" s="3"/>
-      <c r="Q767" s="3"/>
+    <row r="767" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="768" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="769" s="1" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A769" s="3"/>
+      <c r="B769" s="7"/>
+      <c r="C769" s="3"/>
+      <c r="D769" s="3"/>
+      <c r="E769" s="3"/>
+      <c r="F769" s="3"/>
+      <c r="G769" s="3"/>
+      <c r="H769" s="3"/>
+      <c r="I769" s="3"/>
+      <c r="J769" s="3"/>
+      <c r="K769" s="3"/>
+      <c r="L769" s="3"/>
+      <c r="M769" s="7"/>
+      <c r="N769" s="3"/>
+      <c r="O769" s="3"/>
+      <c r="P769" s="3"/>
+      <c r="Q769" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -30187,332 +30239,332 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>3160</v>
+        <v>3168</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3161</v>
+        <v>3169</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>3162</v>
+        <v>3170</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>3163</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>3164</v>
+        <v>3172</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3165</v>
+        <v>3173</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>3166</v>
+        <v>3174</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>3167</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>3168</v>
+        <v>3176</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3169</v>
+        <v>3177</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>3170</v>
+        <v>3178</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>3171</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>3172</v>
+        <v>3180</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3173</v>
+        <v>3181</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>3174</v>
+        <v>3182</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>3175</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>3176</v>
+        <v>3184</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>3177</v>
+        <v>3185</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>3178</v>
+        <v>3186</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>3179</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>3180</v>
+        <v>3188</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>3181</v>
+        <v>3189</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>3182</v>
+        <v>3190</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>3183</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>3184</v>
+        <v>3192</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>3185</v>
+        <v>3193</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>3186</v>
+        <v>3194</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>3187</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>3188</v>
+        <v>3196</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>3189</v>
+        <v>3197</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>3190</v>
+        <v>3198</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>3191</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>3192</v>
+        <v>3200</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>3193</v>
+        <v>3201</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>3194</v>
+        <v>3202</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>3195</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>3196</v>
+        <v>3204</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>3197</v>
+        <v>3205</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>3198</v>
+        <v>3206</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>3199</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>3200</v>
+        <v>3208</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>3201</v>
+        <v>3209</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>3202</v>
+        <v>3210</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>3203</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>3204</v>
+        <v>3212</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>3205</v>
+        <v>3213</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>3206</v>
+        <v>3214</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>3207</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>3208</v>
+        <v>3216</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>3209</v>
+        <v>3217</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>3210</v>
+        <v>3218</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>3211</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>3212</v>
+        <v>3220</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>3213</v>
+        <v>3221</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>3214</v>
+        <v>3222</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>3215</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>3216</v>
+        <v>3224</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3217</v>
+        <v>3225</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>3218</v>
+        <v>3226</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>3219</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>3220</v>
+        <v>3228</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>3221</v>
+        <v>3229</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>3222</v>
+        <v>3230</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>3223</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>3224</v>
+        <v>3232</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>3225</v>
+        <v>3233</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>3226</v>
+        <v>3234</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>3227</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>3228</v>
+        <v>3236</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>3229</v>
+        <v>3237</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>3230</v>
+        <v>3238</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>3231</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>3232</v>
+        <v>3240</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>3233</v>
+        <v>3241</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>3234</v>
+        <v>3242</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>3235</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>3236</v>
+        <v>3244</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>3237</v>
+        <v>3245</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>3238</v>
+        <v>3246</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>3239</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>3240</v>
+        <v>3248</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>3241</v>
+        <v>3249</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>3242</v>
+        <v>3250</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>3243</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>3244</v>
+        <v>3252</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>3245</v>
+        <v>3253</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>3246</v>
+        <v>3254</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>3247</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>3248</v>
+        <v>3256</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>3248</v>
+        <v>3256</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>3249</v>
+        <v>3257</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>3250</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>3251</v>
+        <v>3259</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>3252</v>
+        <v>3260</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>56</v>
@@ -30523,45 +30575,45 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>3253</v>
+        <v>3261</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>3254</v>
+        <v>3262</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>3255</v>
+        <v>3263</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>3256</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>3257</v>
+        <v>3265</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>3258</v>
+        <v>3266</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>3259</v>
+        <v>3267</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>3260</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>3261</v>
+        <v>3269</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>3262</v>
+        <v>3270</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>3263</v>
+        <v>3271</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>3264</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/TranslateData.xlsx
+++ b/TranslateData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3571" uniqueCount="3295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3575" uniqueCount="3299">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -10127,6 +10127,7 @@
         <color rgb="FF000000"/>
         <rFont val="MS Gothic"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">BonusCount</t>
     </r>
@@ -10157,6 +10158,7 @@
         <color rgb="FF000000"/>
         <rFont val="MS Gothic"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">BonusCoolTime</t>
     </r>
@@ -10202,6 +10204,18 @@
   </si>
   <si>
     <t xml:space="preserve">拍摄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhotographerPhotograph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photographer took pictures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">写真屋が写真を撮影しました</t>
+  </si>
+  <si>
+    <t xml:space="preserve">摄影师拍了照片。</t>
   </si>
   <si>
     <t xml:space="preserve">WelcomeMessage1</t>
@@ -10657,9 +10671,10 @@
       <color rgb="FF000000"/>
       <name val="MS Gothic"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="9.5"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="MS Gothic"/>
       <family val="0"/>
@@ -10707,7 +10722,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -10790,6 +10805,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -21800,8 +21819,8 @@
   </sheetPr>
   <dimension ref="A1:Q767"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A575" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C586" activeCellId="0" sqref="C586"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D575" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O587" activeCellId="0" sqref="O587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29981,7 +30000,20 @@
         <v>3189</v>
       </c>
     </row>
-    <row r="587" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="587" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A587" s="21" t="s">
+        <v>3190</v>
+      </c>
+      <c r="B587" s="5" t="s">
+        <v>3191</v>
+      </c>
+      <c r="M587" s="5" t="s">
+        <v>3192</v>
+      </c>
+      <c r="O587" s="0" t="s">
+        <v>3193</v>
+      </c>
+    </row>
     <row r="588" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="589" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="590" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -30463,332 +30495,332 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>3190</v>
+        <v>3194</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3191</v>
+        <v>3195</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>3192</v>
+        <v>3196</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>3193</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>3194</v>
+        <v>3198</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3195</v>
+        <v>3199</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>3196</v>
+        <v>3200</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>3197</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>3198</v>
+        <v>3202</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3199</v>
+        <v>3203</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>3200</v>
+        <v>3204</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>3201</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>3202</v>
+        <v>3206</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3203</v>
+        <v>3207</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>3204</v>
+        <v>3208</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>3205</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>3206</v>
+        <v>3210</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>3207</v>
+        <v>3211</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>3208</v>
+        <v>3212</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>3209</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>3210</v>
+        <v>3214</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>3211</v>
+        <v>3215</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>3212</v>
+        <v>3216</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>3213</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>3214</v>
+        <v>3218</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>3215</v>
+        <v>3219</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>3216</v>
+        <v>3220</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>3217</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>3218</v>
+        <v>3222</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>3219</v>
+        <v>3223</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>3220</v>
+        <v>3224</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>3221</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>3222</v>
+        <v>3226</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>3223</v>
+        <v>3227</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>3224</v>
+        <v>3228</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>3225</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>3226</v>
+        <v>3230</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>3227</v>
+        <v>3231</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>3228</v>
+        <v>3232</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>3229</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>3230</v>
+        <v>3234</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>3231</v>
+        <v>3235</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>3232</v>
+        <v>3236</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>3233</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>3234</v>
+        <v>3238</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>3235</v>
+        <v>3239</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>3236</v>
+        <v>3240</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>3237</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>3238</v>
+        <v>3242</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>3239</v>
+        <v>3243</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>3240</v>
+        <v>3244</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>3241</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>3242</v>
+        <v>3246</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>3243</v>
+        <v>3247</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>3244</v>
+        <v>3248</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>3245</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>3246</v>
+        <v>3250</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3247</v>
+        <v>3251</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>3248</v>
+        <v>3252</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>3249</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>3250</v>
+        <v>3254</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>3251</v>
+        <v>3255</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>3252</v>
+        <v>3256</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>3253</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>3254</v>
+        <v>3258</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>3255</v>
+        <v>3259</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>3256</v>
+        <v>3260</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>3257</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>3258</v>
+        <v>3262</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>3259</v>
+        <v>3263</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>3260</v>
+        <v>3264</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>3261</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>3262</v>
+        <v>3266</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>3263</v>
+        <v>3267</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>3264</v>
+        <v>3268</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>3265</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>3266</v>
+        <v>3270</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>3267</v>
+        <v>3271</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>3268</v>
+        <v>3272</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>3269</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>3270</v>
+        <v>3274</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>3271</v>
+        <v>3275</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>3272</v>
+        <v>3276</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>3273</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>3274</v>
+        <v>3278</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>3275</v>
+        <v>3279</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>3276</v>
+        <v>3280</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>3277</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>3278</v>
+        <v>3282</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>3278</v>
+        <v>3282</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>3279</v>
+        <v>3283</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>3280</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>3281</v>
+        <v>3285</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>3282</v>
+        <v>3286</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>56</v>
@@ -30799,45 +30831,45 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>3283</v>
+        <v>3287</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>3284</v>
+        <v>3288</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>3285</v>
+        <v>3289</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>3286</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>3287</v>
+        <v>3291</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>3288</v>
+        <v>3292</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>3289</v>
+        <v>3293</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>3290</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>3291</v>
+        <v>3295</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>3292</v>
+        <v>3296</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>3293</v>
+        <v>3297</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/TranslateData.xlsx
+++ b/TranslateData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3790" uniqueCount="3501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3793" uniqueCount="3504">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -10291,6 +10291,15 @@
   </si>
   <si>
     <t xml:space="preserve">拍?的通知</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TacticianName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tactician</t>
+  </si>
+  <si>
+    <t xml:space="preserve">戦術家</t>
   </si>
   <si>
     <t xml:space="preserve">WelcomeMessage1</t>
@@ -21795,8 +21804,8 @@
   </sheetPr>
   <dimension ref="A1:AJ856"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A626" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A630" activeCellId="0" sqref="A630"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B635" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B638" activeCellId="0" sqref="B638"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -51056,8 +51065,12 @@
       <c r="AJ636" s="9"/>
     </row>
     <row r="637" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A637" s="9"/>
-      <c r="B637" s="9"/>
+      <c r="A637" s="9" t="s">
+        <v>3396</v>
+      </c>
+      <c r="B637" s="9" t="s">
+        <v>3397</v>
+      </c>
       <c r="C637" s="9"/>
       <c r="D637" s="9"/>
       <c r="E637" s="9"/>
@@ -51068,7 +51081,9 @@
       <c r="J637" s="9"/>
       <c r="K637" s="9"/>
       <c r="L637" s="9"/>
-      <c r="M637" s="9"/>
+      <c r="M637" s="9" t="s">
+        <v>3398</v>
+      </c>
       <c r="N637" s="9"/>
       <c r="O637" s="9"/>
       <c r="P637" s="9"/>
@@ -59500,332 +59515,332 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>3396</v>
+        <v>3399</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3397</v>
+        <v>3400</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>3398</v>
+        <v>3401</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>3399</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>3400</v>
+        <v>3403</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3401</v>
+        <v>3404</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>3402</v>
+        <v>3405</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>3403</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>3404</v>
+        <v>3407</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3405</v>
+        <v>3408</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>3406</v>
+        <v>3409</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>3407</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>3408</v>
+        <v>3411</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3409</v>
+        <v>3412</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>3410</v>
+        <v>3413</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>3411</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>3412</v>
+        <v>3415</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>3413</v>
+        <v>3416</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>3414</v>
+        <v>3417</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>3415</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>3416</v>
+        <v>3419</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>3417</v>
+        <v>3420</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>3418</v>
+        <v>3421</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>3419</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>3420</v>
+        <v>3423</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>3421</v>
+        <v>3424</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>3422</v>
+        <v>3425</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>3423</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>3424</v>
+        <v>3427</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>3425</v>
+        <v>3428</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>3426</v>
+        <v>3429</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>3427</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>3428</v>
+        <v>3431</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>3429</v>
+        <v>3432</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>3430</v>
+        <v>3433</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>3431</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>3432</v>
+        <v>3435</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>3433</v>
+        <v>3436</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>3434</v>
+        <v>3437</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>3435</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>3436</v>
+        <v>3439</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>3437</v>
+        <v>3440</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>3438</v>
+        <v>3441</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>3439</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>3440</v>
+        <v>3443</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>3441</v>
+        <v>3444</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>3442</v>
+        <v>3445</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>3443</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>3444</v>
+        <v>3447</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>3445</v>
+        <v>3448</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>3447</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>3448</v>
+        <v>3451</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>3449</v>
+        <v>3452</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>3450</v>
+        <v>3453</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>3451</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>3452</v>
+        <v>3455</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3453</v>
+        <v>3456</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>3454</v>
+        <v>3457</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>3455</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>3456</v>
+        <v>3459</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>3457</v>
+        <v>3460</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>3458</v>
+        <v>3461</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>3459</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>3460</v>
+        <v>3463</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>3461</v>
+        <v>3464</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>3462</v>
+        <v>3465</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>3463</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>3464</v>
+        <v>3467</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>3465</v>
+        <v>3468</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>3466</v>
+        <v>3469</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>3467</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>3468</v>
+        <v>3471</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>3469</v>
+        <v>3472</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>3471</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>3472</v>
+        <v>3475</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>3473</v>
+        <v>3476</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>3474</v>
+        <v>3477</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>3476</v>
+        <v>3479</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>3477</v>
+        <v>3480</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>3478</v>
+        <v>3481</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>3480</v>
+        <v>3483</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>3481</v>
+        <v>3484</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>3482</v>
+        <v>3485</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>3483</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>3484</v>
+        <v>3487</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>3484</v>
+        <v>3487</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>3485</v>
+        <v>3488</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>3486</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>3487</v>
+        <v>3490</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>3488</v>
+        <v>3491</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>56</v>
@@ -59836,45 +59851,45 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>3489</v>
+        <v>3492</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>3490</v>
+        <v>3493</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>3491</v>
+        <v>3494</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>3492</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>3493</v>
+        <v>3496</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>3494</v>
+        <v>3497</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>3495</v>
+        <v>3498</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>3496</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>3497</v>
+        <v>3500</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>3498</v>
+        <v>3501</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>3499</v>
+        <v>3502</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>3500</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/TranslateData.xlsx
+++ b/TranslateData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="14617" windowHeight="8160" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="14617" windowHeight="8160" tabRatio="500" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <charset val="128"/>
+      </rPr>
       <t>开</t>
     </r>
     <r>
@@ -909,6 +915,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <charset val="128"/>
+      </rPr>
       <t>常</t>
     </r>
     <r>
@@ -3572,6 +3584,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
       <t>独立</t>
     </r>
     <r>
@@ -3604,7 +3622,7 @@
         <rFont val="宋体"/>
         <charset val="128"/>
       </rPr>
-      <t>员或内鬼阵营，需要独自打成胜利条件。</t>
+      <t>员或内鬼阵营，需要独自达成胜利条件。</t>
     </r>
   </si>
   <si>
@@ -4037,11 +4055,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="1"/>
-      </rPr>
       <t>警长可以击杀内鬼。</t>
     </r>
     <r>
@@ -13892,6 +13905,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
       <t>欢</t>
     </r>
     <r>
@@ -13933,6 +13952,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <charset val="128"/>
+      </rPr>
       <t>您可以在超新</t>
     </r>
     <r>
@@ -21797,8 +21822,8 @@
   <sheetPr/>
   <dimension ref="A1:Q762"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M$1:M$1048576"/>
+    <sheetView topLeftCell="L23" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88333333333333" defaultRowHeight="17.6"/>
@@ -26604,8 +26629,8 @@
   <sheetPr/>
   <dimension ref="A1:AJ856"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M$1:M$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H153" workbookViewId="0">
+      <selection activeCell="O159" sqref="O159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88333333333333" defaultRowHeight="17.6"/>

--- a/TranslateData.xlsx
+++ b/TranslateData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\04-Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06-Program\AmongUs_Mod_Development\SNR_KT\SuperNewRoles_KT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6017330D-6C59-4B22-9B13-E34194FE77A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CAF851-0365-4646-A492-A3762A812BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="8550" windowHeight="9533" tabRatio="500" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="8550" windowHeight="9533" tabRatio="500" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3922" uniqueCount="3619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3928" uniqueCount="3625">
   <si>
     <t>English</t>
   </si>
@@ -13719,12 +13719,52 @@
 /rename命令是
 仅在托管时可用。</t>
   </si>
+  <si>
+    <t>MadRolesCanFixComms</t>
+  </si>
+  <si>
+    <t>Mad roles can fix comms sabotage</t>
+  </si>
+  <si>
+    <t>マッド役職がコミュサボを治せる</t>
+  </si>
+  <si>
+    <t>MadRolesCanFixElectrical</t>
+  </si>
+  <si>
+    <t>Mad roles can fix electrical sabotage</t>
+  </si>
+  <si>
+    <r>
+      <t>マッド</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>役職</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が停電を治せる</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -13872,6 +13912,26 @@
       <name val="Microsoft YaHei"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -13894,7 +13954,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -13990,6 +14050,15 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -25515,8 +25584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AJ856"/>
   <sheetViews>
-    <sheetView topLeftCell="G631" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B651" sqref="B651"/>
+    <sheetView tabSelected="1" topLeftCell="A640" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A653" sqref="A653"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="17.649999999999999"/>
@@ -55391,81 +55460,93 @@
       <c r="AI649" s="30"/>
       <c r="AJ649" s="30"/>
     </row>
-    <row r="650" spans="1:36" ht="18.75" customHeight="1">
-      <c r="A650" s="9"/>
-      <c r="B650" s="9"/>
-      <c r="C650" s="9"/>
-      <c r="D650" s="9"/>
-      <c r="E650" s="9"/>
-      <c r="F650" s="9"/>
-      <c r="G650" s="9"/>
-      <c r="H650" s="9"/>
-      <c r="I650" s="9"/>
-      <c r="J650" s="9"/>
-      <c r="K650" s="9"/>
-      <c r="L650" s="9"/>
-      <c r="M650" s="9"/>
-      <c r="N650" s="9"/>
-      <c r="O650" s="13"/>
-      <c r="P650" s="9"/>
-      <c r="Q650" s="9"/>
-      <c r="R650" s="9"/>
-      <c r="S650" s="9"/>
-      <c r="T650" s="9"/>
-      <c r="U650" s="9"/>
-      <c r="V650" s="9"/>
-      <c r="W650" s="9"/>
-      <c r="X650" s="9"/>
-      <c r="Y650" s="9"/>
-      <c r="Z650" s="9"/>
-      <c r="AA650" s="9"/>
-      <c r="AB650" s="9"/>
-      <c r="AC650" s="9"/>
-      <c r="AD650" s="9"/>
-      <c r="AE650" s="9"/>
-      <c r="AF650" s="9"/>
-      <c r="AG650" s="9"/>
-      <c r="AH650" s="9"/>
-      <c r="AI650" s="9"/>
-      <c r="AJ650" s="9"/>
-    </row>
-    <row r="651" spans="1:36" ht="18.75" customHeight="1">
-      <c r="A651" s="9"/>
-      <c r="B651" s="9"/>
-      <c r="C651" s="9"/>
-      <c r="D651" s="9"/>
-      <c r="E651" s="9"/>
-      <c r="F651" s="9"/>
-      <c r="G651" s="9"/>
-      <c r="H651" s="9"/>
-      <c r="I651" s="9"/>
-      <c r="J651" s="9"/>
-      <c r="K651" s="9"/>
-      <c r="L651" s="9"/>
-      <c r="M651" s="9"/>
-      <c r="N651" s="9"/>
-      <c r="O651" s="13"/>
-      <c r="P651" s="9"/>
-      <c r="Q651" s="9"/>
-      <c r="R651" s="9"/>
-      <c r="S651" s="9"/>
-      <c r="T651" s="9"/>
-      <c r="U651" s="9"/>
-      <c r="V651" s="9"/>
-      <c r="W651" s="9"/>
-      <c r="X651" s="9"/>
-      <c r="Y651" s="9"/>
-      <c r="Z651" s="9"/>
-      <c r="AA651" s="9"/>
-      <c r="AB651" s="9"/>
-      <c r="AC651" s="9"/>
-      <c r="AD651" s="9"/>
-      <c r="AE651" s="9"/>
-      <c r="AF651" s="9"/>
-      <c r="AG651" s="9"/>
-      <c r="AH651" s="9"/>
-      <c r="AI651" s="9"/>
-      <c r="AJ651" s="9"/>
+    <row r="650" spans="1:36" ht="19.5" customHeight="1">
+      <c r="A650" s="36" t="s">
+        <v>3619</v>
+      </c>
+      <c r="B650" s="36" t="s">
+        <v>3620</v>
+      </c>
+      <c r="C650" s="30"/>
+      <c r="D650" s="30"/>
+      <c r="E650" s="30"/>
+      <c r="F650" s="30"/>
+      <c r="G650" s="30"/>
+      <c r="H650" s="30"/>
+      <c r="I650" s="30"/>
+      <c r="J650" s="30"/>
+      <c r="K650" s="30"/>
+      <c r="L650" s="30"/>
+      <c r="M650" s="37" t="s">
+        <v>3621</v>
+      </c>
+      <c r="N650" s="30"/>
+      <c r="O650" s="30"/>
+      <c r="P650" s="30"/>
+      <c r="Q650" s="30"/>
+      <c r="R650" s="30"/>
+      <c r="S650" s="30"/>
+      <c r="T650" s="30"/>
+      <c r="U650" s="30"/>
+      <c r="V650" s="30"/>
+      <c r="W650" s="30"/>
+      <c r="X650" s="30"/>
+      <c r="Y650" s="30"/>
+      <c r="Z650" s="30"/>
+      <c r="AA650" s="30"/>
+      <c r="AB650" s="30"/>
+      <c r="AC650" s="30"/>
+      <c r="AD650" s="30"/>
+      <c r="AE650" s="30"/>
+      <c r="AF650" s="30"/>
+      <c r="AG650" s="30"/>
+      <c r="AH650" s="30"/>
+      <c r="AI650" s="30"/>
+      <c r="AJ650" s="30"/>
+    </row>
+    <row r="651" spans="1:36" ht="19.5" customHeight="1">
+      <c r="A651" s="36" t="s">
+        <v>3622</v>
+      </c>
+      <c r="B651" s="36" t="s">
+        <v>3623</v>
+      </c>
+      <c r="C651" s="30"/>
+      <c r="D651" s="30"/>
+      <c r="E651" s="30"/>
+      <c r="F651" s="30"/>
+      <c r="G651" s="30"/>
+      <c r="H651" s="30"/>
+      <c r="I651" s="30"/>
+      <c r="J651" s="30"/>
+      <c r="K651" s="30"/>
+      <c r="L651" s="30"/>
+      <c r="M651" s="38" t="s">
+        <v>3624</v>
+      </c>
+      <c r="N651" s="30"/>
+      <c r="O651" s="30"/>
+      <c r="P651" s="30"/>
+      <c r="Q651" s="30"/>
+      <c r="R651" s="30"/>
+      <c r="S651" s="30"/>
+      <c r="T651" s="30"/>
+      <c r="U651" s="30"/>
+      <c r="V651" s="30"/>
+      <c r="W651" s="30"/>
+      <c r="X651" s="30"/>
+      <c r="Y651" s="30"/>
+      <c r="Z651" s="30"/>
+      <c r="AA651" s="30"/>
+      <c r="AB651" s="30"/>
+      <c r="AC651" s="30"/>
+      <c r="AD651" s="30"/>
+      <c r="AE651" s="30"/>
+      <c r="AF651" s="30"/>
+      <c r="AG651" s="30"/>
+      <c r="AH651" s="30"/>
+      <c r="AI651" s="30"/>
+      <c r="AJ651" s="30"/>
     </row>
     <row r="652" spans="1:36" ht="18.75" customHeight="1">
       <c r="A652" s="9"/>
@@ -63268,7 +63349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q761"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>

--- a/TranslateData.xlsx
+++ b/TranslateData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9264" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9264" tabRatio="500" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3964" uniqueCount="3659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3970" uniqueCount="3665">
   <si>
     <t>English</t>
   </si>
@@ -13447,6 +13447,24 @@
   </si>
   <si>
     <t>还有{0}秒解除武装</t>
+  </si>
+  <si>
+    <t>ConnectKillerName</t>
+  </si>
+  <si>
+    <t>Connect killer</t>
+  </si>
+  <si>
+    <t>コネクトキラー</t>
+  </si>
+  <si>
+    <t>ConnectKillerTitle1</t>
+  </si>
+  <si>
+    <t>Be a radio wave and move freely!</t>
+  </si>
+  <si>
+    <t>電波になり、自由に移動しよう</t>
   </si>
   <si>
     <t>WelcomeMessage1</t>
@@ -18603,8 +18621,8 @@
   <sheetPr/>
   <dimension ref="A1:Q761"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="18"/>
@@ -26424,8 +26442,8 @@
   <sheetPr/>
   <dimension ref="A1:AJ856"/>
   <sheetViews>
-    <sheetView topLeftCell="A645" workbookViewId="0">
-      <selection activeCell="B652" sqref="B652"/>
+    <sheetView tabSelected="1" topLeftCell="B655" workbookViewId="0">
+      <selection activeCell="M661" sqref="M661"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="18"/>
@@ -56800,8 +56818,13 @@
       <c r="AI660" s="39"/>
       <c r="AJ660" s="39"/>
     </row>
-    <row r="661" ht="18.75" customHeight="1" spans="2:36">
-      <c r="B661" s="21"/>
+    <row r="661" ht="18.75" customHeight="1" spans="1:36">
+      <c r="A661" s="16" t="s">
+        <v>3535</v>
+      </c>
+      <c r="B661" s="21" t="s">
+        <v>3536</v>
+      </c>
       <c r="C661" s="20"/>
       <c r="D661" s="20"/>
       <c r="E661" s="20"/>
@@ -56812,7 +56835,9 @@
       <c r="J661" s="20"/>
       <c r="K661" s="20"/>
       <c r="L661" s="20"/>
-      <c r="M661" s="20"/>
+      <c r="M661" s="20" t="s">
+        <v>3537</v>
+      </c>
       <c r="N661" s="20"/>
       <c r="O661" s="7"/>
       <c r="P661" s="20"/>
@@ -56837,8 +56862,13 @@
       <c r="AI661" s="20"/>
       <c r="AJ661" s="20"/>
     </row>
-    <row r="662" ht="18.75" customHeight="1" spans="2:36">
-      <c r="B662" s="21"/>
+    <row r="662" ht="18.75" customHeight="1" spans="1:36">
+      <c r="A662" s="16" t="s">
+        <v>3538</v>
+      </c>
+      <c r="B662" s="21" t="s">
+        <v>3539</v>
+      </c>
       <c r="C662" s="20"/>
       <c r="D662" s="20"/>
       <c r="E662" s="20"/>
@@ -56849,7 +56879,9 @@
       <c r="J662" s="20"/>
       <c r="K662" s="20"/>
       <c r="L662" s="20"/>
-      <c r="M662" s="20"/>
+      <c r="M662" s="20" t="s">
+        <v>3540</v>
+      </c>
       <c r="N662" s="20"/>
       <c r="O662" s="7"/>
       <c r="P662" s="20"/>
@@ -64143,332 +64175,332 @@
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:15">
       <c r="A2" s="9" t="s">
-        <v>3535</v>
+        <v>3541</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>3536</v>
+        <v>3542</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>3537</v>
+        <v>3543</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>3538</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:15">
       <c r="A3" s="9" t="s">
-        <v>3539</v>
+        <v>3545</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>3540</v>
+        <v>3546</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>3541</v>
+        <v>3547</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>3542</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:15">
       <c r="A4" s="9" t="s">
-        <v>3543</v>
+        <v>3549</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>3544</v>
+        <v>3550</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>3545</v>
+        <v>3551</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>3546</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:15">
       <c r="A5" s="9" t="s">
-        <v>3547</v>
+        <v>3553</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>3548</v>
+        <v>3554</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>3549</v>
+        <v>3555</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>3550</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:15">
       <c r="A6" s="9" t="s">
-        <v>3551</v>
+        <v>3557</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>3552</v>
+        <v>3558</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>3553</v>
+        <v>3559</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>3554</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:15">
       <c r="A7" s="9" t="s">
-        <v>3555</v>
+        <v>3561</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>3556</v>
+        <v>3562</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>3557</v>
+        <v>3563</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>3558</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:15">
       <c r="A8" s="9" t="s">
-        <v>3559</v>
+        <v>3565</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>3560</v>
+        <v>3566</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>3561</v>
+        <v>3567</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>3562</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1" spans="1:15">
       <c r="A9" s="9" t="s">
-        <v>3563</v>
+        <v>3569</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>3564</v>
+        <v>3570</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>3565</v>
+        <v>3571</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>3566</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1" spans="1:15">
       <c r="A10" s="9" t="s">
-        <v>3567</v>
+        <v>3573</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>3568</v>
+        <v>3574</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>3569</v>
+        <v>3575</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>3570</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1" spans="1:15">
       <c r="A11" s="9" t="s">
-        <v>3571</v>
+        <v>3577</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>3572</v>
+        <v>3578</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>3573</v>
+        <v>3579</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>3574</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1" spans="1:15">
       <c r="A12" s="9" t="s">
-        <v>3575</v>
+        <v>3581</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>3576</v>
+        <v>3582</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>3577</v>
+        <v>3583</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>3578</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1" spans="1:15">
       <c r="A13" s="9" t="s">
-        <v>3579</v>
+        <v>3585</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>3580</v>
+        <v>3586</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>3581</v>
+        <v>3587</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>3582</v>
+        <v>3588</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1" spans="1:15">
       <c r="A14" s="9" t="s">
-        <v>3583</v>
+        <v>3589</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>3584</v>
+        <v>3590</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>3585</v>
+        <v>3591</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>3586</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="15" ht="18.75" customHeight="1" spans="1:15">
       <c r="A15" s="9" t="s">
-        <v>3587</v>
+        <v>3593</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>3588</v>
+        <v>3594</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>3589</v>
+        <v>3595</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>3590</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="16" ht="18.75" customHeight="1" spans="1:15">
       <c r="A16" s="9" t="s">
-        <v>3591</v>
+        <v>3597</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>3592</v>
+        <v>3598</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>3593</v>
+        <v>3599</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>3594</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="1" spans="1:15">
       <c r="A17" s="9" t="s">
-        <v>3595</v>
+        <v>3601</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>3596</v>
+        <v>3602</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>3597</v>
+        <v>3603</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>3598</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="18" ht="18.75" customHeight="1" spans="1:15">
       <c r="A18" s="9" t="s">
-        <v>3599</v>
+        <v>3605</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>3600</v>
+        <v>3606</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>3601</v>
+        <v>3607</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>3602</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="1:15">
       <c r="A19" s="9" t="s">
-        <v>3603</v>
+        <v>3609</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>3604</v>
+        <v>3610</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>3605</v>
+        <v>3611</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>3606</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="1" spans="1:15">
       <c r="A20" s="9" t="s">
-        <v>3607</v>
+        <v>3613</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>3608</v>
+        <v>3614</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>3609</v>
+        <v>3615</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>3610</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="1" spans="1:15">
       <c r="A21" s="9" t="s">
-        <v>3611</v>
+        <v>3617</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>3612</v>
+        <v>3618</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>3613</v>
+        <v>3619</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>3614</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="1" spans="1:15">
       <c r="A22" s="9" t="s">
-        <v>3615</v>
+        <v>3621</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>3616</v>
+        <v>3622</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>3617</v>
+        <v>3623</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>3618</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1" spans="1:15">
       <c r="A23" s="9" t="s">
-        <v>3619</v>
+        <v>3625</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>3620</v>
+        <v>3626</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>3621</v>
+        <v>3627</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>3622</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="1" spans="1:15">
       <c r="A24" s="9" t="s">
-        <v>3623</v>
+        <v>3629</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>3623</v>
+        <v>3629</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>3624</v>
+        <v>3630</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>3625</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="25" ht="18.75" customHeight="1" spans="1:15">
       <c r="A25" s="9" t="s">
-        <v>3626</v>
+        <v>3632</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>3627</v>
+        <v>3633</v>
       </c>
       <c r="M25" s="9" t="s">
         <v>59</v>
@@ -64479,53 +64511,53 @@
     </row>
     <row r="26" ht="18.75" customHeight="1" spans="1:15">
       <c r="A26" s="9" t="s">
-        <v>3628</v>
+        <v>3634</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>3629</v>
+        <v>3635</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>3630</v>
+        <v>3636</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>3631</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="27" ht="18.75" customHeight="1" spans="1:15">
       <c r="A27" s="9" t="s">
-        <v>3632</v>
+        <v>3638</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>3633</v>
+        <v>3639</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>3634</v>
+        <v>3640</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>3635</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="28" ht="18.75" customHeight="1"/>
     <row r="29" ht="18.75" customHeight="1" spans="1:15">
       <c r="A29" s="9" t="s">
-        <v>3636</v>
+        <v>3642</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>3637</v>
+        <v>3643</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>3638</v>
+        <v>3644</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>3639</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="30" ht="96" customHeight="1" spans="1:17">
       <c r="A30" s="11" t="s">
-        <v>3640</v>
+        <v>3646</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>3641</v>
+        <v>3647</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -64538,11 +64570,11 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="12" t="s">
-        <v>3642</v>
+        <v>3648</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="14" t="s">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -65571,24 +65603,24 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>3644</v>
+        <v>3650</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3645</v>
+        <v>3651</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>3646</v>
+        <v>3652</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>3647</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A3" s="3" t="s">
-        <v>3648</v>
+        <v>3654</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3649</v>
+        <v>3655</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -65601,35 +65633,35 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5" t="s">
-        <v>3650</v>
+        <v>3656</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5" t="s">
-        <v>3651</v>
+        <v>3657</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>3652</v>
+        <v>3658</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3653</v>
+        <v>3659</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>3654</v>
+        <v>3660</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>3655</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A5" s="5" t="s">
-        <v>3656</v>
+        <v>3662</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>3657</v>
+        <v>3663</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -65642,7 +65674,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5" t="s">
-        <v>3658</v>
+        <v>3664</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>

--- a/TranslateData.xlsx
+++ b/TranslateData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3970" uniqueCount="3665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3973" uniqueCount="3668">
   <si>
     <t>English</t>
   </si>
@@ -13465,6 +13465,15 @@
   </si>
   <si>
     <t>電波になり、自由に移動しよう</t>
+  </si>
+  <si>
+    <t>VultureButtonName</t>
+  </si>
+  <si>
+    <t>Eat</t>
+  </si>
+  <si>
+    <t>喰べる</t>
   </si>
   <si>
     <t>WelcomeMessage1</t>
@@ -26442,8 +26451,8 @@
   <sheetPr/>
   <dimension ref="A1:AJ856"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B655" workbookViewId="0">
-      <selection activeCell="M661" sqref="M661"/>
+    <sheetView tabSelected="1" topLeftCell="B653" workbookViewId="0">
+      <selection activeCell="M663" sqref="M663"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="18"/>
@@ -56906,8 +56915,13 @@
       <c r="AI662" s="20"/>
       <c r="AJ662" s="20"/>
     </row>
-    <row r="663" ht="18.75" customHeight="1" spans="2:36">
-      <c r="B663" s="21"/>
+    <row r="663" ht="18.75" customHeight="1" spans="1:36">
+      <c r="A663" s="16" t="s">
+        <v>3541</v>
+      </c>
+      <c r="B663" s="21" t="s">
+        <v>3542</v>
+      </c>
       <c r="C663" s="20"/>
       <c r="D663" s="20"/>
       <c r="E663" s="20"/>
@@ -56918,7 +56932,9 @@
       <c r="J663" s="20"/>
       <c r="K663" s="20"/>
       <c r="L663" s="20"/>
-      <c r="M663" s="20"/>
+      <c r="M663" s="20" t="s">
+        <v>3543</v>
+      </c>
       <c r="N663" s="20"/>
       <c r="O663" s="7"/>
       <c r="P663" s="20"/>
@@ -64175,332 +64191,332 @@
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:15">
       <c r="A2" s="9" t="s">
-        <v>3541</v>
+        <v>3544</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>3542</v>
+        <v>3545</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>3543</v>
+        <v>3546</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>3544</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:15">
       <c r="A3" s="9" t="s">
-        <v>3545</v>
+        <v>3548</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>3546</v>
+        <v>3549</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>3547</v>
+        <v>3550</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>3548</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:15">
       <c r="A4" s="9" t="s">
-        <v>3549</v>
+        <v>3552</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>3550</v>
+        <v>3553</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>3551</v>
+        <v>3554</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>3552</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:15">
       <c r="A5" s="9" t="s">
-        <v>3553</v>
+        <v>3556</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>3554</v>
+        <v>3557</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>3555</v>
+        <v>3558</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>3556</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:15">
       <c r="A6" s="9" t="s">
-        <v>3557</v>
+        <v>3560</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>3558</v>
+        <v>3561</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>3559</v>
+        <v>3562</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>3560</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:15">
       <c r="A7" s="9" t="s">
-        <v>3561</v>
+        <v>3564</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>3562</v>
+        <v>3565</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>3563</v>
+        <v>3566</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>3564</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:15">
       <c r="A8" s="9" t="s">
-        <v>3565</v>
+        <v>3568</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>3566</v>
+        <v>3569</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>3567</v>
+        <v>3570</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>3568</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1" spans="1:15">
       <c r="A9" s="9" t="s">
-        <v>3569</v>
+        <v>3572</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>3570</v>
+        <v>3573</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>3571</v>
+        <v>3574</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>3572</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1" spans="1:15">
       <c r="A10" s="9" t="s">
-        <v>3573</v>
+        <v>3576</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>3574</v>
+        <v>3577</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>3575</v>
+        <v>3578</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>3576</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1" spans="1:15">
       <c r="A11" s="9" t="s">
-        <v>3577</v>
+        <v>3580</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>3578</v>
+        <v>3581</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>3579</v>
+        <v>3582</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>3580</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1" spans="1:15">
       <c r="A12" s="9" t="s">
-        <v>3581</v>
+        <v>3584</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>3582</v>
+        <v>3585</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>3583</v>
+        <v>3586</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>3584</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1" spans="1:15">
       <c r="A13" s="9" t="s">
-        <v>3585</v>
+        <v>3588</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>3586</v>
+        <v>3589</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>3587</v>
+        <v>3590</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>3588</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1" spans="1:15">
       <c r="A14" s="9" t="s">
-        <v>3589</v>
+        <v>3592</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>3590</v>
+        <v>3593</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>3591</v>
+        <v>3594</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>3592</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="15" ht="18.75" customHeight="1" spans="1:15">
       <c r="A15" s="9" t="s">
-        <v>3593</v>
+        <v>3596</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>3594</v>
+        <v>3597</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>3595</v>
+        <v>3598</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>3596</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="16" ht="18.75" customHeight="1" spans="1:15">
       <c r="A16" s="9" t="s">
-        <v>3597</v>
+        <v>3600</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>3598</v>
+        <v>3601</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>3599</v>
+        <v>3602</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>3600</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="1" spans="1:15">
       <c r="A17" s="9" t="s">
-        <v>3601</v>
+        <v>3604</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>3602</v>
+        <v>3605</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>3603</v>
+        <v>3606</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>3604</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="18" ht="18.75" customHeight="1" spans="1:15">
       <c r="A18" s="9" t="s">
-        <v>3605</v>
+        <v>3608</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>3606</v>
+        <v>3609</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>3607</v>
+        <v>3610</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>3608</v>
+        <v>3611</v>
       </c>
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="1:15">
       <c r="A19" s="9" t="s">
-        <v>3609</v>
+        <v>3612</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>3610</v>
+        <v>3613</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>3611</v>
+        <v>3614</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>3612</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="1" spans="1:15">
       <c r="A20" s="9" t="s">
-        <v>3613</v>
+        <v>3616</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>3614</v>
+        <v>3617</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>3615</v>
+        <v>3618</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>3616</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="1" spans="1:15">
       <c r="A21" s="9" t="s">
-        <v>3617</v>
+        <v>3620</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>3618</v>
+        <v>3621</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>3619</v>
+        <v>3622</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>3620</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="1" spans="1:15">
       <c r="A22" s="9" t="s">
-        <v>3621</v>
+        <v>3624</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>3622</v>
+        <v>3625</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>3623</v>
+        <v>3626</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>3624</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1" spans="1:15">
       <c r="A23" s="9" t="s">
-        <v>3625</v>
+        <v>3628</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>3626</v>
+        <v>3629</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>3627</v>
+        <v>3630</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>3628</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="1" spans="1:15">
       <c r="A24" s="9" t="s">
-        <v>3629</v>
+        <v>3632</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>3629</v>
+        <v>3632</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>3630</v>
+        <v>3633</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>3631</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="25" ht="18.75" customHeight="1" spans="1:15">
       <c r="A25" s="9" t="s">
-        <v>3632</v>
+        <v>3635</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>3633</v>
+        <v>3636</v>
       </c>
       <c r="M25" s="9" t="s">
         <v>59</v>
@@ -64511,53 +64527,53 @@
     </row>
     <row r="26" ht="18.75" customHeight="1" spans="1:15">
       <c r="A26" s="9" t="s">
-        <v>3634</v>
+        <v>3637</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>3635</v>
+        <v>3638</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>3636</v>
+        <v>3639</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>3637</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="27" ht="18.75" customHeight="1" spans="1:15">
       <c r="A27" s="9" t="s">
-        <v>3638</v>
+        <v>3641</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>3639</v>
+        <v>3642</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>3640</v>
+        <v>3643</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>3641</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="28" ht="18.75" customHeight="1"/>
     <row r="29" ht="18.75" customHeight="1" spans="1:15">
       <c r="A29" s="9" t="s">
-        <v>3642</v>
+        <v>3645</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>3643</v>
+        <v>3646</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>3644</v>
+        <v>3647</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>3645</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="30" ht="96" customHeight="1" spans="1:17">
       <c r="A30" s="11" t="s">
-        <v>3646</v>
+        <v>3649</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>3647</v>
+        <v>3650</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -64570,11 +64586,11 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="12" t="s">
-        <v>3648</v>
+        <v>3651</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="14" t="s">
-        <v>3649</v>
+        <v>3652</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -65603,24 +65619,24 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>3650</v>
+        <v>3653</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3651</v>
+        <v>3654</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>3652</v>
+        <v>3655</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>3653</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A3" s="3" t="s">
-        <v>3654</v>
+        <v>3657</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3655</v>
+        <v>3658</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -65633,35 +65649,35 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5" t="s">
-        <v>3656</v>
+        <v>3659</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5" t="s">
-        <v>3657</v>
+        <v>3660</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>3658</v>
+        <v>3661</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3659</v>
+        <v>3662</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>3660</v>
+        <v>3663</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>3661</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A5" s="5" t="s">
-        <v>3662</v>
+        <v>3665</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>3663</v>
+        <v>3666</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -65674,7 +65690,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5" t="s">
-        <v>3664</v>
+        <v>3667</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>

--- a/TranslateData.xlsx
+++ b/TranslateData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06-Program\AmongUs_Mod_Development\SNR_KT\SuperNewRoles_KT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A45BE7D-F7AD-4D19-8C33-6352678EB0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236236F9-D264-4F52-A29E-A9529F236113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2573" yWindow="2573" windowWidth="8550" windowHeight="9532" tabRatio="500" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16207" yWindow="4710" windowWidth="8551" windowHeight="9533" tabRatio="500" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4024" uniqueCount="3717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4132" uniqueCount="3760">
   <si>
     <t>English</t>
   </si>
@@ -14172,7 +14172,141 @@
     <t>フレンズ系をキルできる</t>
   </si>
   <si>
+    <t>KnightName</t>
+  </si>
+  <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>騎士</t>
+  </si>
+  <si>
+    <t>骑士</t>
+  </si>
+  <si>
+    <t>KnightTitle1</t>
+  </si>
+  <si>
+    <t>I will protect you according to my beliefs.</t>
+  </si>
+  <si>
+    <t>我が信念に沿って護衛しよう</t>
+  </si>
+  <si>
+    <t>我将根据我的信念来保护。</t>
+  </si>
+  <si>
+    <t>KnightDescription</t>
+  </si>
+  <si>
+    <t>在会议阶段使用 "保护 "按钮，你可以竖起一个防护罩，防止被杀。 如果保护设置成功，在下一个会议阶段开始时将播放保护成功的公告。</t>
+  </si>
+  <si>
+    <t>KnightCanAnnounceOfProtected</t>
+  </si>
+  <si>
+    <t>Play an announcement when the protection is successful?</t>
+  </si>
+  <si>
+    <t>護衛成功時にアナウンスを流すか</t>
+  </si>
+  <si>
+    <t>您是否希望在保护成功后得到通知？</t>
+  </si>
+  <si>
+    <t>KnightSetTheUpperLimitOfTheGuarding</t>
+  </si>
+  <si>
+    <t>Do you want to set a limit on the number of protections?</t>
+  </si>
+  <si>
+    <t>護衛回数に上限を設けるか</t>
+  </si>
+  <si>
+    <t>你想为你的保护次数设置一个上限吗？</t>
+  </si>
+  <si>
+    <t>KnightMaximumNumberOfTimes</t>
+  </si>
+  <si>
+    <t>Maximum number of times protection is possible.</t>
+  </si>
+  <si>
+    <t>護衛上限回数</t>
+  </si>
+  <si>
+    <t>可能的最大保护次数。</t>
+  </si>
+  <si>
+    <t>TheKnightProtected</t>
+  </si>
+  <si>
+    <t>The knight's protection was successful.</t>
+  </si>
+  <si>
+    <t>騎士の護衛が成功しました。</t>
+  </si>
+  <si>
+    <t>骑士的护送是成功的。</t>
+  </si>
+  <si>
+    <t>KnightProtectButton</t>
+  </si>
+  <si>
+    <t>Protect</t>
+  </si>
+  <si>
+    <t>護衛</t>
+  </si>
+  <si>
+    <t>保护</t>
+  </si>
+  <si>
+    <t>WerewolfName</t>
+  </si>
+  <si>
+    <t>WerewolfTitle1</t>
+  </si>
+  <si>
+    <t>Let's kill a villager!</t>
+  </si>
+  <si>
+    <t>村人をキルしよう</t>
+  </si>
+  <si>
+    <t>During the conference phase, you can put up a shield to prevent one kill by using the protect button.
+If the protection is successful, a successful protection announcement will be played at the beginning of the next meeting phase.</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>会議フェイズ中に護衛ボタンを使用する事で、キルを一回防ぐシールドを張ることができます。
+設定により護衛が成功した際、次の会議フェイズ開始時に護衛成功アナウンスが流れます。</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>WerewolfModeName</t>
+  </si>
+  <si>
+    <t>WerewolfAbilityTimeSetting</t>
+  </si>
+  <si>
+    <t>Ability Time</t>
+  </si>
+  <si>
+    <t>能力使用タイム</t>
+  </si>
+  <si>
+    <t>WerewolfAbilityTime</t>
+  </si>
+  <si>
+    <t>{0} seconds remaining until the end of the ability use time</t>
+  </si>
+  <si>
+    <t>能力使用タイムが終了するまで残り{0}秒</t>
+  </si>
+  <si>
     <t>SheriffIsKillQuarreledSetting</t>
+    <phoneticPr fontId="31"/>
   </si>
   <si>
     <t>Can kill a quarreled</t>
@@ -14185,7 +14319,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -14376,6 +14510,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -26157,10 +26297,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AJ857"/>
+  <dimension ref="A1:AJ858"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A663" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B670" sqref="B670"/>
+    <sheetView tabSelected="1" topLeftCell="A679" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A693" sqref="A693"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="17.649999999999999"/>
@@ -57194,11 +57334,11 @@
       <c r="Q679"/>
     </row>
     <row r="680" spans="1:36" ht="18.75" customHeight="1">
-      <c r="A680" s="54" t="s">
-        <v>3714</v>
+      <c r="A680" s="19" t="s">
+        <v>3757</v>
       </c>
       <c r="B680" t="s">
-        <v>3715</v>
+        <v>3758</v>
       </c>
       <c r="C680"/>
       <c r="D680"/>
@@ -57211,52 +57351,46 @@
       <c r="K680"/>
       <c r="L680"/>
       <c r="M680" t="s">
-        <v>3716</v>
+        <v>3759</v>
       </c>
       <c r="N680"/>
       <c r="P680"/>
       <c r="Q680"/>
     </row>
-    <row r="681" spans="1:36" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A681" s="19"/>
-      <c r="B681" s="13"/>
-      <c r="C681" s="17"/>
-      <c r="D681" s="17"/>
-      <c r="E681" s="17"/>
-      <c r="F681" s="17"/>
-      <c r="G681" s="17"/>
-      <c r="H681" s="17"/>
-      <c r="I681" s="17"/>
-      <c r="J681" s="17"/>
-      <c r="K681" s="17"/>
-      <c r="L681" s="17"/>
-      <c r="M681" s="17"/>
-      <c r="N681" s="17"/>
-      <c r="O681" s="21"/>
-      <c r="P681" s="17"/>
-      <c r="Q681" s="17"/>
-      <c r="R681" s="17"/>
-      <c r="S681" s="17"/>
-      <c r="T681" s="17"/>
-      <c r="U681" s="17"/>
-      <c r="V681" s="17"/>
-      <c r="W681" s="17"/>
-      <c r="X681" s="17"/>
-      <c r="Y681" s="17"/>
-      <c r="Z681" s="17"/>
-      <c r="AA681" s="17"/>
-      <c r="AB681" s="17"/>
-      <c r="AC681" s="17"/>
-      <c r="AD681" s="17"/>
-      <c r="AE681" s="17"/>
-      <c r="AF681" s="17"/>
-      <c r="AG681" s="17"/>
-      <c r="AH681" s="17"/>
-      <c r="AI681" s="17"/>
-      <c r="AJ681" s="17"/>
-    </row>
-    <row r="682" spans="1:36" ht="18.75" customHeight="1">
-      <c r="B682" s="13"/>
+    <row r="681" spans="1:36" ht="18.75" customHeight="1">
+      <c r="A681" s="54" t="s">
+        <v>3714</v>
+      </c>
+      <c r="B681" t="s">
+        <v>3715</v>
+      </c>
+      <c r="C681"/>
+      <c r="D681"/>
+      <c r="E681"/>
+      <c r="F681"/>
+      <c r="G681"/>
+      <c r="H681"/>
+      <c r="I681"/>
+      <c r="J681"/>
+      <c r="K681"/>
+      <c r="L681"/>
+      <c r="M681" t="s">
+        <v>3716</v>
+      </c>
+      <c r="N681"/>
+      <c r="O681" s="1" t="s">
+        <v>3717</v>
+      </c>
+      <c r="P681"/>
+      <c r="Q681"/>
+    </row>
+    <row r="682" spans="1:36" s="1" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A682" s="19" t="s">
+        <v>3718</v>
+      </c>
+      <c r="B682" s="13" t="s">
+        <v>3719</v>
+      </c>
       <c r="C682" s="17"/>
       <c r="D682" s="17"/>
       <c r="E682" s="17"/>
@@ -57267,9 +57401,13 @@
       <c r="J682" s="17"/>
       <c r="K682" s="17"/>
       <c r="L682" s="17"/>
-      <c r="M682" s="17"/>
+      <c r="M682" s="17" t="s">
+        <v>3720</v>
+      </c>
       <c r="N682" s="17"/>
-      <c r="O682" s="21"/>
+      <c r="O682" s="21" t="s">
+        <v>3721</v>
+      </c>
       <c r="P682" s="17"/>
       <c r="Q682" s="17"/>
       <c r="R682" s="17"/>
@@ -57293,7 +57431,12 @@
       <c r="AJ682" s="17"/>
     </row>
     <row r="683" spans="1:36" ht="18.75" customHeight="1">
-      <c r="B683" s="13"/>
+      <c r="A683" s="19" t="s">
+        <v>3722</v>
+      </c>
+      <c r="B683" s="20" t="s">
+        <v>3748</v>
+      </c>
       <c r="C683" s="17"/>
       <c r="D683" s="17"/>
       <c r="E683" s="17"/>
@@ -57304,9 +57447,13 @@
       <c r="J683" s="17"/>
       <c r="K683" s="17"/>
       <c r="L683" s="17"/>
-      <c r="M683" s="17"/>
+      <c r="M683" s="20" t="s">
+        <v>3749</v>
+      </c>
       <c r="N683" s="17"/>
-      <c r="O683" s="21"/>
+      <c r="O683" s="21" t="s">
+        <v>3723</v>
+      </c>
       <c r="P683" s="17"/>
       <c r="Q683" s="17"/>
       <c r="R683" s="17"/>
@@ -57330,7 +57477,12 @@
       <c r="AJ683" s="17"/>
     </row>
     <row r="684" spans="1:36" ht="18.75" customHeight="1">
-      <c r="B684" s="13"/>
+      <c r="A684" s="19" t="s">
+        <v>3724</v>
+      </c>
+      <c r="B684" s="13" t="s">
+        <v>3725</v>
+      </c>
       <c r="C684" s="17"/>
       <c r="D684" s="17"/>
       <c r="E684" s="17"/>
@@ -57341,9 +57493,13 @@
       <c r="J684" s="17"/>
       <c r="K684" s="17"/>
       <c r="L684" s="17"/>
-      <c r="M684" s="17"/>
+      <c r="M684" s="17" t="s">
+        <v>3726</v>
+      </c>
       <c r="N684" s="17"/>
-      <c r="O684" s="21"/>
+      <c r="O684" s="21" t="s">
+        <v>3727</v>
+      </c>
       <c r="P684" s="17"/>
       <c r="Q684" s="17"/>
       <c r="R684" s="17"/>
@@ -57367,7 +57523,12 @@
       <c r="AJ684" s="17"/>
     </row>
     <row r="685" spans="1:36" ht="18.75" customHeight="1">
-      <c r="B685" s="13"/>
+      <c r="A685" s="19" t="s">
+        <v>3728</v>
+      </c>
+      <c r="B685" s="13" t="s">
+        <v>3729</v>
+      </c>
       <c r="C685" s="17"/>
       <c r="D685" s="17"/>
       <c r="E685" s="17"/>
@@ -57378,9 +57539,13 @@
       <c r="J685" s="17"/>
       <c r="K685" s="17"/>
       <c r="L685" s="17"/>
-      <c r="M685" s="17"/>
+      <c r="M685" s="17" t="s">
+        <v>3730</v>
+      </c>
       <c r="N685" s="17"/>
-      <c r="O685" s="21"/>
+      <c r="O685" s="21" t="s">
+        <v>3731</v>
+      </c>
       <c r="P685" s="17"/>
       <c r="Q685" s="17"/>
       <c r="R685" s="17"/>
@@ -57404,7 +57569,12 @@
       <c r="AJ685" s="17"/>
     </row>
     <row r="686" spans="1:36" ht="18.75" customHeight="1">
-      <c r="B686" s="13"/>
+      <c r="A686" s="19" t="s">
+        <v>3732</v>
+      </c>
+      <c r="B686" s="13" t="s">
+        <v>3733</v>
+      </c>
       <c r="C686" s="17"/>
       <c r="D686" s="17"/>
       <c r="E686" s="17"/>
@@ -57415,9 +57585,13 @@
       <c r="J686" s="17"/>
       <c r="K686" s="17"/>
       <c r="L686" s="17"/>
-      <c r="M686" s="17"/>
+      <c r="M686" s="17" t="s">
+        <v>3734</v>
+      </c>
       <c r="N686" s="17"/>
-      <c r="O686" s="21"/>
+      <c r="O686" s="21" t="s">
+        <v>3735</v>
+      </c>
       <c r="P686" s="17"/>
       <c r="Q686" s="17"/>
       <c r="R686" s="17"/>
@@ -57441,7 +57615,12 @@
       <c r="AJ686" s="17"/>
     </row>
     <row r="687" spans="1:36" ht="18.75" customHeight="1">
-      <c r="B687" s="13"/>
+      <c r="A687" s="19" t="s">
+        <v>3736</v>
+      </c>
+      <c r="B687" s="13" t="s">
+        <v>3737</v>
+      </c>
       <c r="C687" s="17"/>
       <c r="D687" s="17"/>
       <c r="E687" s="17"/>
@@ -57452,9 +57631,13 @@
       <c r="J687" s="17"/>
       <c r="K687" s="17"/>
       <c r="L687" s="17"/>
-      <c r="M687" s="17"/>
+      <c r="M687" s="17" t="s">
+        <v>3738</v>
+      </c>
       <c r="N687" s="17"/>
-      <c r="O687" s="21"/>
+      <c r="O687" s="21" t="s">
+        <v>3739</v>
+      </c>
       <c r="P687" s="17"/>
       <c r="Q687" s="17"/>
       <c r="R687" s="17"/>
@@ -57478,7 +57661,12 @@
       <c r="AJ687" s="17"/>
     </row>
     <row r="688" spans="1:36" ht="18.75" customHeight="1">
-      <c r="B688" s="13"/>
+      <c r="A688" s="19" t="s">
+        <v>3740</v>
+      </c>
+      <c r="B688" s="13" t="s">
+        <v>3741</v>
+      </c>
       <c r="C688" s="17"/>
       <c r="D688" s="17"/>
       <c r="E688" s="17"/>
@@ -57489,9 +57677,13 @@
       <c r="J688" s="17"/>
       <c r="K688" s="17"/>
       <c r="L688" s="17"/>
-      <c r="M688" s="17"/>
+      <c r="M688" s="17" t="s">
+        <v>3742</v>
+      </c>
       <c r="N688" s="17"/>
-      <c r="O688" s="21"/>
+      <c r="O688" s="21" t="s">
+        <v>3743</v>
+      </c>
       <c r="P688" s="17"/>
       <c r="Q688" s="17"/>
       <c r="R688" s="17"/>
@@ -57514,8 +57706,13 @@
       <c r="AI688" s="17"/>
       <c r="AJ688" s="17"/>
     </row>
-    <row r="689" spans="2:36" ht="18.75" customHeight="1">
-      <c r="B689" s="13"/>
+    <row r="689" spans="1:36" ht="18.75" customHeight="1">
+      <c r="A689" s="19" t="s">
+        <v>3744</v>
+      </c>
+      <c r="B689" s="13" t="s">
+        <v>972</v>
+      </c>
       <c r="C689" s="17"/>
       <c r="D689" s="17"/>
       <c r="E689" s="17"/>
@@ -57526,9 +57723,13 @@
       <c r="J689" s="17"/>
       <c r="K689" s="17"/>
       <c r="L689" s="17"/>
-      <c r="M689" s="17"/>
+      <c r="M689" s="17" t="s">
+        <v>973</v>
+      </c>
       <c r="N689" s="17"/>
-      <c r="O689" s="21"/>
+      <c r="O689" s="21" t="s">
+        <v>973</v>
+      </c>
       <c r="P689" s="17"/>
       <c r="Q689" s="17"/>
       <c r="R689" s="17"/>
@@ -57551,8 +57752,13 @@
       <c r="AI689" s="17"/>
       <c r="AJ689" s="17"/>
     </row>
-    <row r="690" spans="2:36" ht="18.75" customHeight="1">
-      <c r="B690" s="13"/>
+    <row r="690" spans="1:36" ht="18.75" customHeight="1">
+      <c r="A690" s="19" t="s">
+        <v>3745</v>
+      </c>
+      <c r="B690" s="13" t="s">
+        <v>3746</v>
+      </c>
       <c r="C690" s="17"/>
       <c r="D690" s="17"/>
       <c r="E690" s="17"/>
@@ -57563,7 +57769,9 @@
       <c r="J690" s="17"/>
       <c r="K690" s="17"/>
       <c r="L690" s="17"/>
-      <c r="M690" s="17"/>
+      <c r="M690" s="17" t="s">
+        <v>3747</v>
+      </c>
       <c r="N690" s="17"/>
       <c r="O690" s="21"/>
       <c r="P690" s="17"/>
@@ -57588,8 +57796,13 @@
       <c r="AI690" s="17"/>
       <c r="AJ690" s="17"/>
     </row>
-    <row r="691" spans="2:36" ht="18.75" customHeight="1">
-      <c r="B691" s="13"/>
+    <row r="691" spans="1:36" ht="18.75" customHeight="1">
+      <c r="A691" s="19" t="s">
+        <v>963</v>
+      </c>
+      <c r="B691" s="13" t="s">
+        <v>964</v>
+      </c>
       <c r="C691" s="17"/>
       <c r="D691" s="17"/>
       <c r="E691" s="17"/>
@@ -57600,9 +57813,13 @@
       <c r="J691" s="17"/>
       <c r="K691" s="17"/>
       <c r="L691" s="17"/>
-      <c r="M691" s="17"/>
+      <c r="M691" s="17" t="s">
+        <v>965</v>
+      </c>
       <c r="N691" s="17"/>
-      <c r="O691" s="21"/>
+      <c r="O691" s="21" t="s">
+        <v>966</v>
+      </c>
       <c r="P691" s="17"/>
       <c r="Q691" s="17"/>
       <c r="R691" s="17"/>
@@ -57625,8 +57842,13 @@
       <c r="AI691" s="17"/>
       <c r="AJ691" s="17"/>
     </row>
-    <row r="692" spans="2:36" ht="18.75" customHeight="1">
-      <c r="B692" s="13"/>
+    <row r="692" spans="1:36" ht="18.75" customHeight="1">
+      <c r="A692" s="19" t="s">
+        <v>967</v>
+      </c>
+      <c r="B692" s="13" t="s">
+        <v>968</v>
+      </c>
       <c r="C692" s="17"/>
       <c r="D692" s="17"/>
       <c r="E692" s="17"/>
@@ -57637,9 +57859,13 @@
       <c r="J692" s="17"/>
       <c r="K692" s="17"/>
       <c r="L692" s="17"/>
-      <c r="M692" s="17"/>
+      <c r="M692" s="17" t="s">
+        <v>969</v>
+      </c>
       <c r="N692" s="17"/>
-      <c r="O692" s="21"/>
+      <c r="O692" s="21" t="s">
+        <v>970</v>
+      </c>
       <c r="P692" s="17"/>
       <c r="Q692" s="17"/>
       <c r="R692" s="17"/>
@@ -57662,8 +57888,13 @@
       <c r="AI692" s="17"/>
       <c r="AJ692" s="17"/>
     </row>
-    <row r="693" spans="2:36" ht="18.75" customHeight="1">
-      <c r="B693" s="13"/>
+    <row r="693" spans="1:36" ht="18.75" customHeight="1">
+      <c r="A693" s="19" t="s">
+        <v>971</v>
+      </c>
+      <c r="B693" s="13" t="s">
+        <v>972</v>
+      </c>
       <c r="C693" s="17"/>
       <c r="D693" s="17"/>
       <c r="E693" s="17"/>
@@ -57674,9 +57905,13 @@
       <c r="J693" s="17"/>
       <c r="K693" s="17"/>
       <c r="L693" s="17"/>
-      <c r="M693" s="17"/>
+      <c r="M693" s="17" t="s">
+        <v>973</v>
+      </c>
       <c r="N693" s="17"/>
-      <c r="O693" s="21"/>
+      <c r="O693" s="21" t="s">
+        <v>974</v>
+      </c>
       <c r="P693" s="17"/>
       <c r="Q693" s="17"/>
       <c r="R693" s="17"/>
@@ -57699,8 +57934,13 @@
       <c r="AI693" s="17"/>
       <c r="AJ693" s="17"/>
     </row>
-    <row r="694" spans="2:36" ht="18.75" customHeight="1">
-      <c r="B694" s="13"/>
+    <row r="694" spans="1:36" ht="18.75" customHeight="1">
+      <c r="A694" s="19" t="s">
+        <v>975</v>
+      </c>
+      <c r="B694" s="13" t="s">
+        <v>976</v>
+      </c>
       <c r="C694" s="17"/>
       <c r="D694" s="17"/>
       <c r="E694" s="17"/>
@@ -57711,9 +57951,13 @@
       <c r="J694" s="17"/>
       <c r="K694" s="17"/>
       <c r="L694" s="17"/>
-      <c r="M694" s="17"/>
+      <c r="M694" s="17" t="s">
+        <v>977</v>
+      </c>
       <c r="N694" s="17"/>
-      <c r="O694" s="21"/>
+      <c r="O694" s="21" t="s">
+        <v>978</v>
+      </c>
       <c r="P694" s="17"/>
       <c r="Q694" s="17"/>
       <c r="R694" s="17"/>
@@ -57736,8 +57980,13 @@
       <c r="AI694" s="17"/>
       <c r="AJ694" s="17"/>
     </row>
-    <row r="695" spans="2:36" ht="18.75" customHeight="1">
-      <c r="B695" s="13"/>
+    <row r="695" spans="1:36" ht="18.75" customHeight="1">
+      <c r="A695" s="19" t="s">
+        <v>979</v>
+      </c>
+      <c r="B695" s="13" t="s">
+        <v>980</v>
+      </c>
       <c r="C695" s="17"/>
       <c r="D695" s="17"/>
       <c r="E695" s="17"/>
@@ -57748,9 +57997,13 @@
       <c r="J695" s="17"/>
       <c r="K695" s="17"/>
       <c r="L695" s="17"/>
-      <c r="M695" s="17"/>
+      <c r="M695" s="17" t="s">
+        <v>981</v>
+      </c>
       <c r="N695" s="17"/>
-      <c r="O695" s="21"/>
+      <c r="O695" s="21" t="s">
+        <v>982</v>
+      </c>
       <c r="P695" s="17"/>
       <c r="Q695" s="17"/>
       <c r="R695" s="17"/>
@@ -57773,8 +58026,13 @@
       <c r="AI695" s="17"/>
       <c r="AJ695" s="17"/>
     </row>
-    <row r="696" spans="2:36" ht="18.75" customHeight="1">
-      <c r="B696" s="13"/>
+    <row r="696" spans="1:36" ht="18.75" customHeight="1">
+      <c r="A696" s="19" t="s">
+        <v>983</v>
+      </c>
+      <c r="B696" s="13" t="s">
+        <v>984</v>
+      </c>
       <c r="C696" s="17"/>
       <c r="D696" s="17"/>
       <c r="E696" s="17"/>
@@ -57785,9 +58043,13 @@
       <c r="J696" s="17"/>
       <c r="K696" s="17"/>
       <c r="L696" s="17"/>
-      <c r="M696" s="17"/>
+      <c r="M696" s="17" t="s">
+        <v>985</v>
+      </c>
       <c r="N696" s="17"/>
-      <c r="O696" s="21"/>
+      <c r="O696" s="21" t="s">
+        <v>986</v>
+      </c>
       <c r="P696" s="17"/>
       <c r="Q696" s="17"/>
       <c r="R696" s="17"/>
@@ -57810,8 +58072,13 @@
       <c r="AI696" s="17"/>
       <c r="AJ696" s="17"/>
     </row>
-    <row r="697" spans="2:36" ht="18.75" customHeight="1">
-      <c r="B697" s="13"/>
+    <row r="697" spans="1:36" ht="18.75" customHeight="1">
+      <c r="A697" s="19" t="s">
+        <v>987</v>
+      </c>
+      <c r="B697" s="13" t="s">
+        <v>988</v>
+      </c>
       <c r="C697" s="17"/>
       <c r="D697" s="17"/>
       <c r="E697" s="17"/>
@@ -57822,9 +58089,13 @@
       <c r="J697" s="17"/>
       <c r="K697" s="17"/>
       <c r="L697" s="17"/>
-      <c r="M697" s="17"/>
+      <c r="M697" s="17" t="s">
+        <v>989</v>
+      </c>
       <c r="N697" s="17"/>
-      <c r="O697" s="21"/>
+      <c r="O697" s="21" t="s">
+        <v>989</v>
+      </c>
       <c r="P697" s="17"/>
       <c r="Q697" s="17"/>
       <c r="R697" s="17"/>
@@ -57847,8 +58118,13 @@
       <c r="AI697" s="17"/>
       <c r="AJ697" s="17"/>
     </row>
-    <row r="698" spans="2:36" ht="18.75" customHeight="1">
-      <c r="B698" s="13"/>
+    <row r="698" spans="1:36" ht="18.75" customHeight="1">
+      <c r="A698" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="B698" s="13" t="s">
+        <v>991</v>
+      </c>
       <c r="C698" s="17"/>
       <c r="D698" s="17"/>
       <c r="E698" s="17"/>
@@ -57859,9 +58135,13 @@
       <c r="J698" s="17"/>
       <c r="K698" s="17"/>
       <c r="L698" s="17"/>
-      <c r="M698" s="17"/>
+      <c r="M698" s="17" t="s">
+        <v>992</v>
+      </c>
       <c r="N698" s="17"/>
-      <c r="O698" s="21"/>
+      <c r="O698" s="21" t="s">
+        <v>993</v>
+      </c>
       <c r="P698" s="17"/>
       <c r="Q698" s="17"/>
       <c r="R698" s="17"/>
@@ -57884,8 +58164,13 @@
       <c r="AI698" s="17"/>
       <c r="AJ698" s="17"/>
     </row>
-    <row r="699" spans="2:36" ht="18.75" customHeight="1">
-      <c r="B699" s="13"/>
+    <row r="699" spans="1:36" ht="18.75" customHeight="1">
+      <c r="A699" s="19" t="s">
+        <v>994</v>
+      </c>
+      <c r="B699" s="13" t="s">
+        <v>995</v>
+      </c>
       <c r="C699" s="17"/>
       <c r="D699" s="17"/>
       <c r="E699" s="17"/>
@@ -57896,9 +58181,13 @@
       <c r="J699" s="17"/>
       <c r="K699" s="17"/>
       <c r="L699" s="17"/>
-      <c r="M699" s="17"/>
+      <c r="M699" s="17" t="s">
+        <v>996</v>
+      </c>
       <c r="N699" s="17"/>
-      <c r="O699" s="21"/>
+      <c r="O699" s="21" t="s">
+        <v>997</v>
+      </c>
       <c r="P699" s="17"/>
       <c r="Q699" s="17"/>
       <c r="R699" s="17"/>
@@ -57921,8 +58210,13 @@
       <c r="AI699" s="17"/>
       <c r="AJ699" s="17"/>
     </row>
-    <row r="700" spans="2:36" ht="18.75" customHeight="1">
-      <c r="B700" s="13"/>
+    <row r="700" spans="1:36" ht="18.75" customHeight="1">
+      <c r="A700" s="19" t="s">
+        <v>998</v>
+      </c>
+      <c r="B700" s="13" t="s">
+        <v>999</v>
+      </c>
       <c r="C700" s="17"/>
       <c r="D700" s="17"/>
       <c r="E700" s="17"/>
@@ -57933,9 +58227,13 @@
       <c r="J700" s="17"/>
       <c r="K700" s="17"/>
       <c r="L700" s="17"/>
-      <c r="M700" s="17"/>
+      <c r="M700" s="17" t="s">
+        <v>1000</v>
+      </c>
       <c r="N700" s="17"/>
-      <c r="O700" s="21"/>
+      <c r="O700" s="21" t="s">
+        <v>1001</v>
+      </c>
       <c r="P700" s="17"/>
       <c r="Q700" s="17"/>
       <c r="R700" s="17"/>
@@ -57958,8 +58256,13 @@
       <c r="AI700" s="17"/>
       <c r="AJ700" s="17"/>
     </row>
-    <row r="701" spans="2:36" ht="18.75" customHeight="1">
-      <c r="B701" s="13"/>
+    <row r="701" spans="1:36" ht="18.75" customHeight="1">
+      <c r="A701" s="19" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B701" s="13" t="s">
+        <v>1003</v>
+      </c>
       <c r="C701" s="17"/>
       <c r="D701" s="17"/>
       <c r="E701" s="17"/>
@@ -57970,9 +58273,13 @@
       <c r="J701" s="17"/>
       <c r="K701" s="17"/>
       <c r="L701" s="17"/>
-      <c r="M701" s="17"/>
+      <c r="M701" s="17" t="s">
+        <v>1004</v>
+      </c>
       <c r="N701" s="17"/>
-      <c r="O701" s="21"/>
+      <c r="O701" s="21" t="s">
+        <v>1005</v>
+      </c>
       <c r="P701" s="17"/>
       <c r="Q701" s="17"/>
       <c r="R701" s="17"/>
@@ -57995,8 +58302,13 @@
       <c r="AI701" s="17"/>
       <c r="AJ701" s="17"/>
     </row>
-    <row r="702" spans="2:36" ht="18.75" customHeight="1">
-      <c r="B702" s="13"/>
+    <row r="702" spans="1:36" ht="18.75" customHeight="1">
+      <c r="A702" s="19" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B702" s="13" t="s">
+        <v>1007</v>
+      </c>
       <c r="C702" s="17"/>
       <c r="D702" s="17"/>
       <c r="E702" s="17"/>
@@ -58007,9 +58319,13 @@
       <c r="J702" s="17"/>
       <c r="K702" s="17"/>
       <c r="L702" s="17"/>
-      <c r="M702" s="17"/>
+      <c r="M702" s="17" t="s">
+        <v>1008</v>
+      </c>
       <c r="N702" s="17"/>
-      <c r="O702" s="21"/>
+      <c r="O702" s="21" t="s">
+        <v>1009</v>
+      </c>
       <c r="P702" s="17"/>
       <c r="Q702" s="17"/>
       <c r="R702" s="17"/>
@@ -58032,8 +58348,13 @@
       <c r="AI702" s="17"/>
       <c r="AJ702" s="17"/>
     </row>
-    <row r="703" spans="2:36" ht="18.75" customHeight="1">
-      <c r="B703" s="13"/>
+    <row r="703" spans="1:36" ht="18.75" customHeight="1">
+      <c r="A703" s="19" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B703" s="13" t="s">
+        <v>1011</v>
+      </c>
       <c r="C703" s="17"/>
       <c r="D703" s="17"/>
       <c r="E703" s="17"/>
@@ -58044,9 +58365,13 @@
       <c r="J703" s="17"/>
       <c r="K703" s="17"/>
       <c r="L703" s="17"/>
-      <c r="M703" s="17"/>
+      <c r="M703" s="17" t="s">
+        <v>1012</v>
+      </c>
       <c r="N703" s="17"/>
-      <c r="O703" s="21"/>
+      <c r="O703" s="21" t="s">
+        <v>1013</v>
+      </c>
       <c r="P703" s="17"/>
       <c r="Q703" s="17"/>
       <c r="R703" s="17"/>
@@ -58069,8 +58394,13 @@
       <c r="AI703" s="17"/>
       <c r="AJ703" s="17"/>
     </row>
-    <row r="704" spans="2:36" ht="18.75" customHeight="1">
-      <c r="B704" s="13"/>
+    <row r="704" spans="1:36" ht="18.75" customHeight="1">
+      <c r="A704" s="19" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B704" s="13" t="s">
+        <v>1015</v>
+      </c>
       <c r="C704" s="17"/>
       <c r="D704" s="17"/>
       <c r="E704" s="17"/>
@@ -58081,9 +58411,13 @@
       <c r="J704" s="17"/>
       <c r="K704" s="17"/>
       <c r="L704" s="17"/>
-      <c r="M704" s="17"/>
+      <c r="M704" s="17" t="s">
+        <v>1016</v>
+      </c>
       <c r="N704" s="17"/>
-      <c r="O704" s="21"/>
+      <c r="O704" s="21" t="s">
+        <v>1017</v>
+      </c>
       <c r="P704" s="17"/>
       <c r="Q704" s="17"/>
       <c r="R704" s="17"/>
@@ -58106,8 +58440,13 @@
       <c r="AI704" s="17"/>
       <c r="AJ704" s="17"/>
     </row>
-    <row r="705" spans="2:36" ht="18.75" customHeight="1">
-      <c r="B705" s="13"/>
+    <row r="705" spans="1:36" ht="18.75" customHeight="1">
+      <c r="A705" s="19" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B705" s="13" t="s">
+        <v>1019</v>
+      </c>
       <c r="C705" s="17"/>
       <c r="D705" s="17"/>
       <c r="E705" s="17"/>
@@ -58118,9 +58457,13 @@
       <c r="J705" s="17"/>
       <c r="K705" s="17"/>
       <c r="L705" s="17"/>
-      <c r="M705" s="17"/>
+      <c r="M705" s="17" t="s">
+        <v>1020</v>
+      </c>
       <c r="N705" s="17"/>
-      <c r="O705" s="21"/>
+      <c r="O705" s="21" t="s">
+        <v>1021</v>
+      </c>
       <c r="P705" s="17"/>
       <c r="Q705" s="17"/>
       <c r="R705" s="17"/>
@@ -58143,8 +58486,13 @@
       <c r="AI705" s="17"/>
       <c r="AJ705" s="17"/>
     </row>
-    <row r="706" spans="2:36" ht="18.75" customHeight="1">
-      <c r="B706" s="13"/>
+    <row r="706" spans="1:36" ht="18.75" customHeight="1">
+      <c r="A706" s="19" t="s">
+        <v>3750</v>
+      </c>
+      <c r="B706" s="13" t="s">
+        <v>972</v>
+      </c>
       <c r="C706" s="17"/>
       <c r="D706" s="17"/>
       <c r="E706" s="17"/>
@@ -58155,7 +58503,9 @@
       <c r="J706" s="17"/>
       <c r="K706" s="17"/>
       <c r="L706" s="17"/>
-      <c r="M706" s="17"/>
+      <c r="M706" s="17" t="s">
+        <v>973</v>
+      </c>
       <c r="N706" s="17"/>
       <c r="O706" s="21"/>
       <c r="P706" s="17"/>
@@ -58180,8 +58530,13 @@
       <c r="AI706" s="17"/>
       <c r="AJ706" s="17"/>
     </row>
-    <row r="707" spans="2:36" ht="18.75" customHeight="1">
-      <c r="B707" s="13"/>
+    <row r="707" spans="1:36" ht="18.75" customHeight="1">
+      <c r="A707" s="19" t="s">
+        <v>3751</v>
+      </c>
+      <c r="B707" s="13" t="s">
+        <v>3752</v>
+      </c>
       <c r="C707" s="17"/>
       <c r="D707" s="17"/>
       <c r="E707" s="17"/>
@@ -58192,7 +58547,9 @@
       <c r="J707" s="17"/>
       <c r="K707" s="17"/>
       <c r="L707" s="17"/>
-      <c r="M707" s="17"/>
+      <c r="M707" s="17" t="s">
+        <v>3753</v>
+      </c>
       <c r="N707" s="17"/>
       <c r="O707" s="21"/>
       <c r="P707" s="17"/>
@@ -58217,8 +58574,13 @@
       <c r="AI707" s="17"/>
       <c r="AJ707" s="17"/>
     </row>
-    <row r="708" spans="2:36" ht="18.75" customHeight="1">
-      <c r="B708" s="13"/>
+    <row r="708" spans="1:36" ht="18.75" customHeight="1">
+      <c r="A708" s="19" t="s">
+        <v>3754</v>
+      </c>
+      <c r="B708" s="13" t="s">
+        <v>3755</v>
+      </c>
       <c r="C708" s="17"/>
       <c r="D708" s="17"/>
       <c r="E708" s="17"/>
@@ -58229,7 +58591,9 @@
       <c r="J708" s="17"/>
       <c r="K708" s="17"/>
       <c r="L708" s="17"/>
-      <c r="M708" s="17"/>
+      <c r="M708" s="17" t="s">
+        <v>3756</v>
+      </c>
       <c r="N708" s="17"/>
       <c r="O708" s="21"/>
       <c r="P708" s="17"/>
@@ -58254,7 +58618,7 @@
       <c r="AI708" s="17"/>
       <c r="AJ708" s="17"/>
     </row>
-    <row r="709" spans="2:36" ht="18.75" customHeight="1">
+    <row r="709" spans="1:36" ht="18.75" customHeight="1">
       <c r="B709" s="13"/>
       <c r="C709" s="17"/>
       <c r="D709" s="17"/>
@@ -58291,7 +58655,7 @@
       <c r="AI709" s="17"/>
       <c r="AJ709" s="17"/>
     </row>
-    <row r="710" spans="2:36" ht="18.75" customHeight="1">
+    <row r="710" spans="1:36" ht="18.75" customHeight="1">
       <c r="B710" s="13"/>
       <c r="C710" s="17"/>
       <c r="D710" s="17"/>
@@ -58328,7 +58692,7 @@
       <c r="AI710" s="17"/>
       <c r="AJ710" s="17"/>
     </row>
-    <row r="711" spans="2:36" ht="18.75" customHeight="1">
+    <row r="711" spans="1:36" ht="18.75" customHeight="1">
       <c r="B711" s="13"/>
       <c r="C711" s="17"/>
       <c r="D711" s="17"/>
@@ -58365,7 +58729,7 @@
       <c r="AI711" s="17"/>
       <c r="AJ711" s="17"/>
     </row>
-    <row r="712" spans="2:36" ht="18.75" customHeight="1">
+    <row r="712" spans="1:36" ht="18.75" customHeight="1">
       <c r="B712" s="13"/>
       <c r="C712" s="17"/>
       <c r="D712" s="17"/>
@@ -58402,7 +58766,7 @@
       <c r="AI712" s="17"/>
       <c r="AJ712" s="17"/>
     </row>
-    <row r="713" spans="2:36" ht="18.75" customHeight="1">
+    <row r="713" spans="1:36" ht="18.75" customHeight="1">
       <c r="B713" s="13"/>
       <c r="C713" s="17"/>
       <c r="D713" s="17"/>
@@ -58439,7 +58803,7 @@
       <c r="AI713" s="17"/>
       <c r="AJ713" s="17"/>
     </row>
-    <row r="714" spans="2:36" ht="18.75" customHeight="1">
+    <row r="714" spans="1:36" ht="18.75" customHeight="1">
       <c r="B714" s="13"/>
       <c r="C714" s="17"/>
       <c r="D714" s="17"/>
@@ -58476,7 +58840,7 @@
       <c r="AI714" s="17"/>
       <c r="AJ714" s="17"/>
     </row>
-    <row r="715" spans="2:36" ht="18.75" customHeight="1">
+    <row r="715" spans="1:36" ht="18.75" customHeight="1">
       <c r="B715" s="13"/>
       <c r="C715" s="17"/>
       <c r="D715" s="17"/>
@@ -58513,7 +58877,7 @@
       <c r="AI715" s="17"/>
       <c r="AJ715" s="17"/>
     </row>
-    <row r="716" spans="2:36" ht="18.75" customHeight="1">
+    <row r="716" spans="1:36" ht="18.75" customHeight="1">
       <c r="B716" s="13"/>
       <c r="C716" s="17"/>
       <c r="D716" s="17"/>
@@ -58550,7 +58914,7 @@
       <c r="AI716" s="17"/>
       <c r="AJ716" s="17"/>
     </row>
-    <row r="717" spans="2:36" ht="18.75" customHeight="1">
+    <row r="717" spans="1:36" ht="18.75" customHeight="1">
       <c r="B717" s="13"/>
       <c r="C717" s="17"/>
       <c r="D717" s="17"/>
@@ -58587,7 +58951,7 @@
       <c r="AI717" s="17"/>
       <c r="AJ717" s="17"/>
     </row>
-    <row r="718" spans="2:36" ht="18.75" customHeight="1">
+    <row r="718" spans="1:36" ht="18.75" customHeight="1">
       <c r="B718" s="13"/>
       <c r="C718" s="17"/>
       <c r="D718" s="17"/>
@@ -58624,7 +58988,7 @@
       <c r="AI718" s="17"/>
       <c r="AJ718" s="17"/>
     </row>
-    <row r="719" spans="2:36" ht="18.75" customHeight="1">
+    <row r="719" spans="1:36" ht="18.75" customHeight="1">
       <c r="B719" s="13"/>
       <c r="C719" s="17"/>
       <c r="D719" s="17"/>
@@ -58661,7 +59025,7 @@
       <c r="AI719" s="17"/>
       <c r="AJ719" s="17"/>
     </row>
-    <row r="720" spans="2:36" ht="18.75" customHeight="1">
+    <row r="720" spans="1:36" ht="18.75" customHeight="1">
       <c r="B720" s="13"/>
       <c r="C720" s="17"/>
       <c r="D720" s="17"/>
@@ -58772,8 +59136,7 @@
       <c r="AI722" s="17"/>
       <c r="AJ722" s="17"/>
     </row>
-    <row r="723" spans="1:36" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A723" s="19"/>
+    <row r="723" spans="1:36" ht="18.75" customHeight="1">
       <c r="B723" s="13"/>
       <c r="C723" s="17"/>
       <c r="D723" s="17"/>
@@ -59152,7 +59515,8 @@
       <c r="AI732" s="17"/>
       <c r="AJ732" s="17"/>
     </row>
-    <row r="733" spans="1:36" ht="18.75" customHeight="1">
+    <row r="733" spans="1:36" s="1" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A733" s="19"/>
       <c r="B733" s="13"/>
       <c r="C733" s="17"/>
       <c r="D733" s="17"/>
@@ -59892,7 +60256,7 @@
       <c r="AI752" s="17"/>
       <c r="AJ752" s="17"/>
     </row>
-    <row r="753" spans="1:36" ht="18.75" customHeight="1">
+    <row r="753" spans="2:36" ht="18.75" customHeight="1">
       <c r="B753" s="13"/>
       <c r="C753" s="17"/>
       <c r="D753" s="17"/>
@@ -59929,7 +60293,7 @@
       <c r="AI753" s="17"/>
       <c r="AJ753" s="17"/>
     </row>
-    <row r="754" spans="1:36" ht="18.75" customHeight="1">
+    <row r="754" spans="2:36" ht="18.75" customHeight="1">
       <c r="B754" s="13"/>
       <c r="C754" s="17"/>
       <c r="D754" s="17"/>
@@ -59966,7 +60330,7 @@
       <c r="AI754" s="17"/>
       <c r="AJ754" s="17"/>
     </row>
-    <row r="755" spans="1:36" ht="18.75" customHeight="1">
+    <row r="755" spans="2:36" ht="18.75" customHeight="1">
       <c r="B755" s="13"/>
       <c r="C755" s="17"/>
       <c r="D755" s="17"/>
@@ -60003,7 +60367,7 @@
       <c r="AI755" s="17"/>
       <c r="AJ755" s="17"/>
     </row>
-    <row r="756" spans="1:36" ht="18.75" customHeight="1">
+    <row r="756" spans="2:36" ht="18.75" customHeight="1">
       <c r="B756" s="13"/>
       <c r="C756" s="17"/>
       <c r="D756" s="17"/>
@@ -60040,7 +60404,7 @@
       <c r="AI756" s="17"/>
       <c r="AJ756" s="17"/>
     </row>
-    <row r="757" spans="1:36" ht="18.75" customHeight="1">
+    <row r="757" spans="2:36" ht="18.75" customHeight="1">
       <c r="B757" s="13"/>
       <c r="C757" s="17"/>
       <c r="D757" s="17"/>
@@ -60077,7 +60441,7 @@
       <c r="AI757" s="17"/>
       <c r="AJ757" s="17"/>
     </row>
-    <row r="758" spans="1:36" ht="18.75" customHeight="1">
+    <row r="758" spans="2:36" ht="18.75" customHeight="1">
       <c r="B758" s="13"/>
       <c r="C758" s="17"/>
       <c r="D758" s="17"/>
@@ -60114,7 +60478,7 @@
       <c r="AI758" s="17"/>
       <c r="AJ758" s="17"/>
     </row>
-    <row r="759" spans="1:36" ht="18.75" customHeight="1">
+    <row r="759" spans="2:36" ht="18.75" customHeight="1">
       <c r="B759" s="13"/>
       <c r="C759" s="17"/>
       <c r="D759" s="17"/>
@@ -60151,7 +60515,7 @@
       <c r="AI759" s="17"/>
       <c r="AJ759" s="17"/>
     </row>
-    <row r="760" spans="1:36" ht="18.75" customHeight="1">
+    <row r="760" spans="2:36" ht="18.75" customHeight="1">
       <c r="B760" s="13"/>
       <c r="C760" s="17"/>
       <c r="D760" s="17"/>
@@ -60188,7 +60552,7 @@
       <c r="AI760" s="17"/>
       <c r="AJ760" s="17"/>
     </row>
-    <row r="761" spans="1:36" ht="18.75" customHeight="1">
+    <row r="761" spans="2:36" ht="18.75" customHeight="1">
       <c r="B761" s="13"/>
       <c r="C761" s="17"/>
       <c r="D761" s="17"/>
@@ -60225,7 +60589,7 @@
       <c r="AI761" s="17"/>
       <c r="AJ761" s="17"/>
     </row>
-    <row r="762" spans="1:36" ht="18.75" customHeight="1">
+    <row r="762" spans="2:36" ht="18.75" customHeight="1">
       <c r="B762" s="13"/>
       <c r="C762" s="17"/>
       <c r="D762" s="17"/>
@@ -60262,7 +60626,7 @@
       <c r="AI762" s="17"/>
       <c r="AJ762" s="17"/>
     </row>
-    <row r="763" spans="1:36" ht="18.75" customHeight="1">
+    <row r="763" spans="2:36" ht="18.75" customHeight="1">
       <c r="B763" s="13"/>
       <c r="C763" s="17"/>
       <c r="D763" s="17"/>
@@ -60299,7 +60663,7 @@
       <c r="AI763" s="17"/>
       <c r="AJ763" s="17"/>
     </row>
-    <row r="764" spans="1:36" ht="18.75" customHeight="1">
+    <row r="764" spans="2:36" ht="18.75" customHeight="1">
       <c r="B764" s="13"/>
       <c r="C764" s="17"/>
       <c r="D764" s="17"/>
@@ -60336,7 +60700,7 @@
       <c r="AI764" s="17"/>
       <c r="AJ764" s="17"/>
     </row>
-    <row r="765" spans="1:36" ht="18.75" customHeight="1">
+    <row r="765" spans="2:36" ht="18.75" customHeight="1">
       <c r="B765" s="13"/>
       <c r="C765" s="17"/>
       <c r="D765" s="17"/>
@@ -60373,7 +60737,7 @@
       <c r="AI765" s="17"/>
       <c r="AJ765" s="17"/>
     </row>
-    <row r="766" spans="1:36" ht="18.75" customHeight="1">
+    <row r="766" spans="2:36" ht="18.75" customHeight="1">
       <c r="B766" s="13"/>
       <c r="C766" s="17"/>
       <c r="D766" s="17"/>
@@ -60410,7 +60774,7 @@
       <c r="AI766" s="17"/>
       <c r="AJ766" s="17"/>
     </row>
-    <row r="767" spans="1:36" ht="18.75" customHeight="1">
+    <row r="767" spans="2:36" ht="18.75" customHeight="1">
       <c r="B767" s="13"/>
       <c r="C767" s="17"/>
       <c r="D767" s="17"/>
@@ -60447,8 +60811,7 @@
       <c r="AI767" s="17"/>
       <c r="AJ767" s="17"/>
     </row>
-    <row r="768" spans="1:36" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A768" s="19"/>
+    <row r="768" spans="2:36" ht="18.75" customHeight="1">
       <c r="B768" s="13"/>
       <c r="C768" s="17"/>
       <c r="D768" s="17"/>
@@ -60485,7 +60848,8 @@
       <c r="AI768" s="17"/>
       <c r="AJ768" s="17"/>
     </row>
-    <row r="769" spans="2:36">
+    <row r="769" spans="1:36" s="1" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A769" s="19"/>
       <c r="B769" s="13"/>
       <c r="C769" s="17"/>
       <c r="D769" s="17"/>
@@ -60522,7 +60886,7 @@
       <c r="AI769" s="17"/>
       <c r="AJ769" s="17"/>
     </row>
-    <row r="770" spans="2:36">
+    <row r="770" spans="1:36">
       <c r="B770" s="13"/>
       <c r="C770" s="17"/>
       <c r="D770" s="17"/>
@@ -60559,7 +60923,7 @@
       <c r="AI770" s="17"/>
       <c r="AJ770" s="17"/>
     </row>
-    <row r="771" spans="2:36">
+    <row r="771" spans="1:36">
       <c r="B771" s="13"/>
       <c r="C771" s="17"/>
       <c r="D771" s="17"/>
@@ -60596,7 +60960,7 @@
       <c r="AI771" s="17"/>
       <c r="AJ771" s="17"/>
     </row>
-    <row r="772" spans="2:36">
+    <row r="772" spans="1:36">
       <c r="B772" s="13"/>
       <c r="C772" s="17"/>
       <c r="D772" s="17"/>
@@ -60633,7 +60997,7 @@
       <c r="AI772" s="17"/>
       <c r="AJ772" s="17"/>
     </row>
-    <row r="773" spans="2:36">
+    <row r="773" spans="1:36">
       <c r="B773" s="13"/>
       <c r="C773" s="17"/>
       <c r="D773" s="17"/>
@@ -60670,7 +61034,7 @@
       <c r="AI773" s="17"/>
       <c r="AJ773" s="17"/>
     </row>
-    <row r="774" spans="2:36">
+    <row r="774" spans="1:36">
       <c r="B774" s="13"/>
       <c r="C774" s="17"/>
       <c r="D774" s="17"/>
@@ -60707,7 +61071,7 @@
       <c r="AI774" s="17"/>
       <c r="AJ774" s="17"/>
     </row>
-    <row r="775" spans="2:36">
+    <row r="775" spans="1:36">
       <c r="B775" s="13"/>
       <c r="C775" s="17"/>
       <c r="D775" s="17"/>
@@ -60744,7 +61108,7 @@
       <c r="AI775" s="17"/>
       <c r="AJ775" s="17"/>
     </row>
-    <row r="776" spans="2:36">
+    <row r="776" spans="1:36">
       <c r="B776" s="13"/>
       <c r="C776" s="17"/>
       <c r="D776" s="17"/>
@@ -60781,7 +61145,7 @@
       <c r="AI776" s="17"/>
       <c r="AJ776" s="17"/>
     </row>
-    <row r="777" spans="2:36">
+    <row r="777" spans="1:36">
       <c r="B777" s="13"/>
       <c r="C777" s="17"/>
       <c r="D777" s="17"/>
@@ -60818,7 +61182,7 @@
       <c r="AI777" s="17"/>
       <c r="AJ777" s="17"/>
     </row>
-    <row r="778" spans="2:36">
+    <row r="778" spans="1:36">
       <c r="B778" s="13"/>
       <c r="C778" s="17"/>
       <c r="D778" s="17"/>
@@ -60855,7 +61219,7 @@
       <c r="AI778" s="17"/>
       <c r="AJ778" s="17"/>
     </row>
-    <row r="779" spans="2:36">
+    <row r="779" spans="1:36">
       <c r="B779" s="13"/>
       <c r="C779" s="17"/>
       <c r="D779" s="17"/>
@@ -60892,7 +61256,7 @@
       <c r="AI779" s="17"/>
       <c r="AJ779" s="17"/>
     </row>
-    <row r="780" spans="2:36">
+    <row r="780" spans="1:36">
       <c r="B780" s="13"/>
       <c r="C780" s="17"/>
       <c r="D780" s="17"/>
@@ -60929,7 +61293,7 @@
       <c r="AI780" s="17"/>
       <c r="AJ780" s="17"/>
     </row>
-    <row r="781" spans="2:36">
+    <row r="781" spans="1:36">
       <c r="B781" s="13"/>
       <c r="C781" s="17"/>
       <c r="D781" s="17"/>
@@ -60966,7 +61330,7 @@
       <c r="AI781" s="17"/>
       <c r="AJ781" s="17"/>
     </row>
-    <row r="782" spans="2:36">
+    <row r="782" spans="1:36">
       <c r="B782" s="13"/>
       <c r="C782" s="17"/>
       <c r="D782" s="17"/>
@@ -61003,7 +61367,7 @@
       <c r="AI782" s="17"/>
       <c r="AJ782" s="17"/>
     </row>
-    <row r="783" spans="2:36">
+    <row r="783" spans="1:36">
       <c r="B783" s="13"/>
       <c r="C783" s="17"/>
       <c r="D783" s="17"/>
@@ -61040,7 +61404,7 @@
       <c r="AI783" s="17"/>
       <c r="AJ783" s="17"/>
     </row>
-    <row r="784" spans="2:36">
+    <row r="784" spans="1:36">
       <c r="B784" s="13"/>
       <c r="C784" s="17"/>
       <c r="D784" s="17"/>
@@ -63778,10 +64142,47 @@
       <c r="AI857" s="17"/>
       <c r="AJ857" s="17"/>
     </row>
+    <row r="858" spans="2:36">
+      <c r="B858" s="13"/>
+      <c r="C858" s="17"/>
+      <c r="D858" s="17"/>
+      <c r="E858" s="17"/>
+      <c r="F858" s="17"/>
+      <c r="G858" s="17"/>
+      <c r="H858" s="17"/>
+      <c r="I858" s="17"/>
+      <c r="J858" s="17"/>
+      <c r="K858" s="17"/>
+      <c r="L858" s="17"/>
+      <c r="M858" s="17"/>
+      <c r="N858" s="17"/>
+      <c r="O858" s="21"/>
+      <c r="P858" s="17"/>
+      <c r="Q858" s="17"/>
+      <c r="R858" s="17"/>
+      <c r="S858" s="17"/>
+      <c r="T858" s="17"/>
+      <c r="U858" s="17"/>
+      <c r="V858" s="17"/>
+      <c r="W858" s="17"/>
+      <c r="X858" s="17"/>
+      <c r="Y858" s="17"/>
+      <c r="Z858" s="17"/>
+      <c r="AA858" s="17"/>
+      <c r="AB858" s="17"/>
+      <c r="AC858" s="17"/>
+      <c r="AD858" s="17"/>
+      <c r="AE858" s="17"/>
+      <c r="AF858" s="17"/>
+      <c r="AG858" s="17"/>
+      <c r="AH858" s="17"/>
+      <c r="AI858" s="17"/>
+      <c r="AJ858" s="17"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="26"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/TranslateData.xlsx
+++ b/TranslateData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06-Program\AmongUs_Mod_Development\SNR_KT\SuperNewRoles_KT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631045CC-1CB3-49FA-A027-F3D081DD9924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D97095F-B2A8-4FC2-A89A-8E32E8FAB25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15795" yWindow="5063" windowWidth="8550" windowHeight="9532" tabRatio="500" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3988" uniqueCount="3683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3966" uniqueCount="3661">
   <si>
     <t>English</t>
   </si>
@@ -13436,72 +13436,6 @@
   </si>
   <si>
     <t>还有{0}秒解除武装</t>
-  </si>
-  <si>
-    <t>PavlovsdogsName</t>
-  </si>
-  <si>
-    <t>Pavlov's dogs</t>
-  </si>
-  <si>
-    <t>パブロフの犬</t>
-  </si>
-  <si>
-    <t>PavlovsownerName</t>
-  </si>
-  <si>
-    <t>Pavlov's owner</t>
-  </si>
-  <si>
-    <t>パブロフのオーナー</t>
-  </si>
-  <si>
-    <t>PavlovsownerCreateDogCoolTime</t>
-  </si>
-  <si>
-    <t>サイドキックのクールタイム</t>
-  </si>
-  <si>
-    <t>PavlovsownerCreateDogLimit</t>
-  </si>
-  <si>
-    <t>1試合内にサイドキックできる回数</t>
-  </si>
-  <si>
-    <t>PavlovsownerIsTargetImpostorDeath</t>
-  </si>
-  <si>
-    <t>相手がインポスターだと自爆する</t>
-  </si>
-  <si>
-    <t>PavlovsdogIsImpostorView</t>
-  </si>
-  <si>
-    <t>パブロフの犬がインポスターの視界</t>
-  </si>
-  <si>
-    <t>PavlovsdogRunAwayKillCoolTime</t>
-  </si>
-  <si>
-    <t>暴走時のクールタイム</t>
-  </si>
-  <si>
-    <t>PavlovsdogRunAwayDeathTime</t>
-  </si>
-  <si>
-    <t>暴走時の自爆タイム</t>
-  </si>
-  <si>
-    <t>PavlovsdogRunAwayDeathTimeIsMeetingReset</t>
-  </si>
-  <si>
-    <t>会議で自爆タイムをリセットする</t>
-  </si>
-  <si>
-    <t>PavlovsTeamWinText</t>
-  </si>
-  <si>
-    <t>パブロフの犬とオーナー</t>
   </si>
   <si>
     <t>WelcomeMessage1</t>
@@ -14262,7 +14196,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -22655,10 +22588,10 @@
     </row>
     <row r="117" spans="1:36" ht="18.75" customHeight="1">
       <c r="A117" s="19" t="s">
-        <v>3672</v>
+        <v>3650</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>3673</v>
+        <v>3651</v>
       </c>
       <c r="C117" s="13"/>
       <c r="D117" s="13"/>
@@ -22671,11 +22604,11 @@
       <c r="K117" s="13"/>
       <c r="L117" s="13"/>
       <c r="M117" s="13" t="s">
-        <v>3674</v>
+        <v>3652</v>
       </c>
       <c r="N117" s="13"/>
       <c r="O117" s="20" t="s">
-        <v>3675</v>
+        <v>3653</v>
       </c>
       <c r="P117" s="13"/>
       <c r="Q117" s="13"/>
@@ -23604,8 +23537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q760"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="17.649999999999999"/>
@@ -26020,8 +25953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AJ857"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:XFD115"/>
+    <sheetView tabSelected="1" topLeftCell="Q634" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A662" sqref="A662:XFD671"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="17.649999999999999"/>
@@ -31204,10 +31137,10 @@
     </row>
     <row r="113" spans="1:36" ht="18.75" customHeight="1">
       <c r="A113" s="22" t="s">
-        <v>3676</v>
+        <v>3654</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>3677</v>
+        <v>3655</v>
       </c>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
@@ -31220,7 +31153,7 @@
       <c r="K113" s="13"/>
       <c r="L113" s="13"/>
       <c r="M113" s="20" t="s">
-        <v>3678</v>
+        <v>3656</v>
       </c>
       <c r="N113" s="13"/>
       <c r="O113" s="51"/>
@@ -31248,7 +31181,7 @@
     </row>
     <row r="114" spans="1:36" ht="18.75" customHeight="1">
       <c r="A114" s="22" t="s">
-        <v>3679</v>
+        <v>3657</v>
       </c>
       <c r="B114" s="20" t="s">
         <v>1447</v>
@@ -31294,10 +31227,10 @@
     </row>
     <row r="115" spans="1:36" ht="18.75" customHeight="1">
       <c r="A115" s="53" t="s">
-        <v>3680</v>
+        <v>3658</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>3681</v>
+        <v>3659</v>
       </c>
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
@@ -31310,7 +31243,7 @@
       <c r="K115" s="13"/>
       <c r="L115" s="13"/>
       <c r="M115" s="20" t="s">
-        <v>3682</v>
+        <v>3660</v>
       </c>
       <c r="N115" s="13"/>
       <c r="O115" s="51"/>
@@ -56439,12 +56372,8 @@
       <c r="AJ661" s="39"/>
     </row>
     <row r="662" spans="1:36" ht="18.75" customHeight="1">
-      <c r="A662" s="44" t="s">
-        <v>3526</v>
-      </c>
-      <c r="B662" s="13" t="s">
-        <v>3527</v>
-      </c>
+      <c r="A662" s="44"/>
+      <c r="B662" s="13"/>
       <c r="C662" s="17"/>
       <c r="D662" s="17"/>
       <c r="E662" s="17"/>
@@ -56455,9 +56384,7 @@
       <c r="J662" s="17"/>
       <c r="K662" s="17"/>
       <c r="L662" s="17"/>
-      <c r="M662" s="17" t="s">
-        <v>3528</v>
-      </c>
+      <c r="M662" s="17"/>
       <c r="N662" s="17"/>
       <c r="O662" s="21"/>
       <c r="P662" s="17"/>
@@ -56483,12 +56410,8 @@
       <c r="AJ662" s="17"/>
     </row>
     <row r="663" spans="1:36" ht="18.75" customHeight="1">
-      <c r="A663" s="44" t="s">
-        <v>3529</v>
-      </c>
-      <c r="B663" s="13" t="s">
-        <v>3530</v>
-      </c>
+      <c r="A663" s="44"/>
+      <c r="B663" s="13"/>
       <c r="C663" s="17"/>
       <c r="D663" s="17"/>
       <c r="E663" s="17"/>
@@ -56499,9 +56422,7 @@
       <c r="J663" s="17"/>
       <c r="K663" s="17"/>
       <c r="L663" s="17"/>
-      <c r="M663" s="17" t="s">
-        <v>3531</v>
-      </c>
+      <c r="M663" s="17"/>
       <c r="N663" s="17"/>
       <c r="O663" s="21"/>
       <c r="P663" s="17"/>
@@ -56527,9 +56448,7 @@
       <c r="AJ663" s="17"/>
     </row>
     <row r="664" spans="1:36" ht="18.75" customHeight="1">
-      <c r="A664" s="17" t="s">
-        <v>3532</v>
-      </c>
+      <c r="A664" s="17"/>
       <c r="B664" s="13"/>
       <c r="C664" s="17"/>
       <c r="D664" s="17"/>
@@ -56541,9 +56460,7 @@
       <c r="J664" s="17"/>
       <c r="K664" s="17"/>
       <c r="L664" s="17"/>
-      <c r="M664" s="17" t="s">
-        <v>3533</v>
-      </c>
+      <c r="M664" s="17"/>
       <c r="N664" s="17"/>
       <c r="O664" s="21"/>
       <c r="P664" s="17"/>
@@ -56569,9 +56486,7 @@
       <c r="AJ664" s="17"/>
     </row>
     <row r="665" spans="1:36" ht="18.75" customHeight="1">
-      <c r="A665" s="17" t="s">
-        <v>3534</v>
-      </c>
+      <c r="A665" s="17"/>
       <c r="B665" s="13"/>
       <c r="C665" s="17"/>
       <c r="D665" s="17"/>
@@ -56583,9 +56498,7 @@
       <c r="J665" s="17"/>
       <c r="K665" s="17"/>
       <c r="L665" s="17"/>
-      <c r="M665" s="17" t="s">
-        <v>3535</v>
-      </c>
+      <c r="M665" s="17"/>
       <c r="N665" s="17"/>
       <c r="O665" s="21"/>
       <c r="P665" s="17"/>
@@ -56611,9 +56524,7 @@
       <c r="AJ665" s="17"/>
     </row>
     <row r="666" spans="1:36" ht="18.75" customHeight="1">
-      <c r="A666" s="17" t="s">
-        <v>3536</v>
-      </c>
+      <c r="A666" s="17"/>
       <c r="B666" s="13"/>
       <c r="C666" s="17"/>
       <c r="D666" s="17"/>
@@ -56625,9 +56536,7 @@
       <c r="J666" s="17"/>
       <c r="K666" s="17"/>
       <c r="L666" s="17"/>
-      <c r="M666" s="17" t="s">
-        <v>3537</v>
-      </c>
+      <c r="M666" s="17"/>
       <c r="N666" s="17"/>
       <c r="O666" s="21"/>
       <c r="P666" s="17"/>
@@ -56653,9 +56562,7 @@
       <c r="AJ666" s="17"/>
     </row>
     <row r="667" spans="1:36" ht="18.75" customHeight="1">
-      <c r="A667" s="17" t="s">
-        <v>3538</v>
-      </c>
+      <c r="A667" s="17"/>
       <c r="B667" s="13"/>
       <c r="C667" s="17"/>
       <c r="D667" s="17"/>
@@ -56667,9 +56574,7 @@
       <c r="J667" s="17"/>
       <c r="K667" s="17"/>
       <c r="L667" s="17"/>
-      <c r="M667" s="17" t="s">
-        <v>3539</v>
-      </c>
+      <c r="M667" s="17"/>
       <c r="N667" s="17"/>
       <c r="O667" s="21"/>
       <c r="P667" s="17"/>
@@ -56695,9 +56600,7 @@
       <c r="AJ667" s="17"/>
     </row>
     <row r="668" spans="1:36" ht="18.75" customHeight="1">
-      <c r="A668" s="17" t="s">
-        <v>3540</v>
-      </c>
+      <c r="A668" s="17"/>
       <c r="B668" s="13"/>
       <c r="C668" s="17"/>
       <c r="D668" s="17"/>
@@ -56709,9 +56612,7 @@
       <c r="J668" s="17"/>
       <c r="K668" s="17"/>
       <c r="L668" s="17"/>
-      <c r="M668" s="17" t="s">
-        <v>3541</v>
-      </c>
+      <c r="M668" s="17"/>
       <c r="N668" s="17"/>
       <c r="O668" s="21"/>
       <c r="P668" s="17"/>
@@ -56737,9 +56638,7 @@
       <c r="AJ668" s="17"/>
     </row>
     <row r="669" spans="1:36" ht="18.75" customHeight="1">
-      <c r="A669" t="s">
-        <v>3542</v>
-      </c>
+      <c r="A669"/>
       <c r="B669"/>
       <c r="C669"/>
       <c r="D669"/>
@@ -56751,9 +56650,7 @@
       <c r="J669"/>
       <c r="K669"/>
       <c r="L669"/>
-      <c r="M669" s="17" t="s">
-        <v>3543</v>
-      </c>
+      <c r="M669" s="17"/>
       <c r="N669" s="17"/>
       <c r="O669" s="21"/>
       <c r="P669" s="17"/>
@@ -56779,9 +56676,7 @@
       <c r="AJ669" s="17"/>
     </row>
     <row r="670" spans="1:36" ht="18.75" customHeight="1">
-      <c r="A670" s="17" t="s">
-        <v>3544</v>
-      </c>
+      <c r="A670" s="17"/>
       <c r="B670" s="13"/>
       <c r="C670" s="17"/>
       <c r="D670" s="17"/>
@@ -56793,9 +56688,7 @@
       <c r="J670" s="17"/>
       <c r="K670" s="17"/>
       <c r="L670" s="17"/>
-      <c r="M670" t="s">
-        <v>3545</v>
-      </c>
+      <c r="M670"/>
       <c r="N670" s="17"/>
       <c r="O670" s="21"/>
       <c r="P670" s="17"/>
@@ -56821,9 +56714,7 @@
       <c r="AJ670" s="17"/>
     </row>
     <row r="671" spans="1:36" ht="18.75" customHeight="1">
-      <c r="A671" s="13" t="s">
-        <v>3546</v>
-      </c>
+      <c r="A671" s="13"/>
       <c r="B671" s="13"/>
       <c r="C671" s="17"/>
       <c r="D671" s="17"/>
@@ -56835,9 +56726,7 @@
       <c r="J671" s="17"/>
       <c r="K671" s="17"/>
       <c r="L671" s="17"/>
-      <c r="M671" s="17" t="s">
-        <v>3547</v>
-      </c>
+      <c r="M671" s="17"/>
       <c r="N671" s="17"/>
       <c r="O671" s="21"/>
       <c r="P671" s="17"/>
@@ -63834,332 +63723,332 @@
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>3548</v>
+        <v>3526</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3549</v>
+        <v>3527</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>3550</v>
+        <v>3528</v>
       </c>
       <c r="O2" s="45" t="s">
-        <v>3551</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>3552</v>
+        <v>3530</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3553</v>
+        <v>3531</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>3554</v>
+        <v>3532</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>3555</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>3556</v>
+        <v>3534</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3557</v>
+        <v>3535</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>3558</v>
+        <v>3536</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>3559</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>3560</v>
+        <v>3538</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3561</v>
+        <v>3539</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>3562</v>
+        <v>3540</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>3563</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>3564</v>
+        <v>3542</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>3565</v>
+        <v>3543</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>3566</v>
+        <v>3544</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>3567</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="18.75" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>3568</v>
+        <v>3546</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>3569</v>
+        <v>3547</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>3570</v>
+        <v>3548</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>3571</v>
+        <v>3549</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="18.75" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>3572</v>
+        <v>3550</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>3573</v>
+        <v>3551</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>3574</v>
+        <v>3552</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>3575</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="18.75" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>3576</v>
+        <v>3554</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>3577</v>
+        <v>3555</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>3578</v>
+        <v>3556</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>3579</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="18.75" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>3580</v>
+        <v>3558</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>3581</v>
+        <v>3559</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>3582</v>
+        <v>3560</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>3583</v>
+        <v>3561</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="18.75" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>3584</v>
+        <v>3562</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>3585</v>
+        <v>3563</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>3586</v>
+        <v>3564</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>3587</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="18.75" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>3588</v>
+        <v>3566</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>3589</v>
+        <v>3567</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>3590</v>
+        <v>3568</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>3591</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="18.75" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>3592</v>
+        <v>3570</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>3593</v>
+        <v>3571</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>3594</v>
+        <v>3572</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>3595</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>3596</v>
+        <v>3574</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>3597</v>
+        <v>3575</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>3598</v>
+        <v>3576</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>3599</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>3600</v>
+        <v>3578</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>3601</v>
+        <v>3579</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>3602</v>
+        <v>3580</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>3603</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="18.75" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>3604</v>
+        <v>3582</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3605</v>
+        <v>3583</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>3606</v>
+        <v>3584</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>3607</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="18.75" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>3608</v>
+        <v>3586</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>3609</v>
+        <v>3587</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>3610</v>
+        <v>3588</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>3611</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="18.75" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>3612</v>
+        <v>3590</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>3613</v>
+        <v>3591</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>3614</v>
+        <v>3592</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>3615</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="18.75" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>3616</v>
+        <v>3594</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>3617</v>
+        <v>3595</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>3618</v>
+        <v>3596</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>3619</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="18.75" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>3620</v>
+        <v>3598</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>3621</v>
+        <v>3599</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>3622</v>
+        <v>3600</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>3623</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>3624</v>
+        <v>3602</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>3625</v>
+        <v>3603</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>3626</v>
+        <v>3604</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>3627</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="18.75" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>3628</v>
+        <v>3606</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>3629</v>
+        <v>3607</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>3630</v>
+        <v>3608</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>3631</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="18.75" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>3632</v>
+        <v>3610</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>3633</v>
+        <v>3611</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>3634</v>
+        <v>3612</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>3635</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="18.75" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>3636</v>
+        <v>3614</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>3636</v>
+        <v>3614</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>3637</v>
+        <v>3615</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>3638</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="18.75" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>3639</v>
+        <v>3617</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>3640</v>
+        <v>3618</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>59</v>
@@ -64170,53 +64059,53 @@
     </row>
     <row r="26" spans="1:17" ht="18.75" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>3641</v>
+        <v>3619</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>3642</v>
+        <v>3620</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>3643</v>
+        <v>3621</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>3644</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="18.75" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>3645</v>
+        <v>3623</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>3646</v>
+        <v>3624</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>3647</v>
+        <v>3625</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>3648</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="18.75" customHeight="1"/>
     <row r="29" spans="1:17" ht="18.75" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>3649</v>
+        <v>3627</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>3650</v>
+        <v>3628</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>3651</v>
+        <v>3629</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>3652</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="96" customHeight="1">
       <c r="A30" s="46" t="s">
-        <v>3653</v>
+        <v>3631</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>3654</v>
+        <v>3632</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -64229,11 +64118,11 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="47" t="s">
-        <v>3655</v>
+        <v>3633</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="48" t="s">
-        <v>3656</v>
+        <v>3634</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -65261,24 +65150,24 @@
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>3657</v>
+        <v>3635</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3658</v>
+        <v>3636</v>
       </c>
       <c r="M2" s="49" t="s">
-        <v>3659</v>
+        <v>3637</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>3660</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>3661</v>
+        <v>3639</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3662</v>
+        <v>3640</v>
       </c>
       <c r="C3" s="49"/>
       <c r="D3" s="49"/>
@@ -65291,35 +65180,35 @@
       <c r="K3" s="49"/>
       <c r="L3" s="49"/>
       <c r="M3" s="49" t="s">
-        <v>3663</v>
+        <v>3641</v>
       </c>
       <c r="N3" s="49"/>
       <c r="O3" s="50" t="s">
-        <v>3664</v>
+        <v>3642</v>
       </c>
       <c r="P3" s="49"/>
       <c r="Q3" s="49"/>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>3665</v>
+        <v>3643</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3666</v>
+        <v>3644</v>
       </c>
       <c r="M4" s="49" t="s">
-        <v>3667</v>
+        <v>3645</v>
       </c>
       <c r="O4" s="20" t="s">
-        <v>3668</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A5" s="49" t="s">
-        <v>3669</v>
+        <v>3647</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>3670</v>
+        <v>3648</v>
       </c>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
@@ -65332,7 +65221,7 @@
       <c r="K5" s="49"/>
       <c r="L5" s="49"/>
       <c r="M5" s="49" t="s">
-        <v>3671</v>
+        <v>3649</v>
       </c>
       <c r="N5" s="49"/>
       <c r="O5" s="49"/>
